--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,15 @@
     <t>['29', '73', '83', '89']</t>
   </si>
   <si>
+    <t>['4', '10']</t>
+  </si>
+  <si>
+    <t>['22', '69', '76']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -548,6 +557,12 @@
   </si>
   <si>
     <t>['65', '78', '82']</t>
+  </si>
+  <si>
+    <t>['52', '71']</t>
+  </si>
+  <si>
+    <t>['38', '89', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1359,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1622,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1813,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2108,7 +2123,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2299,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2490,7 +2505,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2577,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
         <v>1.67</v>
@@ -2681,7 +2696,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2771,7 +2786,7 @@
         <v>1.86</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2872,7 +2887,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2962,7 +2977,7 @@
         <v>0.86</v>
       </c>
       <c r="AT11">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3063,7 +3078,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3445,7 +3460,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3532,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU14">
         <v>1.2</v>
@@ -3636,7 +3651,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3723,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>2</v>
@@ -3917,7 +3932,7 @@
         <v>2.71</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU16">
         <v>1.53</v>
@@ -4108,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU17">
         <v>1.46</v>
@@ -4209,7 +4224,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4299,7 +4314,7 @@
         <v>0.86</v>
       </c>
       <c r="AT18">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU18">
         <v>1.25</v>
@@ -4400,7 +4415,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4487,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT19">
         <v>1.57</v>
@@ -4591,7 +4606,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4973,7 +4988,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5063,7 +5078,7 @@
         <v>1.86</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5254,7 +5269,7 @@
         <v>0.86</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU23">
         <v>1.31</v>
@@ -5355,7 +5370,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5442,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
         <v>1.57</v>
@@ -5546,7 +5561,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5737,7 +5752,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6119,7 +6134,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6209,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU28">
         <v>1.47</v>
@@ -6310,7 +6325,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6397,7 +6412,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -6501,7 +6516,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6588,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>0.14</v>
@@ -6692,7 +6707,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6782,7 +6797,7 @@
         <v>2.71</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7161,10 +7176,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT33">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU33">
         <v>1.94</v>
@@ -7265,7 +7280,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7352,10 +7367,10 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7456,7 +7471,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7647,7 +7662,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7838,7 +7853,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8029,7 +8044,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8220,7 +8235,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8411,7 +8426,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8501,7 +8516,7 @@
         <v>0.86</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU40">
         <v>1.34</v>
@@ -8602,7 +8617,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8692,7 +8707,7 @@
         <v>2.71</v>
       </c>
       <c r="AT41">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU41">
         <v>1.97</v>
@@ -8793,7 +8808,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8984,7 +8999,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9071,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
         <v>0.14</v>
@@ -9265,7 +9280,7 @@
         <v>2.71</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU44">
         <v>2.27</v>
@@ -9366,7 +9381,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9557,7 +9572,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9644,7 +9659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
         <v>1.14</v>
@@ -9939,7 +9954,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10026,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>0.88</v>
@@ -10130,7 +10145,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10220,7 +10235,7 @@
         <v>1.86</v>
       </c>
       <c r="AT49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU49">
         <v>1.96</v>
@@ -10411,7 +10426,7 @@
         <v>2.71</v>
       </c>
       <c r="AT50">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10512,7 +10527,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10602,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU51">
         <v>1.52</v>
@@ -10894,7 +10909,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11085,7 +11100,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11172,7 +11187,7 @@
         <v>1.6</v>
       </c>
       <c r="AS54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT54">
         <v>2</v>
@@ -11276,7 +11291,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11363,10 +11378,10 @@
         <v>1.2</v>
       </c>
       <c r="AS55">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -11658,7 +11673,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11745,10 +11760,10 @@
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT57">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU57">
         <v>1.56</v>
@@ -12130,7 +12145,7 @@
         <v>2.71</v>
       </c>
       <c r="AT59">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12231,7 +12246,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>9</v>
@@ -12318,7 +12333,7 @@
         <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT60">
         <v>1.67</v>
@@ -12422,7 +12437,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12512,7 +12527,7 @@
         <v>1.86</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -12613,7 +12628,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12804,7 +12819,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -12995,7 +13010,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13082,10 +13097,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU64">
         <v>1.41</v>
@@ -13186,7 +13201,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13273,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
         <v>0.14</v>
@@ -13467,7 +13482,7 @@
         <v>0.86</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU66">
         <v>2.02</v>
@@ -13568,7 +13583,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13849,7 +13864,7 @@
         <v>1.86</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -13950,7 +13965,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14141,7 +14156,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14283,6 +14298,770 @@
       </c>
       <c r="BK70">
         <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2465645</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44864.42708333334</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>132</v>
+      </c>
+      <c r="P71" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>5</v>
+      </c>
+      <c r="S71">
+        <v>8</v>
+      </c>
+      <c r="T71">
+        <v>3.1</v>
+      </c>
+      <c r="U71">
+        <v>2.4</v>
+      </c>
+      <c r="V71">
+        <v>2.75</v>
+      </c>
+      <c r="W71">
+        <v>1.29</v>
+      </c>
+      <c r="X71">
+        <v>3.5</v>
+      </c>
+      <c r="Y71">
+        <v>2.25</v>
+      </c>
+      <c r="Z71">
+        <v>1.57</v>
+      </c>
+      <c r="AA71">
+        <v>5.5</v>
+      </c>
+      <c r="AB71">
+        <v>1.14</v>
+      </c>
+      <c r="AC71">
+        <v>3</v>
+      </c>
+      <c r="AD71">
+        <v>3.6</v>
+      </c>
+      <c r="AE71">
+        <v>2.3</v>
+      </c>
+      <c r="AF71">
+        <v>1.02</v>
+      </c>
+      <c r="AG71">
+        <v>13</v>
+      </c>
+      <c r="AH71">
+        <v>1.14</v>
+      </c>
+      <c r="AI71">
+        <v>5</v>
+      </c>
+      <c r="AJ71">
+        <v>1.53</v>
+      </c>
+      <c r="AK71">
+        <v>2.4</v>
+      </c>
+      <c r="AL71">
+        <v>1.44</v>
+      </c>
+      <c r="AM71">
+        <v>2.63</v>
+      </c>
+      <c r="AN71">
+        <v>1.45</v>
+      </c>
+      <c r="AO71">
+        <v>1.22</v>
+      </c>
+      <c r="AP71">
+        <v>1.47</v>
+      </c>
+      <c r="AQ71">
+        <v>1.29</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>1.5</v>
+      </c>
+      <c r="AT71">
+        <v>0.86</v>
+      </c>
+      <c r="AU71">
+        <v>1.49</v>
+      </c>
+      <c r="AV71">
+        <v>1.94</v>
+      </c>
+      <c r="AW71">
+        <v>3.43</v>
+      </c>
+      <c r="AX71">
+        <v>2.14</v>
+      </c>
+      <c r="AY71">
+        <v>7.4</v>
+      </c>
+      <c r="AZ71">
+        <v>1.99</v>
+      </c>
+      <c r="BA71">
+        <v>1.21</v>
+      </c>
+      <c r="BB71">
+        <v>1.4</v>
+      </c>
+      <c r="BC71">
+        <v>2.1</v>
+      </c>
+      <c r="BD71">
+        <v>2.21</v>
+      </c>
+      <c r="BE71">
+        <v>2.93</v>
+      </c>
+      <c r="BF71">
+        <v>6</v>
+      </c>
+      <c r="BG71">
+        <v>3</v>
+      </c>
+      <c r="BH71">
+        <v>7</v>
+      </c>
+      <c r="BI71">
+        <v>9</v>
+      </c>
+      <c r="BJ71">
+        <v>13</v>
+      </c>
+      <c r="BK71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2465650</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44869.67708333334</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>133</v>
+      </c>
+      <c r="P72" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q72">
+        <v>9</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>13</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
+        <v>2.5</v>
+      </c>
+      <c r="V72">
+        <v>3.25</v>
+      </c>
+      <c r="W72">
+        <v>1.25</v>
+      </c>
+      <c r="X72">
+        <v>3.55</v>
+      </c>
+      <c r="Y72">
+        <v>2.21</v>
+      </c>
+      <c r="Z72">
+        <v>1.59</v>
+      </c>
+      <c r="AA72">
+        <v>4.9</v>
+      </c>
+      <c r="AB72">
+        <v>1.14</v>
+      </c>
+      <c r="AC72">
+        <v>1.91</v>
+      </c>
+      <c r="AD72">
+        <v>3.5</v>
+      </c>
+      <c r="AE72">
+        <v>3.2</v>
+      </c>
+      <c r="AF72">
+        <v>1.02</v>
+      </c>
+      <c r="AG72">
+        <v>12</v>
+      </c>
+      <c r="AH72">
+        <v>1.13</v>
+      </c>
+      <c r="AI72">
+        <v>4.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.5</v>
+      </c>
+      <c r="AK72">
+        <v>2.4</v>
+      </c>
+      <c r="AL72">
+        <v>1.4</v>
+      </c>
+      <c r="AM72">
+        <v>2.75</v>
+      </c>
+      <c r="AN72">
+        <v>1.35</v>
+      </c>
+      <c r="AO72">
+        <v>1.25</v>
+      </c>
+      <c r="AP72">
+        <v>1.7</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.86</v>
+      </c>
+      <c r="AS72">
+        <v>1.25</v>
+      </c>
+      <c r="AT72">
+        <v>1.63</v>
+      </c>
+      <c r="AU72">
+        <v>1.68</v>
+      </c>
+      <c r="AV72">
+        <v>1.32</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>1.62</v>
+      </c>
+      <c r="AY72">
+        <v>8.1</v>
+      </c>
+      <c r="AZ72">
+        <v>2.86</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>1.24</v>
+      </c>
+      <c r="BC72">
+        <v>1.5</v>
+      </c>
+      <c r="BD72">
+        <v>1.81</v>
+      </c>
+      <c r="BE72">
+        <v>2.23</v>
+      </c>
+      <c r="BF72">
+        <v>5</v>
+      </c>
+      <c r="BG72">
+        <v>6</v>
+      </c>
+      <c r="BH72">
+        <v>6</v>
+      </c>
+      <c r="BI72">
+        <v>12</v>
+      </c>
+      <c r="BJ72">
+        <v>11</v>
+      </c>
+      <c r="BK72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2465651</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44869.67708333334</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>11</v>
+      </c>
+      <c r="S73">
+        <v>15</v>
+      </c>
+      <c r="T73">
+        <v>3.75</v>
+      </c>
+      <c r="U73">
+        <v>2.3</v>
+      </c>
+      <c r="V73">
+        <v>2.4</v>
+      </c>
+      <c r="W73">
+        <v>1.31</v>
+      </c>
+      <c r="X73">
+        <v>3.14</v>
+      </c>
+      <c r="Y73">
+        <v>2.46</v>
+      </c>
+      <c r="Z73">
+        <v>1.48</v>
+      </c>
+      <c r="AA73">
+        <v>5.75</v>
+      </c>
+      <c r="AB73">
+        <v>1.1</v>
+      </c>
+      <c r="AC73">
+        <v>3.15</v>
+      </c>
+      <c r="AD73">
+        <v>3.4</v>
+      </c>
+      <c r="AE73">
+        <v>1.95</v>
+      </c>
+      <c r="AF73">
+        <v>1.04</v>
+      </c>
+      <c r="AG73">
+        <v>10</v>
+      </c>
+      <c r="AH73">
+        <v>1.19</v>
+      </c>
+      <c r="AI73">
+        <v>3.95</v>
+      </c>
+      <c r="AJ73">
+        <v>1.65</v>
+      </c>
+      <c r="AK73">
+        <v>2.1</v>
+      </c>
+      <c r="AL73">
+        <v>1.57</v>
+      </c>
+      <c r="AM73">
+        <v>2.25</v>
+      </c>
+      <c r="AN73">
+        <v>1.58</v>
+      </c>
+      <c r="AO73">
+        <v>1.3</v>
+      </c>
+      <c r="AP73">
+        <v>1.32</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>0.86</v>
+      </c>
+      <c r="AS73">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>0.88</v>
+      </c>
+      <c r="AU73">
+        <v>1.53</v>
+      </c>
+      <c r="AV73">
+        <v>1.37</v>
+      </c>
+      <c r="AW73">
+        <v>2.9</v>
+      </c>
+      <c r="AX73">
+        <v>3.18</v>
+      </c>
+      <c r="AY73">
+        <v>8</v>
+      </c>
+      <c r="AZ73">
+        <v>1.5</v>
+      </c>
+      <c r="BA73">
+        <v>1.19</v>
+      </c>
+      <c r="BB73">
+        <v>1.36</v>
+      </c>
+      <c r="BC73">
+        <v>2.1</v>
+      </c>
+      <c r="BD73">
+        <v>2.1</v>
+      </c>
+      <c r="BE73">
+        <v>2.8</v>
+      </c>
+      <c r="BF73">
+        <v>3</v>
+      </c>
+      <c r="BG73">
+        <v>4</v>
+      </c>
+      <c r="BH73">
+        <v>2</v>
+      </c>
+      <c r="BI73">
+        <v>6</v>
+      </c>
+      <c r="BJ73">
+        <v>5</v>
+      </c>
+      <c r="BK73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2465653</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44869.67708333334</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q74">
+        <v>6</v>
+      </c>
+      <c r="R74">
+        <v>7</v>
+      </c>
+      <c r="S74">
+        <v>13</v>
+      </c>
+      <c r="T74">
+        <v>2.38</v>
+      </c>
+      <c r="U74">
+        <v>2.4</v>
+      </c>
+      <c r="V74">
+        <v>3.75</v>
+      </c>
+      <c r="W74">
+        <v>1.26</v>
+      </c>
+      <c r="X74">
+        <v>3.48</v>
+      </c>
+      <c r="Y74">
+        <v>2.25</v>
+      </c>
+      <c r="Z74">
+        <v>1.57</v>
+      </c>
+      <c r="AA74">
+        <v>5.05</v>
+      </c>
+      <c r="AB74">
+        <v>1.13</v>
+      </c>
+      <c r="AC74">
+        <v>1.75</v>
+      </c>
+      <c r="AD74">
+        <v>3.6</v>
+      </c>
+      <c r="AE74">
+        <v>3.65</v>
+      </c>
+      <c r="AF74">
+        <v>1.03</v>
+      </c>
+      <c r="AG74">
+        <v>11</v>
+      </c>
+      <c r="AH74">
+        <v>1.14</v>
+      </c>
+      <c r="AI74">
+        <v>4.6</v>
+      </c>
+      <c r="AJ74">
+        <v>1.53</v>
+      </c>
+      <c r="AK74">
+        <v>2.35</v>
+      </c>
+      <c r="AL74">
+        <v>1.5</v>
+      </c>
+      <c r="AM74">
+        <v>2.5</v>
+      </c>
+      <c r="AN74">
+        <v>1.24</v>
+      </c>
+      <c r="AO74">
+        <v>1.23</v>
+      </c>
+      <c r="AP74">
+        <v>1.95</v>
+      </c>
+      <c r="AQ74">
+        <v>1.33</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>1.14</v>
+      </c>
+      <c r="AT74">
+        <v>1.25</v>
+      </c>
+      <c r="AU74">
+        <v>1.79</v>
+      </c>
+      <c r="AV74">
+        <v>1.41</v>
+      </c>
+      <c r="AW74">
+        <v>3.2</v>
+      </c>
+      <c r="AX74">
+        <v>1.33</v>
+      </c>
+      <c r="AY74">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ74">
+        <v>4.05</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>1.21</v>
+      </c>
+      <c r="BC74">
+        <v>1.41</v>
+      </c>
+      <c r="BD74">
+        <v>1.76</v>
+      </c>
+      <c r="BE74">
+        <v>2.16</v>
+      </c>
+      <c r="BF74">
+        <v>3</v>
+      </c>
+      <c r="BG74">
+        <v>6</v>
+      </c>
+      <c r="BH74">
+        <v>12</v>
+      </c>
+      <c r="BI74">
+        <v>6</v>
+      </c>
+      <c r="BJ74">
+        <v>15</v>
+      </c>
+      <c r="BK74">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,42 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['62', '72']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['12', '57']</t>
+  </si>
+  <si>
+    <t>['69', '85', '90+3']</t>
+  </si>
+  <si>
+    <t>['54', '62']</t>
+  </si>
+  <si>
+    <t>['17', '27', '28', '73', '75', '81']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['16', '28', '49', '64', '66']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -499,9 +535,6 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['35', '61']</t>
   </si>
   <si>
@@ -553,9 +586,6 @@
     <t>['8', '59']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['65', '78', '82']</t>
   </si>
   <si>
@@ -563,6 +593,24 @@
   </si>
   <si>
     <t>['38', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['56', '61', '65']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1359,7 +1407,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1446,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1637,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT4">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1828,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2019,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT6">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2123,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2210,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2314,7 +2362,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2401,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2505,7 +2553,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2592,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2696,7 +2744,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2783,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2887,7 +2935,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2974,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT11">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3078,7 +3126,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3165,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU12">
         <v>1.83</v>
@@ -3359,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU13">
         <v>1.43</v>
@@ -3460,7 +3508,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3547,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU14">
         <v>1.2</v>
@@ -3651,7 +3699,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3738,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU15">
         <v>1.18</v>
@@ -3929,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT16">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>1.53</v>
@@ -4123,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU17">
         <v>1.46</v>
@@ -4224,7 +4272,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4311,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU18">
         <v>1.25</v>
@@ -4415,7 +4463,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4502,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4606,7 +4654,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4693,10 +4741,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT20">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU20">
         <v>1.55</v>
@@ -4884,10 +4932,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -4988,7 +5036,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5075,10 +5123,10 @@
         <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5266,10 +5314,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT23">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU23">
         <v>1.31</v>
@@ -5370,7 +5418,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5457,10 +5505,10 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU24">
         <v>1.19</v>
@@ -5561,7 +5609,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5648,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU25">
         <v>1.84</v>
@@ -5752,7 +5800,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5839,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU26">
         <v>1.79</v>
@@ -6030,10 +6078,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT27">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU27">
         <v>1.95</v>
@@ -6134,7 +6182,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6224,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU28">
         <v>1.47</v>
@@ -6325,7 +6373,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6412,10 +6460,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU29">
         <v>1.44</v>
@@ -6516,7 +6564,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6603,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU30">
         <v>1.44</v>
@@ -6707,7 +6755,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6794,10 +6842,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -6985,10 +7033,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7176,10 +7224,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU33">
         <v>1.94</v>
@@ -7280,7 +7328,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7367,10 +7415,10 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7471,7 +7519,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7558,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT35">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7662,7 +7710,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7749,10 +7797,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT36">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU36">
         <v>1.67</v>
@@ -7853,7 +7901,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7943,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>1.55</v>
@@ -8044,7 +8092,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8131,10 +8179,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT38">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8235,7 +8283,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8322,10 +8370,10 @@
         <v>2.33</v>
       </c>
       <c r="AS39">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT39">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU39">
         <v>1.7</v>
@@ -8426,7 +8474,7 @@
         <v>106</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8513,10 +8561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS40">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
         <v>1.34</v>
@@ -8617,7 +8665,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8704,10 +8752,10 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT41">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU41">
         <v>1.97</v>
@@ -8808,7 +8856,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8895,10 +8943,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -8999,7 +9047,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9086,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT43">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU43">
         <v>1.68</v>
@@ -9277,10 +9325,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU44">
         <v>2.27</v>
@@ -9381,7 +9429,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9468,10 +9516,10 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9572,7 +9620,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9659,10 +9707,10 @@
         <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU46">
         <v>1.46</v>
@@ -9850,10 +9898,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT47">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -9954,7 +10002,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10041,10 +10089,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT48">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU48">
         <v>1.6</v>
@@ -10145,7 +10193,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10232,10 +10280,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU49">
         <v>1.96</v>
@@ -10423,10 +10471,10 @@
         <v>1.75</v>
       </c>
       <c r="AS50">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT50">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10527,7 +10575,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10617,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>1.52</v>
@@ -10805,10 +10853,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU52">
         <v>1.86</v>
@@ -10909,7 +10957,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -10996,10 +11044,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU53">
         <v>2.13</v>
@@ -11100,7 +11148,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11187,10 +11235,10 @@
         <v>1.6</v>
       </c>
       <c r="AS54">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU54">
         <v>1.58</v>
@@ -11291,7 +11339,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11378,10 +11426,10 @@
         <v>1.2</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -11569,10 +11617,10 @@
         <v>2.2</v>
       </c>
       <c r="AS56">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -11673,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11760,10 +11808,10 @@
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU57">
         <v>1.56</v>
@@ -11951,10 +11999,10 @@
         <v>1.4</v>
       </c>
       <c r="AS58">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU58">
         <v>1.56</v>
@@ -12142,10 +12190,10 @@
         <v>1.2</v>
       </c>
       <c r="AS59">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12246,7 +12294,7 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q60">
         <v>9</v>
@@ -12333,10 +12381,10 @@
         <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT60">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU60">
         <v>1.66</v>
@@ -12437,7 +12485,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12524,10 +12572,10 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -12628,7 +12676,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12715,10 +12763,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT62">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU62">
         <v>2.07</v>
@@ -12819,7 +12867,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -12909,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13010,7 +13058,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13097,10 +13145,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU64">
         <v>1.41</v>
@@ -13201,7 +13249,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13288,10 +13336,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU65">
         <v>1.67</v>
@@ -13479,10 +13527,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>2.02</v>
@@ -13583,7 +13631,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13670,10 +13718,10 @@
         <v>0.86</v>
       </c>
       <c r="AS67">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU67">
         <v>1.69</v>
@@ -13861,10 +13909,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -13965,7 +14013,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14052,10 +14100,10 @@
         <v>1.83</v>
       </c>
       <c r="AS69">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AT69">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU69">
         <v>1.97</v>
@@ -14156,7 +14204,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14243,10 +14291,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14434,10 +14482,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -14538,7 +14586,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14625,10 +14673,10 @@
         <v>1.86</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -14819,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -14920,7 +14968,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15007,10 +15055,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15062,6 +15110,2298 @@
       </c>
       <c r="BK74">
         <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2465652</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q75">
+        <v>10</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>13</v>
+      </c>
+      <c r="T75">
+        <v>1.95</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>5.5</v>
+      </c>
+      <c r="W75">
+        <v>1.3</v>
+      </c>
+      <c r="X75">
+        <v>3.4</v>
+      </c>
+      <c r="Y75">
+        <v>2.38</v>
+      </c>
+      <c r="Z75">
+        <v>1.53</v>
+      </c>
+      <c r="AA75">
+        <v>5.5</v>
+      </c>
+      <c r="AB75">
+        <v>1.12</v>
+      </c>
+      <c r="AC75">
+        <v>1.5</v>
+      </c>
+      <c r="AD75">
+        <v>4.5</v>
+      </c>
+      <c r="AE75">
+        <v>6.5</v>
+      </c>
+      <c r="AF75">
+        <v>1.04</v>
+      </c>
+      <c r="AG75">
+        <v>10</v>
+      </c>
+      <c r="AH75">
+        <v>1.22</v>
+      </c>
+      <c r="AI75">
+        <v>4</v>
+      </c>
+      <c r="AJ75">
+        <v>1.57</v>
+      </c>
+      <c r="AK75">
+        <v>2.35</v>
+      </c>
+      <c r="AL75">
+        <v>1.73</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>1.23</v>
+      </c>
+      <c r="AO75">
+        <v>1.24</v>
+      </c>
+      <c r="AP75">
+        <v>1.95</v>
+      </c>
+      <c r="AQ75">
+        <v>1.86</v>
+      </c>
+      <c r="AR75">
+        <v>1.67</v>
+      </c>
+      <c r="AS75">
+        <v>2.11</v>
+      </c>
+      <c r="AT75">
+        <v>1.38</v>
+      </c>
+      <c r="AU75">
+        <v>1.95</v>
+      </c>
+      <c r="AV75">
+        <v>1.55</v>
+      </c>
+      <c r="AW75">
+        <v>3.5</v>
+      </c>
+      <c r="AX75">
+        <v>1.32</v>
+      </c>
+      <c r="AY75">
+        <v>9.1</v>
+      </c>
+      <c r="AZ75">
+        <v>4.2</v>
+      </c>
+      <c r="BA75">
+        <v>1.21</v>
+      </c>
+      <c r="BB75">
+        <v>1.33</v>
+      </c>
+      <c r="BC75">
+        <v>2.1</v>
+      </c>
+      <c r="BD75">
+        <v>2.06</v>
+      </c>
+      <c r="BE75">
+        <v>2.67</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
+        <v>3</v>
+      </c>
+      <c r="BH75">
+        <v>2</v>
+      </c>
+      <c r="BI75">
+        <v>5</v>
+      </c>
+      <c r="BJ75">
+        <v>8</v>
+      </c>
+      <c r="BK75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2465654</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44871.42708333334</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>136</v>
+      </c>
+      <c r="P76" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q76">
+        <v>9</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>15</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>2.38</v>
+      </c>
+      <c r="V76">
+        <v>3.1</v>
+      </c>
+      <c r="W76">
+        <v>1.28</v>
+      </c>
+      <c r="X76">
+        <v>3.3</v>
+      </c>
+      <c r="Y76">
+        <v>2.2</v>
+      </c>
+      <c r="Z76">
+        <v>1.6</v>
+      </c>
+      <c r="AA76">
+        <v>4.8</v>
+      </c>
+      <c r="AB76">
+        <v>1.15</v>
+      </c>
+      <c r="AC76">
+        <v>2.3</v>
+      </c>
+      <c r="AD76">
+        <v>3.6</v>
+      </c>
+      <c r="AE76">
+        <v>3</v>
+      </c>
+      <c r="AF76">
+        <v>1.02</v>
+      </c>
+      <c r="AG76">
+        <v>12</v>
+      </c>
+      <c r="AH76">
+        <v>1.12</v>
+      </c>
+      <c r="AI76">
+        <v>5.2</v>
+      </c>
+      <c r="AJ76">
+        <v>1.53</v>
+      </c>
+      <c r="AK76">
+        <v>2.4</v>
+      </c>
+      <c r="AL76">
+        <v>1.5</v>
+      </c>
+      <c r="AM76">
+        <v>2.5</v>
+      </c>
+      <c r="AN76">
+        <v>1.35</v>
+      </c>
+      <c r="AO76">
+        <v>1.28</v>
+      </c>
+      <c r="AP76">
+        <v>1.55</v>
+      </c>
+      <c r="AQ76">
+        <v>0.86</v>
+      </c>
+      <c r="AR76">
+        <v>0.14</v>
+      </c>
+      <c r="AS76">
+        <v>1.11</v>
+      </c>
+      <c r="AT76">
+        <v>0.25</v>
+      </c>
+      <c r="AU76">
+        <v>1.93</v>
+      </c>
+      <c r="AV76">
+        <v>1.49</v>
+      </c>
+      <c r="AW76">
+        <v>3.42</v>
+      </c>
+      <c r="AX76">
+        <v>1.75</v>
+      </c>
+      <c r="AY76">
+        <v>7.8</v>
+      </c>
+      <c r="AZ76">
+        <v>2.57</v>
+      </c>
+      <c r="BA76">
+        <v>1.27</v>
+      </c>
+      <c r="BB76">
+        <v>1.51</v>
+      </c>
+      <c r="BC76">
+        <v>2.1</v>
+      </c>
+      <c r="BD76">
+        <v>2.28</v>
+      </c>
+      <c r="BE76">
+        <v>3</v>
+      </c>
+      <c r="BF76">
+        <v>7</v>
+      </c>
+      <c r="BG76">
+        <v>4</v>
+      </c>
+      <c r="BH76">
+        <v>15</v>
+      </c>
+      <c r="BI76">
+        <v>9</v>
+      </c>
+      <c r="BJ76">
+        <v>22</v>
+      </c>
+      <c r="BK76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2465656</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44876.64583333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>137</v>
+      </c>
+      <c r="P77" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>9</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>3.2</v>
+      </c>
+      <c r="U77">
+        <v>2.25</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.28</v>
+      </c>
+      <c r="X77">
+        <v>3.34</v>
+      </c>
+      <c r="Y77">
+        <v>2.43</v>
+      </c>
+      <c r="Z77">
+        <v>1.57</v>
+      </c>
+      <c r="AA77">
+        <v>5.25</v>
+      </c>
+      <c r="AB77">
+        <v>1.12</v>
+      </c>
+      <c r="AC77">
+        <v>2.9</v>
+      </c>
+      <c r="AD77">
+        <v>3.5</v>
+      </c>
+      <c r="AE77">
+        <v>2.3</v>
+      </c>
+      <c r="AF77">
+        <v>1.03</v>
+      </c>
+      <c r="AG77">
+        <v>11</v>
+      </c>
+      <c r="AH77">
+        <v>1.2</v>
+      </c>
+      <c r="AI77">
+        <v>4.33</v>
+      </c>
+      <c r="AJ77">
+        <v>1.65</v>
+      </c>
+      <c r="AK77">
+        <v>2.2</v>
+      </c>
+      <c r="AL77">
+        <v>1.57</v>
+      </c>
+      <c r="AM77">
+        <v>2.25</v>
+      </c>
+      <c r="AN77">
+        <v>1.55</v>
+      </c>
+      <c r="AO77">
+        <v>1.27</v>
+      </c>
+      <c r="AP77">
+        <v>1.38</v>
+      </c>
+      <c r="AQ77">
+        <v>0.86</v>
+      </c>
+      <c r="AR77">
+        <v>2</v>
+      </c>
+      <c r="AS77">
+        <v>1.11</v>
+      </c>
+      <c r="AT77">
+        <v>1.75</v>
+      </c>
+      <c r="AU77">
+        <v>1.63</v>
+      </c>
+      <c r="AV77">
+        <v>1.62</v>
+      </c>
+      <c r="AW77">
+        <v>3.25</v>
+      </c>
+      <c r="AX77">
+        <v>2.66</v>
+      </c>
+      <c r="AY77">
+        <v>7.9</v>
+      </c>
+      <c r="AZ77">
+        <v>1.66</v>
+      </c>
+      <c r="BA77">
+        <v>1.19</v>
+      </c>
+      <c r="BB77">
+        <v>1.37</v>
+      </c>
+      <c r="BC77">
+        <v>2</v>
+      </c>
+      <c r="BD77">
+        <v>2.14</v>
+      </c>
+      <c r="BE77">
+        <v>2.79</v>
+      </c>
+      <c r="BF77">
+        <v>5</v>
+      </c>
+      <c r="BG77">
+        <v>5</v>
+      </c>
+      <c r="BH77">
+        <v>3</v>
+      </c>
+      <c r="BI77">
+        <v>7</v>
+      </c>
+      <c r="BJ77">
+        <v>8</v>
+      </c>
+      <c r="BK77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2465659</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44876.64583333334</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>10</v>
+      </c>
+      <c r="S78">
+        <v>14</v>
+      </c>
+      <c r="T78">
+        <v>2.63</v>
+      </c>
+      <c r="U78">
+        <v>2.5</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.22</v>
+      </c>
+      <c r="X78">
+        <v>3.82</v>
+      </c>
+      <c r="Y78">
+        <v>2.14</v>
+      </c>
+      <c r="Z78">
+        <v>1.72</v>
+      </c>
+      <c r="AA78">
+        <v>4.32</v>
+      </c>
+      <c r="AB78">
+        <v>1.18</v>
+      </c>
+      <c r="AC78">
+        <v>2.2</v>
+      </c>
+      <c r="AD78">
+        <v>3.75</v>
+      </c>
+      <c r="AE78">
+        <v>3.1</v>
+      </c>
+      <c r="AF78">
+        <v>1.02</v>
+      </c>
+      <c r="AG78">
+        <v>13</v>
+      </c>
+      <c r="AH78">
+        <v>1.12</v>
+      </c>
+      <c r="AI78">
+        <v>5.5</v>
+      </c>
+      <c r="AJ78">
+        <v>1.48</v>
+      </c>
+      <c r="AK78">
+        <v>2.6</v>
+      </c>
+      <c r="AL78">
+        <v>1.4</v>
+      </c>
+      <c r="AM78">
+        <v>2.75</v>
+      </c>
+      <c r="AN78">
+        <v>1.35</v>
+      </c>
+      <c r="AO78">
+        <v>1.24</v>
+      </c>
+      <c r="AP78">
+        <v>1.62</v>
+      </c>
+      <c r="AQ78">
+        <v>1.86</v>
+      </c>
+      <c r="AR78">
+        <v>0.86</v>
+      </c>
+      <c r="AS78">
+        <v>2</v>
+      </c>
+      <c r="AT78">
+        <v>0.75</v>
+      </c>
+      <c r="AU78">
+        <v>1.76</v>
+      </c>
+      <c r="AV78">
+        <v>1.87</v>
+      </c>
+      <c r="AW78">
+        <v>3.63</v>
+      </c>
+      <c r="AX78">
+        <v>1.8</v>
+      </c>
+      <c r="AY78">
+        <v>7.7</v>
+      </c>
+      <c r="AZ78">
+        <v>2.38</v>
+      </c>
+      <c r="BA78">
+        <v>1.19</v>
+      </c>
+      <c r="BB78">
+        <v>1.31</v>
+      </c>
+      <c r="BC78">
+        <v>1.65</v>
+      </c>
+      <c r="BD78">
+        <v>2.02</v>
+      </c>
+      <c r="BE78">
+        <v>2.57</v>
+      </c>
+      <c r="BF78">
+        <v>6</v>
+      </c>
+      <c r="BG78">
+        <v>5</v>
+      </c>
+      <c r="BH78">
+        <v>7</v>
+      </c>
+      <c r="BI78">
+        <v>6</v>
+      </c>
+      <c r="BJ78">
+        <v>13</v>
+      </c>
+      <c r="BK78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2465657</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44876.67708333334</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q79">
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <v>4</v>
+      </c>
+      <c r="S79">
+        <v>14</v>
+      </c>
+      <c r="T79">
+        <v>2.38</v>
+      </c>
+      <c r="U79">
+        <v>2.38</v>
+      </c>
+      <c r="V79">
+        <v>3.75</v>
+      </c>
+      <c r="W79">
+        <v>1.29</v>
+      </c>
+      <c r="X79">
+        <v>3.5</v>
+      </c>
+      <c r="Y79">
+        <v>2.25</v>
+      </c>
+      <c r="Z79">
+        <v>1.6</v>
+      </c>
+      <c r="AA79">
+        <v>4.75</v>
+      </c>
+      <c r="AB79">
+        <v>1.15</v>
+      </c>
+      <c r="AC79">
+        <v>1.91</v>
+      </c>
+      <c r="AD79">
+        <v>3.75</v>
+      </c>
+      <c r="AE79">
+        <v>3.8</v>
+      </c>
+      <c r="AF79">
+        <v>1.03</v>
+      </c>
+      <c r="AG79">
+        <v>11</v>
+      </c>
+      <c r="AH79">
+        <v>1.2</v>
+      </c>
+      <c r="AI79">
+        <v>4.33</v>
+      </c>
+      <c r="AJ79">
+        <v>1.53</v>
+      </c>
+      <c r="AK79">
+        <v>2.4</v>
+      </c>
+      <c r="AL79">
+        <v>1.53</v>
+      </c>
+      <c r="AM79">
+        <v>2.38</v>
+      </c>
+      <c r="AN79">
+        <v>1.2</v>
+      </c>
+      <c r="AO79">
+        <v>1.25</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>1.14</v>
+      </c>
+      <c r="AR79">
+        <v>1.14</v>
+      </c>
+      <c r="AS79">
+        <v>1.38</v>
+      </c>
+      <c r="AT79">
+        <v>0.89</v>
+      </c>
+      <c r="AU79">
+        <v>1.82</v>
+      </c>
+      <c r="AV79">
+        <v>1.57</v>
+      </c>
+      <c r="AW79">
+        <v>3.39</v>
+      </c>
+      <c r="AX79">
+        <v>1.29</v>
+      </c>
+      <c r="AY79">
+        <v>9.5</v>
+      </c>
+      <c r="AZ79">
+        <v>4.5</v>
+      </c>
+      <c r="BA79">
+        <v>1.19</v>
+      </c>
+      <c r="BB79">
+        <v>1.29</v>
+      </c>
+      <c r="BC79">
+        <v>1.83</v>
+      </c>
+      <c r="BD79">
+        <v>1.96</v>
+      </c>
+      <c r="BE79">
+        <v>2.45</v>
+      </c>
+      <c r="BF79">
+        <v>6</v>
+      </c>
+      <c r="BG79">
+        <v>4</v>
+      </c>
+      <c r="BH79">
+        <v>10</v>
+      </c>
+      <c r="BI79">
+        <v>2</v>
+      </c>
+      <c r="BJ79">
+        <v>16</v>
+      </c>
+      <c r="BK79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2465658</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44878.42708333334</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>7</v>
+      </c>
+      <c r="O80" t="s">
+        <v>140</v>
+      </c>
+      <c r="P80" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>2.63</v>
+      </c>
+      <c r="U80">
+        <v>2.5</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>1.22</v>
+      </c>
+      <c r="X80">
+        <v>4</v>
+      </c>
+      <c r="Y80">
+        <v>2.1</v>
+      </c>
+      <c r="Z80">
+        <v>1.67</v>
+      </c>
+      <c r="AA80">
+        <v>4.5</v>
+      </c>
+      <c r="AB80">
+        <v>1.18</v>
+      </c>
+      <c r="AC80">
+        <v>2.25</v>
+      </c>
+      <c r="AD80">
+        <v>4</v>
+      </c>
+      <c r="AE80">
+        <v>2.75</v>
+      </c>
+      <c r="AF80">
+        <v>1.02</v>
+      </c>
+      <c r="AG80">
+        <v>17</v>
+      </c>
+      <c r="AH80">
+        <v>1.09</v>
+      </c>
+      <c r="AI80">
+        <v>5.7</v>
+      </c>
+      <c r="AJ80">
+        <v>1.4</v>
+      </c>
+      <c r="AK80">
+        <v>2.88</v>
+      </c>
+      <c r="AL80">
+        <v>1.4</v>
+      </c>
+      <c r="AM80">
+        <v>2.75</v>
+      </c>
+      <c r="AN80">
+        <v>1.33</v>
+      </c>
+      <c r="AO80">
+        <v>1.25</v>
+      </c>
+      <c r="AP80">
+        <v>1.62</v>
+      </c>
+      <c r="AQ80">
+        <v>2.71</v>
+      </c>
+      <c r="AR80">
+        <v>1.57</v>
+      </c>
+      <c r="AS80">
+        <v>2.75</v>
+      </c>
+      <c r="AT80">
+        <v>1.38</v>
+      </c>
+      <c r="AU80">
+        <v>1.73</v>
+      </c>
+      <c r="AV80">
+        <v>1.66</v>
+      </c>
+      <c r="AW80">
+        <v>3.39</v>
+      </c>
+      <c r="AX80">
+        <v>2.08</v>
+      </c>
+      <c r="AY80">
+        <v>7.3</v>
+      </c>
+      <c r="AZ80">
+        <v>2.05</v>
+      </c>
+      <c r="BA80">
+        <v>1.13</v>
+      </c>
+      <c r="BB80">
+        <v>1.22</v>
+      </c>
+      <c r="BC80">
+        <v>1.35</v>
+      </c>
+      <c r="BD80">
+        <v>1.69</v>
+      </c>
+      <c r="BE80">
+        <v>2.06</v>
+      </c>
+      <c r="BF80">
+        <v>9</v>
+      </c>
+      <c r="BG80">
+        <v>5</v>
+      </c>
+      <c r="BH80">
+        <v>6</v>
+      </c>
+      <c r="BI80">
+        <v>3</v>
+      </c>
+      <c r="BJ80">
+        <v>15</v>
+      </c>
+      <c r="BK80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2465655</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44878.52083333334</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s">
+        <v>68</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>141</v>
+      </c>
+      <c r="P81" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q81">
+        <v>12</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>17</v>
+      </c>
+      <c r="T81">
+        <v>1.91</v>
+      </c>
+      <c r="U81">
+        <v>2.4</v>
+      </c>
+      <c r="V81">
+        <v>5.5</v>
+      </c>
+      <c r="W81">
+        <v>1.3</v>
+      </c>
+      <c r="X81">
+        <v>3.4</v>
+      </c>
+      <c r="Y81">
+        <v>2.5</v>
+      </c>
+      <c r="Z81">
+        <v>1.5</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81">
+        <v>1.13</v>
+      </c>
+      <c r="AC81">
+        <v>1.58</v>
+      </c>
+      <c r="AD81">
+        <v>4.2</v>
+      </c>
+      <c r="AE81">
+        <v>5.15</v>
+      </c>
+      <c r="AF81">
+        <v>1.03</v>
+      </c>
+      <c r="AG81">
+        <v>11</v>
+      </c>
+      <c r="AH81">
+        <v>1.22</v>
+      </c>
+      <c r="AI81">
+        <v>4</v>
+      </c>
+      <c r="AJ81">
+        <v>1.65</v>
+      </c>
+      <c r="AK81">
+        <v>2.17</v>
+      </c>
+      <c r="AL81">
+        <v>1.8</v>
+      </c>
+      <c r="AM81">
+        <v>1.91</v>
+      </c>
+      <c r="AN81">
+        <v>1.15</v>
+      </c>
+      <c r="AO81">
+        <v>1.22</v>
+      </c>
+      <c r="AP81">
+        <v>2.1</v>
+      </c>
+      <c r="AQ81">
+        <v>2.71</v>
+      </c>
+      <c r="AR81">
+        <v>1.43</v>
+      </c>
+      <c r="AS81">
+        <v>2.5</v>
+      </c>
+      <c r="AT81">
+        <v>1.38</v>
+      </c>
+      <c r="AU81">
+        <v>2.04</v>
+      </c>
+      <c r="AV81">
+        <v>1.47</v>
+      </c>
+      <c r="AW81">
+        <v>3.51</v>
+      </c>
+      <c r="AX81">
+        <v>1.35</v>
+      </c>
+      <c r="AY81">
+        <v>9</v>
+      </c>
+      <c r="AZ81">
+        <v>3.94</v>
+      </c>
+      <c r="BA81">
+        <v>1.23</v>
+      </c>
+      <c r="BB81">
+        <v>1.39</v>
+      </c>
+      <c r="BC81">
+        <v>2.2</v>
+      </c>
+      <c r="BD81">
+        <v>2.1</v>
+      </c>
+      <c r="BE81">
+        <v>2.78</v>
+      </c>
+      <c r="BF81">
+        <v>4</v>
+      </c>
+      <c r="BG81">
+        <v>4</v>
+      </c>
+      <c r="BH81">
+        <v>10</v>
+      </c>
+      <c r="BI81">
+        <v>5</v>
+      </c>
+      <c r="BJ81">
+        <v>14</v>
+      </c>
+      <c r="BK81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2465662</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44883.64583333334</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>142</v>
+      </c>
+      <c r="P82" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>8</v>
+      </c>
+      <c r="S82">
+        <v>13</v>
+      </c>
+      <c r="T82">
+        <v>3.1</v>
+      </c>
+      <c r="U82">
+        <v>2.3</v>
+      </c>
+      <c r="V82">
+        <v>2.75</v>
+      </c>
+      <c r="W82">
+        <v>1.29</v>
+      </c>
+      <c r="X82">
+        <v>3.5</v>
+      </c>
+      <c r="Y82">
+        <v>2.26</v>
+      </c>
+      <c r="Z82">
+        <v>1.58</v>
+      </c>
+      <c r="AA82">
+        <v>4.5</v>
+      </c>
+      <c r="AB82">
+        <v>1.17</v>
+      </c>
+      <c r="AC82">
+        <v>2.88</v>
+      </c>
+      <c r="AD82">
+        <v>3.8</v>
+      </c>
+      <c r="AE82">
+        <v>2.25</v>
+      </c>
+      <c r="AF82">
+        <v>1.02</v>
+      </c>
+      <c r="AG82">
+        <v>12</v>
+      </c>
+      <c r="AH82">
+        <v>1.17</v>
+      </c>
+      <c r="AI82">
+        <v>4.75</v>
+      </c>
+      <c r="AJ82">
+        <v>1.57</v>
+      </c>
+      <c r="AK82">
+        <v>2.35</v>
+      </c>
+      <c r="AL82">
+        <v>1.53</v>
+      </c>
+      <c r="AM82">
+        <v>2.38</v>
+      </c>
+      <c r="AN82">
+        <v>1.46</v>
+      </c>
+      <c r="AO82">
+        <v>1.25</v>
+      </c>
+      <c r="AP82">
+        <v>1.55</v>
+      </c>
+      <c r="AQ82">
+        <v>1.13</v>
+      </c>
+      <c r="AR82">
+        <v>1.25</v>
+      </c>
+      <c r="AS82">
+        <v>1.11</v>
+      </c>
+      <c r="AT82">
+        <v>1.22</v>
+      </c>
+      <c r="AU82">
+        <v>1.56</v>
+      </c>
+      <c r="AV82">
+        <v>1.44</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>2.14</v>
+      </c>
+      <c r="AY82">
+        <v>7.5</v>
+      </c>
+      <c r="AZ82">
+        <v>1.98</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>1.32</v>
+      </c>
+      <c r="BC82">
+        <v>1.91</v>
+      </c>
+      <c r="BD82">
+        <v>2.09</v>
+      </c>
+      <c r="BE82">
+        <v>2.6</v>
+      </c>
+      <c r="BF82">
+        <v>4</v>
+      </c>
+      <c r="BG82">
+        <v>4</v>
+      </c>
+      <c r="BH82">
+        <v>1</v>
+      </c>
+      <c r="BI82">
+        <v>5</v>
+      </c>
+      <c r="BJ82">
+        <v>5</v>
+      </c>
+      <c r="BK82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2465661</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44883.67708333334</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>143</v>
+      </c>
+      <c r="P83" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>5</v>
+      </c>
+      <c r="S83">
+        <v>11</v>
+      </c>
+      <c r="T83">
+        <v>3.6</v>
+      </c>
+      <c r="U83">
+        <v>2.25</v>
+      </c>
+      <c r="V83">
+        <v>2.6</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>3.25</v>
+      </c>
+      <c r="Y83">
+        <v>2.36</v>
+      </c>
+      <c r="Z83">
+        <v>1.54</v>
+      </c>
+      <c r="AA83">
+        <v>5</v>
+      </c>
+      <c r="AB83">
+        <v>1.14</v>
+      </c>
+      <c r="AC83">
+        <v>3.4</v>
+      </c>
+      <c r="AD83">
+        <v>3.6</v>
+      </c>
+      <c r="AE83">
+        <v>2.05</v>
+      </c>
+      <c r="AF83">
+        <v>1.03</v>
+      </c>
+      <c r="AG83">
+        <v>11</v>
+      </c>
+      <c r="AH83">
+        <v>1.18</v>
+      </c>
+      <c r="AI83">
+        <v>4.5</v>
+      </c>
+      <c r="AJ83">
+        <v>1.7</v>
+      </c>
+      <c r="AK83">
+        <v>2.1</v>
+      </c>
+      <c r="AL83">
+        <v>1.62</v>
+      </c>
+      <c r="AM83">
+        <v>2.2</v>
+      </c>
+      <c r="AN83">
+        <v>1.7</v>
+      </c>
+      <c r="AO83">
+        <v>1.25</v>
+      </c>
+      <c r="AP83">
+        <v>1.33</v>
+      </c>
+      <c r="AQ83">
+        <v>1.5</v>
+      </c>
+      <c r="AR83">
+        <v>0.88</v>
+      </c>
+      <c r="AS83">
+        <v>1.33</v>
+      </c>
+      <c r="AT83">
+        <v>1.11</v>
+      </c>
+      <c r="AU83">
+        <v>1.52</v>
+      </c>
+      <c r="AV83">
+        <v>1.81</v>
+      </c>
+      <c r="AW83">
+        <v>3.33</v>
+      </c>
+      <c r="AX83">
+        <v>2.85</v>
+      </c>
+      <c r="AY83">
+        <v>8</v>
+      </c>
+      <c r="AZ83">
+        <v>1.59</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>1.31</v>
+      </c>
+      <c r="BC83">
+        <v>2</v>
+      </c>
+      <c r="BD83">
+        <v>2</v>
+      </c>
+      <c r="BE83">
+        <v>2.49</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>6</v>
+      </c>
+      <c r="BH83">
+        <v>3</v>
+      </c>
+      <c r="BI83">
+        <v>2</v>
+      </c>
+      <c r="BJ83">
+        <v>7</v>
+      </c>
+      <c r="BK83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2465663</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44884.58333333334</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>6</v>
+      </c>
+      <c r="T84">
+        <v>2.38</v>
+      </c>
+      <c r="U84">
+        <v>2.4</v>
+      </c>
+      <c r="V84">
+        <v>3.6</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>3.75</v>
+      </c>
+      <c r="Y84">
+        <v>2.2</v>
+      </c>
+      <c r="Z84">
+        <v>1.62</v>
+      </c>
+      <c r="AA84">
+        <v>4.75</v>
+      </c>
+      <c r="AB84">
+        <v>1.15</v>
+      </c>
+      <c r="AC84">
+        <v>1.75</v>
+      </c>
+      <c r="AD84">
+        <v>3.85</v>
+      </c>
+      <c r="AE84">
+        <v>3.85</v>
+      </c>
+      <c r="AF84">
+        <v>1.03</v>
+      </c>
+      <c r="AG84">
+        <v>11</v>
+      </c>
+      <c r="AH84">
+        <v>1.17</v>
+      </c>
+      <c r="AI84">
+        <v>4.5</v>
+      </c>
+      <c r="AJ84">
+        <v>1.5</v>
+      </c>
+      <c r="AK84">
+        <v>2.37</v>
+      </c>
+      <c r="AL84">
+        <v>1.5</v>
+      </c>
+      <c r="AM84">
+        <v>2.5</v>
+      </c>
+      <c r="AN84">
+        <v>1.3</v>
+      </c>
+      <c r="AO84">
+        <v>1.25</v>
+      </c>
+      <c r="AP84">
+        <v>1.7</v>
+      </c>
+      <c r="AQ84">
+        <v>2</v>
+      </c>
+      <c r="AR84">
+        <v>1.63</v>
+      </c>
+      <c r="AS84">
+        <v>2.11</v>
+      </c>
+      <c r="AT84">
+        <v>1.44</v>
+      </c>
+      <c r="AU84">
+        <v>1.89</v>
+      </c>
+      <c r="AV84">
+        <v>1.4</v>
+      </c>
+      <c r="AW84">
+        <v>3.29</v>
+      </c>
+      <c r="AX84">
+        <v>1.44</v>
+      </c>
+      <c r="AY84">
+        <v>8.6</v>
+      </c>
+      <c r="AZ84">
+        <v>3.4</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>1.29</v>
+      </c>
+      <c r="BC84">
+        <v>1.6</v>
+      </c>
+      <c r="BD84">
+        <v>1.96</v>
+      </c>
+      <c r="BE84">
+        <v>2.45</v>
+      </c>
+      <c r="BF84">
+        <v>10</v>
+      </c>
+      <c r="BG84">
+        <v>2</v>
+      </c>
+      <c r="BH84">
+        <v>6</v>
+      </c>
+      <c r="BI84">
+        <v>3</v>
+      </c>
+      <c r="BJ84">
+        <v>16</v>
+      </c>
+      <c r="BK84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2465660</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44884.58333333334</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>67</v>
+      </c>
+      <c r="H85" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>145</v>
+      </c>
+      <c r="P85" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q85">
+        <v>7</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>8</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>2.5</v>
+      </c>
+      <c r="V85">
+        <v>3.75</v>
+      </c>
+      <c r="W85">
+        <v>1.24</v>
+      </c>
+      <c r="X85">
+        <v>3.64</v>
+      </c>
+      <c r="Y85">
+        <v>2.16</v>
+      </c>
+      <c r="Z85">
+        <v>1.62</v>
+      </c>
+      <c r="AA85">
+        <v>4.75</v>
+      </c>
+      <c r="AB85">
+        <v>1.15</v>
+      </c>
+      <c r="AC85">
+        <v>1.59</v>
+      </c>
+      <c r="AD85">
+        <v>3.95</v>
+      </c>
+      <c r="AE85">
+        <v>4.8</v>
+      </c>
+      <c r="AF85">
+        <v>1.02</v>
+      </c>
+      <c r="AG85">
+        <v>12</v>
+      </c>
+      <c r="AH85">
+        <v>1.12</v>
+      </c>
+      <c r="AI85">
+        <v>4.95</v>
+      </c>
+      <c r="AJ85">
+        <v>1.57</v>
+      </c>
+      <c r="AK85">
+        <v>2.21</v>
+      </c>
+      <c r="AL85">
+        <v>1.44</v>
+      </c>
+      <c r="AM85">
+        <v>2.63</v>
+      </c>
+      <c r="AN85">
+        <v>1.24</v>
+      </c>
+      <c r="AO85">
+        <v>1.22</v>
+      </c>
+      <c r="AP85">
+        <v>1.99</v>
+      </c>
+      <c r="AQ85">
+        <v>1.25</v>
+      </c>
+      <c r="AR85">
+        <v>1</v>
+      </c>
+      <c r="AS85">
+        <v>1.44</v>
+      </c>
+      <c r="AT85">
+        <v>0.89</v>
+      </c>
+      <c r="AU85">
+        <v>1.66</v>
+      </c>
+      <c r="AV85">
+        <v>1.5</v>
+      </c>
+      <c r="AW85">
+        <v>3.16</v>
+      </c>
+      <c r="AX85">
+        <v>1.35</v>
+      </c>
+      <c r="AY85">
+        <v>9.1</v>
+      </c>
+      <c r="AZ85">
+        <v>3.92</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>1.25</v>
+      </c>
+      <c r="BC85">
+        <v>1.52</v>
+      </c>
+      <c r="BD85">
+        <v>1.85</v>
+      </c>
+      <c r="BE85">
+        <v>2.28</v>
+      </c>
+      <c r="BF85">
+        <v>3</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>3</v>
+      </c>
+      <c r="BI85">
+        <v>7</v>
+      </c>
+      <c r="BJ85">
+        <v>6</v>
+      </c>
+      <c r="BK85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2465664</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44885.42708333334</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>146</v>
+      </c>
+      <c r="P86" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q86">
+        <v>8</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>10</v>
+      </c>
+      <c r="T86">
+        <v>3.2</v>
+      </c>
+      <c r="U86">
+        <v>2.3</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.24</v>
+      </c>
+      <c r="X86">
+        <v>3.65</v>
+      </c>
+      <c r="Y86">
+        <v>2.33</v>
+      </c>
+      <c r="Z86">
+        <v>1.54</v>
+      </c>
+      <c r="AA86">
+        <v>5</v>
+      </c>
+      <c r="AB86">
+        <v>1.14</v>
+      </c>
+      <c r="AC86">
+        <v>2.9</v>
+      </c>
+      <c r="AD86">
+        <v>3.8</v>
+      </c>
+      <c r="AE86">
+        <v>2.2</v>
+      </c>
+      <c r="AF86">
+        <v>1.03</v>
+      </c>
+      <c r="AG86">
+        <v>12</v>
+      </c>
+      <c r="AH86">
+        <v>1.15</v>
+      </c>
+      <c r="AI86">
+        <v>4.7</v>
+      </c>
+      <c r="AJ86">
+        <v>1.57</v>
+      </c>
+      <c r="AK86">
+        <v>2.35</v>
+      </c>
+      <c r="AL86">
+        <v>1.53</v>
+      </c>
+      <c r="AM86">
+        <v>2.38</v>
+      </c>
+      <c r="AN86">
+        <v>1.67</v>
+      </c>
+      <c r="AO86">
+        <v>1.28</v>
+      </c>
+      <c r="AP86">
+        <v>1.27</v>
+      </c>
+      <c r="AQ86">
+        <v>0.88</v>
+      </c>
+      <c r="AR86">
+        <v>0.88</v>
+      </c>
+      <c r="AS86">
+        <v>1.11</v>
+      </c>
+      <c r="AT86">
+        <v>0.78</v>
+      </c>
+      <c r="AU86">
+        <v>1.99</v>
+      </c>
+      <c r="AV86">
+        <v>1.38</v>
+      </c>
+      <c r="AW86">
+        <v>3.37</v>
+      </c>
+      <c r="AX86">
+        <v>2.32</v>
+      </c>
+      <c r="AY86">
+        <v>7.6</v>
+      </c>
+      <c r="AZ86">
+        <v>1.84</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>1.35</v>
+      </c>
+      <c r="BC86">
+        <v>1.69</v>
+      </c>
+      <c r="BD86">
+        <v>2.09</v>
+      </c>
+      <c r="BE86">
+        <v>2.71</v>
+      </c>
+      <c r="BF86">
+        <v>5</v>
+      </c>
+      <c r="BG86">
+        <v>7</v>
+      </c>
+      <c r="BH86">
+        <v>3</v>
+      </c>
+      <c r="BI86">
+        <v>11</v>
+      </c>
+      <c r="BJ86">
+        <v>8</v>
+      </c>
+      <c r="BK86">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK86"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT2" t="n">
         <v>1.11</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.44</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.11</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT8" t="n">
         <v>0.89</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT12" t="n">
         <v>1.11</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU13" t="n">
         <v>1.43</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>1.18</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU16" t="n">
         <v>1.53</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT17" t="n">
         <v>1.22</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -4557,7 +4557,7 @@
         <v>1.11</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU20" t="n">
         <v>1.55</v>
@@ -4757,10 +4757,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,7 +4960,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT22" t="n">
         <v>1.22</v>
@@ -5369,7 +5369,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.19</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT27" t="n">
         <v>1.11</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT28" t="n">
         <v>1.44</v>
@@ -6384,7 +6384,7 @@
         <v>1.44</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU30" t="n">
         <v>1.44</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
@@ -6990,10 +6990,10 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
         <v>0.78</v>
@@ -7602,7 +7602,7 @@
         <v>2.11</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -8005,10 +8005,10 @@
         <v>2.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.55</v>
@@ -8411,10 +8411,10 @@
         <v>2.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU39" t="n">
         <v>1.7</v>
@@ -8617,7 +8617,7 @@
         <v>1.11</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1.34</v>
@@ -8817,7 +8817,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1.44</v>
@@ -9020,10 +9020,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.86</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU43" t="n">
         <v>1.68</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT44" t="n">
         <v>1.22</v>
@@ -9632,7 +9632,7 @@
         <v>1.11</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -10038,7 +10038,7 @@
         <v>1.11</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10644,7 +10644,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT50" t="n">
         <v>1.44</v>
@@ -10847,10 +10847,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11050,7 +11050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT52" t="n">
         <v>0.89</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU53" t="n">
         <v>2.13</v>
@@ -11456,10 +11456,10 @@
         <v>1.6</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.58</v>
@@ -11865,7 +11865,7 @@
         <v>1.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
@@ -12065,7 +12065,7 @@
         <v>1.4</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT57" t="n">
         <v>1.44</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT59" t="n">
         <v>0.78</v>
@@ -12677,7 +12677,7 @@
         <v>1.44</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU60" t="n">
         <v>1.66</v>
@@ -12880,7 +12880,7 @@
         <v>2.11</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT62" t="n">
         <v>1.11</v>
@@ -13283,10 +13283,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU65" t="n">
         <v>1.67</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT68" t="n">
         <v>0.78</v>
@@ -14504,7 +14504,7 @@
         <v>2.11</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.97</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT70" t="n">
         <v>0.89</v>
@@ -14910,7 +14910,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU71" t="n">
         <v>1.49</v>
@@ -15313,7 +15313,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT73" t="n">
         <v>0.78</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT74" t="n">
         <v>1.22</v>
@@ -15722,7 +15722,7 @@
         <v>2.11</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU75" t="n">
         <v>1.95</v>
@@ -15925,7 +15925,7 @@
         <v>1.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU76" t="n">
         <v>1.93</v>
@@ -16128,7 +16128,7 @@
         <v>1.11</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -16328,10 +16328,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT79" t="n">
         <v>0.89</v>
@@ -16734,10 +16734,10 @@
         <v>1.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.73</v>
@@ -16937,10 +16937,10 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU81" t="n">
         <v>2.04</v>
@@ -18007,6 +18007,1021 @@
       </c>
       <c r="BK86" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2465669</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44890.64583333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>18</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['4', '72', '90+4']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>9</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>12</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2465666</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44890.67708333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>8</v>
+      </c>
+      <c r="R88" t="n">
+        <v>9</v>
+      </c>
+      <c r="S88" t="n">
+        <v>17</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2465667</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44891.58333333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>18</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>7</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2465668</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44891.58333333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>18</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2465665</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44892.52083333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>4</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['14', '31']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['55', '90']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>4</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.22</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>0.78</v>
@@ -2527,7 +2527,7 @@
         <v>2.11</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.44</v>
@@ -2933,7 +2933,7 @@
         <v>2.11</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>1.83</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.78</v>
@@ -3948,7 +3948,7 @@
         <v>1.22</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>1.46</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.22</v>
@@ -4963,7 +4963,7 @@
         <v>2.11</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.86</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.79</v>
@@ -5978,7 +5978,7 @@
         <v>2.56</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.95</v>
@@ -6381,7 +6381,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT29" t="n">
         <v>1.67</v>
@@ -7396,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT36" t="n">
         <v>0.89</v>
@@ -8211,7 +8211,7 @@
         <v>2.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>2.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU44" t="n">
         <v>2.27</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT45" t="n">
         <v>1.67</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.6</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.44</v>
@@ -11862,7 +11862,7 @@
         <v>2.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -12674,7 +12674,7 @@
         <v>1.4</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT60" t="n">
         <v>1.22</v>
@@ -13083,7 +13083,7 @@
         <v>2.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>2.07</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT65" t="n">
         <v>0.22</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU66" t="n">
         <v>2.02</v>
@@ -14098,7 +14098,7 @@
         <v>1.11</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.69</v>
@@ -15110,7 +15110,7 @@
         <v>1.86</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
         <v>1.44</v>
@@ -15519,7 +15519,7 @@
         <v>1.33</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU74" t="n">
         <v>1.79</v>
@@ -15922,7 +15922,7 @@
         <v>0.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.22</v>
@@ -17143,7 +17143,7 @@
         <v>1.11</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -17346,7 +17346,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.52</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT85" t="n">
         <v>0.89</v>
@@ -17952,7 +17952,7 @@
         <v>0.88</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT86" t="n">
         <v>0.78</v>
@@ -19022,6 +19022,412 @@
       </c>
       <c r="BK91" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2465674</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44953.67708333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['79', '86']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['49', '60']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>6</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>6</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2465670</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44954.58333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>8</v>
+      </c>
+      <c r="S93" t="n">
+        <v>11</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2121,7 +2121,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT10" t="n">
         <v>1.2</v>
@@ -2730,7 +2730,7 @@
         <v>1.1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>1.2</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.67</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU18" t="n">
         <v>1.25</v>
@@ -5163,10 +5163,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.31</v>
@@ -5366,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -6181,7 +6181,7 @@
         <v>1.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.47</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.22</v>
@@ -7196,7 +7196,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.94</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT35" t="n">
         <v>0.22</v>
@@ -7805,7 +7805,7 @@
         <v>1.1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU36" t="n">
         <v>1.67</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT40" t="n">
         <v>0.78</v>
@@ -8820,7 +8820,7 @@
         <v>2.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.97</v>
@@ -9832,10 +9832,10 @@
         <v>1.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU46" t="n">
         <v>1.46</v>
@@ -10035,7 +10035,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT47" t="n">
         <v>1.22</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.96</v>
@@ -10647,7 +10647,7 @@
         <v>2.56</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -11053,7 +11053,7 @@
         <v>2.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU52" t="n">
         <v>1.86</v>
@@ -11659,7 +11659,7 @@
         <v>1.2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.2</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.56</v>
@@ -12268,10 +12268,10 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU58" t="n">
         <v>1.56</v>
@@ -12474,7 +12474,7 @@
         <v>2.56</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.62</v>
@@ -12877,7 +12877,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT61" t="n">
         <v>0.78</v>
@@ -13486,10 +13486,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU64" t="n">
         <v>1.41</v>
@@ -14095,7 +14095,7 @@
         <v>0.86</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>2.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.79</v>
@@ -14501,7 +14501,7 @@
         <v>1.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -14707,7 +14707,7 @@
         <v>2.56</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.78</v>
@@ -15113,7 +15113,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.68</v>
@@ -15316,7 +15316,7 @@
         <v>1.22</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.53</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT75" t="n">
         <v>1.22</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU79" t="n">
         <v>1.82</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT82" t="n">
         <v>1.2</v>
@@ -17343,7 +17343,7 @@
         <v>0.88</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17546,10 +17546,10 @@
         <v>1.63</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.89</v>
@@ -17752,7 +17752,7 @@
         <v>1.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU85" t="n">
         <v>1.66</v>
@@ -17955,7 +17955,7 @@
         <v>1.1</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.99</v>
@@ -19428,6 +19428,615 @@
       </c>
       <c r="BK93" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2465671</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44955.42708333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>10</v>
+      </c>
+      <c r="S94" t="n">
+        <v>11</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2465672</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>7</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>11</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2465673</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['14', '79']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['32', '37', '47', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>7</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>12</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -19488,7 +19488,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['70', '80']</t>
         </is>
       </c>
       <c r="Q94" t="n">

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.9</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
         <v>0.22</v>
@@ -3542,7 +3542,7 @@
         <v>1.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>1.18</v>
@@ -3745,7 +3745,7 @@
         <v>2.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU16" t="n">
         <v>1.53</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
         <v>1.2</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -4757,10 +4757,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,7 +4960,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.2</v>
@@ -5369,7 +5369,7 @@
         <v>1.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.19</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1.6</v>
@@ -6384,7 +6384,7 @@
         <v>1.6</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.22</v>
@@ -8005,10 +8005,10 @@
         <v>2.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.55</v>
@@ -8617,7 +8617,7 @@
         <v>1.1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU40" t="n">
         <v>1.34</v>
@@ -8817,7 +8817,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT41" t="n">
         <v>1.6</v>
@@ -9020,10 +9020,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.86</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT44" t="n">
         <v>1.2</v>
@@ -9632,7 +9632,7 @@
         <v>1.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -10847,10 +10847,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11050,7 +11050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT52" t="n">
         <v>0.9</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT53" t="n">
         <v>0.22</v>
@@ -11459,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.58</v>
@@ -11865,7 +11865,7 @@
         <v>1.1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>1.9</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13283,10 +13283,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1.9</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.97</v>
@@ -14910,7 +14910,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU71" t="n">
         <v>1.49</v>
@@ -15313,7 +15313,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>1.1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -16328,10 +16328,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16737,7 +16737,7 @@
         <v>2.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU80" t="n">
         <v>1.73</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1.22</v>
@@ -18155,7 +18155,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.22</v>
@@ -18358,7 +18358,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT88" t="n">
         <v>1.22</v>
@@ -18564,7 +18564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU89" t="n">
         <v>1.84</v>
@@ -18767,7 +18767,7 @@
         <v>2.56</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.75</v>
@@ -18967,10 +18967,10 @@
         <v>1.38</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.98</v>
@@ -20037,6 +20037,615 @@
       </c>
       <c r="BK96" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2465676</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44960.64583333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>6</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2465679</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44960.64583333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>6</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>9</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2465675</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44960.67708333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['3', '15', '61', '73']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7</v>
+      </c>
+      <c r="S99" t="n">
+        <v>9</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU13" t="n">
         <v>1.43</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT16" t="n">
         <v>0.7</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.2</v>
@@ -4557,7 +4557,7 @@
         <v>1.1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.55</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.44</v>
@@ -6993,7 +6993,7 @@
         <v>2.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.9</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -8411,10 +8411,10 @@
         <v>2.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.7</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.68</v>
@@ -10038,7 +10038,7 @@
         <v>1.1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10644,7 +10644,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT50" t="n">
         <v>1.6</v>
@@ -11256,7 +11256,7 @@
         <v>2.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU53" t="n">
         <v>2.13</v>
@@ -11456,7 +11456,7 @@
         <v>1.6</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>1.5</v>
@@ -12065,7 +12065,7 @@
         <v>1.4</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.6</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.66</v>
@@ -13692,7 +13692,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU65" t="n">
         <v>1.67</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT70" t="n">
         <v>0.9</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.2</v>
@@ -15722,7 +15722,7 @@
         <v>1.9</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.95</v>
@@ -15925,7 +15925,7 @@
         <v>1.1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.93</v>
@@ -16531,7 +16531,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>0.9</v>
@@ -16734,7 +16734,7 @@
         <v>1.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT80" t="n">
         <v>1.2</v>
@@ -16940,7 +16940,7 @@
         <v>2.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU81" t="n">
         <v>2.04</v>
@@ -18158,7 +18158,7 @@
         <v>2.2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18361,7 +18361,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.45</v>
@@ -18561,7 +18561,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
         <v>0.7</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -20646,6 +20646,412 @@
       </c>
       <c r="BK99" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2465678</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44962.42708333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['67', '71', '90+1']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>10</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>12</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2465677</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44962.52083333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>6</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['13', '68']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['44', '51', '70']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -662,6 +671,21 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['24', '52', '84']</t>
+  </si>
+  <si>
+    <t>['16', '66']</t>
+  </si>
+  <si>
+    <t>['10', '63']</t>
+  </si>
+  <si>
+    <t>['8', '9', '37', '83']</t>
+  </si>
+  <si>
+    <t>['8', '67', '89']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1381,7 @@
         <v>1.4</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1458,7 +1482,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1736,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT4">
         <v>0.7</v>
@@ -1927,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2222,7 +2246,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2309,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>1.2</v>
@@ -2413,7 +2437,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2503,7 +2527,7 @@
         <v>2.4</v>
       </c>
       <c r="AT8">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2604,7 +2628,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2795,7 +2819,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2882,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT10">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2986,7 +3010,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3073,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3177,7 +3201,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3267,7 +3291,7 @@
         <v>2.2</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU12">
         <v>1.83</v>
@@ -3559,7 +3583,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3646,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU14">
         <v>1.2</v>
@@ -3750,7 +3774,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3837,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -4222,7 +4246,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>1.46</v>
@@ -4323,7 +4347,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4410,10 +4434,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU18">
         <v>1.25</v>
@@ -4514,7 +4538,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4705,7 +4729,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4792,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>1.1</v>
@@ -5087,7 +5111,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5177,7 +5201,7 @@
         <v>2.2</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5365,10 +5389,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU23">
         <v>1.31</v>
@@ -5469,7 +5493,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5556,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT24">
         <v>1.2</v>
@@ -5660,7 +5684,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5747,10 +5771,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT25">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU25">
         <v>1.84</v>
@@ -5851,7 +5875,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5938,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU26">
         <v>1.79</v>
@@ -6132,7 +6156,7 @@
         <v>2.6</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU27">
         <v>1.95</v>
@@ -6233,7 +6257,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6323,7 +6347,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU28">
         <v>1.47</v>
@@ -6424,7 +6448,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6511,7 +6535,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
         <v>1.5</v>
@@ -6702,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
         <v>0.2</v>
@@ -7278,7 +7302,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>1.94</v>
@@ -7379,7 +7403,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7466,10 +7490,10 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT34">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7570,7 +7594,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7657,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT35">
         <v>0.2</v>
@@ -7761,7 +7785,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7848,10 +7872,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT36">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU36">
         <v>1.67</v>
@@ -7952,7 +7976,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8143,7 +8167,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8230,10 +8254,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8334,7 +8358,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8612,7 +8636,7 @@
         <v>0.33</v>
       </c>
       <c r="AS40">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT40">
         <v>0.7</v>
@@ -8716,7 +8740,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8806,7 +8830,7 @@
         <v>2.4</v>
       </c>
       <c r="AT41">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU41">
         <v>1.97</v>
@@ -8907,7 +8931,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9098,7 +9122,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9379,7 +9403,7 @@
         <v>2.4</v>
       </c>
       <c r="AT44">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU44">
         <v>2.27</v>
@@ -9480,7 +9504,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9567,7 +9591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -9671,7 +9695,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9758,10 +9782,10 @@
         <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT46">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU46">
         <v>1.46</v>
@@ -9949,7 +9973,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT47">
         <v>1.1</v>
@@ -10053,7 +10077,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10140,10 +10164,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU48">
         <v>1.6</v>
@@ -10244,7 +10268,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10331,10 +10355,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU49">
         <v>1.96</v>
@@ -10525,7 +10549,7 @@
         <v>2.6</v>
       </c>
       <c r="AT50">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10626,7 +10650,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10907,7 +10931,7 @@
         <v>2.2</v>
       </c>
       <c r="AT52">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU52">
         <v>1.86</v>
@@ -11008,7 +11032,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11199,7 +11223,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11390,7 +11414,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11477,10 +11501,10 @@
         <v>1.2</v>
       </c>
       <c r="AS55">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT55">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -11668,7 +11692,7 @@
         <v>2.2</v>
       </c>
       <c r="AS56">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT56">
         <v>1.2</v>
@@ -11772,7 +11796,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11862,7 +11886,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU57">
         <v>1.56</v>
@@ -12050,10 +12074,10 @@
         <v>1.4</v>
       </c>
       <c r="AS58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU58">
         <v>1.56</v>
@@ -12244,7 +12268,7 @@
         <v>2.6</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12432,7 +12456,7 @@
         <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT60">
         <v>1.1</v>
@@ -12536,7 +12560,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12623,7 +12647,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT61">
         <v>0.7</v>
@@ -12727,7 +12751,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12817,7 +12841,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU62">
         <v>2.07</v>
@@ -12918,7 +12942,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13109,7 +13133,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13196,10 +13220,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT64">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU64">
         <v>1.41</v>
@@ -13300,7 +13324,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13387,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT65">
         <v>0.2</v>
@@ -13578,10 +13602,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>2.02</v>
@@ -13682,7 +13706,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13769,10 +13793,10 @@
         <v>0.86</v>
       </c>
       <c r="AS67">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU67">
         <v>1.69</v>
@@ -13963,7 +13987,7 @@
         <v>2.2</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -14151,7 +14175,7 @@
         <v>1.83</v>
       </c>
       <c r="AS69">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT69">
         <v>1.2</v>
@@ -14255,7 +14279,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14345,7 +14369,7 @@
         <v>2.6</v>
       </c>
       <c r="AT70">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14533,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT71">
         <v>0.7</v>
@@ -14637,7 +14661,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14724,10 +14748,10 @@
         <v>1.86</v>
       </c>
       <c r="AS72">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT72">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -14918,7 +14942,7 @@
         <v>1.4</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -15019,7 +15043,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15109,7 +15133,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15210,7 +15234,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15297,7 +15321,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT75">
         <v>1.1</v>
@@ -15401,7 +15425,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15488,7 +15512,7 @@
         <v>0.14</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT76">
         <v>0.2</v>
@@ -15592,7 +15616,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15679,7 +15703,7 @@
         <v>2</v>
       </c>
       <c r="AS77">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT77">
         <v>1.5</v>
@@ -15783,7 +15807,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16064,7 +16088,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU79">
         <v>1.82</v>
@@ -16165,7 +16189,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16356,7 +16380,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16547,7 +16571,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16634,10 +16658,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU82">
         <v>1.56</v>
@@ -16738,7 +16762,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16825,10 +16849,10 @@
         <v>0.88</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU83">
         <v>1.52</v>
@@ -17016,10 +17040,10 @@
         <v>1.63</v>
       </c>
       <c r="AS84">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU84">
         <v>1.89</v>
@@ -17207,10 +17231,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT85">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU85">
         <v>1.66</v>
@@ -17398,10 +17422,10 @@
         <v>0.88</v>
       </c>
       <c r="AS86">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU86">
         <v>1.99</v>
@@ -17502,7 +17526,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17884,7 +17908,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18266,7 +18290,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18457,7 +18481,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18544,10 +18568,10 @@
         <v>1.22</v>
       </c>
       <c r="AS92">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU92">
         <v>1.89</v>
@@ -18735,10 +18759,10 @@
         <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU93">
         <v>1.59</v>
@@ -18839,7 +18863,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -18926,10 +18950,10 @@
         <v>1.44</v>
       </c>
       <c r="AS94">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT94">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU94">
         <v>1.48</v>
@@ -19030,7 +19054,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19117,10 +19141,10 @@
         <v>0.89</v>
       </c>
       <c r="AS95">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT95">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU95">
         <v>1.51</v>
@@ -19221,7 +19245,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19308,10 +19332,10 @@
         <v>0.78</v>
       </c>
       <c r="AS96">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU96">
         <v>1.91</v>
@@ -19794,7 +19818,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20318,6 +20342,961 @@
       </c>
       <c r="BK101">
         <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2465682</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44967.64583333334</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>70</v>
+      </c>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102" t="s">
+        <v>158</v>
+      </c>
+      <c r="P102" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <v>10</v>
+      </c>
+      <c r="S102">
+        <v>14</v>
+      </c>
+      <c r="T102">
+        <v>3.6</v>
+      </c>
+      <c r="U102">
+        <v>2.25</v>
+      </c>
+      <c r="V102">
+        <v>2.5</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+      <c r="X102">
+        <v>3.4</v>
+      </c>
+      <c r="Y102">
+        <v>2.3</v>
+      </c>
+      <c r="Z102">
+        <v>1.57</v>
+      </c>
+      <c r="AA102">
+        <v>5</v>
+      </c>
+      <c r="AB102">
+        <v>1.14</v>
+      </c>
+      <c r="AC102">
+        <v>2.95</v>
+      </c>
+      <c r="AD102">
+        <v>3.45</v>
+      </c>
+      <c r="AE102">
+        <v>2.15</v>
+      </c>
+      <c r="AF102">
+        <v>1.04</v>
+      </c>
+      <c r="AG102">
+        <v>10</v>
+      </c>
+      <c r="AH102">
+        <v>1.2</v>
+      </c>
+      <c r="AI102">
+        <v>4.33</v>
+      </c>
+      <c r="AJ102">
+        <v>1.6</v>
+      </c>
+      <c r="AK102">
+        <v>2.2</v>
+      </c>
+      <c r="AL102">
+        <v>1.62</v>
+      </c>
+      <c r="AM102">
+        <v>2.2</v>
+      </c>
+      <c r="AN102">
+        <v>1.7</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.35</v>
+      </c>
+      <c r="AQ102">
+        <v>1.1</v>
+      </c>
+      <c r="AR102">
+        <v>1</v>
+      </c>
+      <c r="AS102">
+        <v>1</v>
+      </c>
+      <c r="AT102">
+        <v>1.18</v>
+      </c>
+      <c r="AU102">
+        <v>1.54</v>
+      </c>
+      <c r="AV102">
+        <v>1.42</v>
+      </c>
+      <c r="AW102">
+        <v>2.96</v>
+      </c>
+      <c r="AX102">
+        <v>2.71</v>
+      </c>
+      <c r="AY102">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ102">
+        <v>1.67</v>
+      </c>
+      <c r="BA102">
+        <v>1.19</v>
+      </c>
+      <c r="BB102">
+        <v>1.33</v>
+      </c>
+      <c r="BC102">
+        <v>2.1</v>
+      </c>
+      <c r="BD102">
+        <v>2.03</v>
+      </c>
+      <c r="BE102">
+        <v>2.65</v>
+      </c>
+      <c r="BF102">
+        <v>6</v>
+      </c>
+      <c r="BG102">
+        <v>5</v>
+      </c>
+      <c r="BH102">
+        <v>1</v>
+      </c>
+      <c r="BI102">
+        <v>5</v>
+      </c>
+      <c r="BJ102">
+        <v>7</v>
+      </c>
+      <c r="BK102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2465680</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44967.67708333334</v>
+      </c>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>159</v>
+      </c>
+      <c r="P103" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+      <c r="R103">
+        <v>6</v>
+      </c>
+      <c r="S103">
+        <v>13</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>2.3</v>
+      </c>
+      <c r="V103">
+        <v>3.1</v>
+      </c>
+      <c r="W103">
+        <v>1.29</v>
+      </c>
+      <c r="X103">
+        <v>3.5</v>
+      </c>
+      <c r="Y103">
+        <v>2.25</v>
+      </c>
+      <c r="Z103">
+        <v>1.6</v>
+      </c>
+      <c r="AA103">
+        <v>4.75</v>
+      </c>
+      <c r="AB103">
+        <v>1.15</v>
+      </c>
+      <c r="AC103">
+        <v>2</v>
+      </c>
+      <c r="AD103">
+        <v>3.6</v>
+      </c>
+      <c r="AE103">
+        <v>3.15</v>
+      </c>
+      <c r="AF103">
+        <v>1.02</v>
+      </c>
+      <c r="AG103">
+        <v>12</v>
+      </c>
+      <c r="AH103">
+        <v>1.17</v>
+      </c>
+      <c r="AI103">
+        <v>4.5</v>
+      </c>
+      <c r="AJ103">
+        <v>1.53</v>
+      </c>
+      <c r="AK103">
+        <v>2.3</v>
+      </c>
+      <c r="AL103">
+        <v>1.53</v>
+      </c>
+      <c r="AM103">
+        <v>2.38</v>
+      </c>
+      <c r="AN103">
+        <v>1.29</v>
+      </c>
+      <c r="AO103">
+        <v>1.25</v>
+      </c>
+      <c r="AP103">
+        <v>1.8</v>
+      </c>
+      <c r="AQ103">
+        <v>1.6</v>
+      </c>
+      <c r="AR103">
+        <v>1.6</v>
+      </c>
+      <c r="AS103">
+        <v>1.45</v>
+      </c>
+      <c r="AT103">
+        <v>1.73</v>
+      </c>
+      <c r="AU103">
+        <v>1.54</v>
+      </c>
+      <c r="AV103">
+        <v>1.39</v>
+      </c>
+      <c r="AW103">
+        <v>2.93</v>
+      </c>
+      <c r="AX103">
+        <v>1.67</v>
+      </c>
+      <c r="AY103">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ103">
+        <v>2.66</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>1.25</v>
+      </c>
+      <c r="BC103">
+        <v>1.57</v>
+      </c>
+      <c r="BD103">
+        <v>1.91</v>
+      </c>
+      <c r="BE103">
+        <v>2.37</v>
+      </c>
+      <c r="BF103">
+        <v>7</v>
+      </c>
+      <c r="BG103">
+        <v>8</v>
+      </c>
+      <c r="BH103">
+        <v>14</v>
+      </c>
+      <c r="BI103">
+        <v>6</v>
+      </c>
+      <c r="BJ103">
+        <v>21</v>
+      </c>
+      <c r="BK103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2465681</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44969.42708333334</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" t="s">
+        <v>65</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>90</v>
+      </c>
+      <c r="P104" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <v>6</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>2.2</v>
+      </c>
+      <c r="V104">
+        <v>3.5</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>2.65</v>
+      </c>
+      <c r="Z104">
+        <v>1.43</v>
+      </c>
+      <c r="AA104">
+        <v>6</v>
+      </c>
+      <c r="AB104">
+        <v>1.11</v>
+      </c>
+      <c r="AC104">
+        <v>2.2</v>
+      </c>
+      <c r="AD104">
+        <v>3.3</v>
+      </c>
+      <c r="AE104">
+        <v>3.3</v>
+      </c>
+      <c r="AF104">
+        <v>1.05</v>
+      </c>
+      <c r="AG104">
+        <v>9</v>
+      </c>
+      <c r="AH104">
+        <v>1.25</v>
+      </c>
+      <c r="AI104">
+        <v>3.75</v>
+      </c>
+      <c r="AJ104">
+        <v>1.8</v>
+      </c>
+      <c r="AK104">
+        <v>2</v>
+      </c>
+      <c r="AL104">
+        <v>1.67</v>
+      </c>
+      <c r="AM104">
+        <v>2.1</v>
+      </c>
+      <c r="AN104">
+        <v>1.28</v>
+      </c>
+      <c r="AO104">
+        <v>1.25</v>
+      </c>
+      <c r="AP104">
+        <v>1.7</v>
+      </c>
+      <c r="AQ104">
+        <v>1.2</v>
+      </c>
+      <c r="AR104">
+        <v>0.9</v>
+      </c>
+      <c r="AS104">
+        <v>1.09</v>
+      </c>
+      <c r="AT104">
+        <v>1.09</v>
+      </c>
+      <c r="AU104">
+        <v>1.47</v>
+      </c>
+      <c r="AV104">
+        <v>1.48</v>
+      </c>
+      <c r="AW104">
+        <v>2.95</v>
+      </c>
+      <c r="AX104">
+        <v>1.8</v>
+      </c>
+      <c r="AY104">
+        <v>7.8</v>
+      </c>
+      <c r="AZ104">
+        <v>2.46</v>
+      </c>
+      <c r="BA104">
+        <v>1.17</v>
+      </c>
+      <c r="BB104">
+        <v>1.32</v>
+      </c>
+      <c r="BC104">
+        <v>1.83</v>
+      </c>
+      <c r="BD104">
+        <v>2</v>
+      </c>
+      <c r="BE104">
+        <v>2.51</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>5</v>
+      </c>
+      <c r="BH104">
+        <v>10</v>
+      </c>
+      <c r="BI104">
+        <v>8</v>
+      </c>
+      <c r="BJ104">
+        <v>13</v>
+      </c>
+      <c r="BK104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2465683</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44969.42708333334</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>7</v>
+      </c>
+      <c r="O105" t="s">
+        <v>160</v>
+      </c>
+      <c r="P105" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>3</v>
+      </c>
+      <c r="S105">
+        <v>6</v>
+      </c>
+      <c r="T105">
+        <v>2.75</v>
+      </c>
+      <c r="U105">
+        <v>2.3</v>
+      </c>
+      <c r="V105">
+        <v>3.25</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>3.25</v>
+      </c>
+      <c r="Y105">
+        <v>2.5</v>
+      </c>
+      <c r="Z105">
+        <v>1.5</v>
+      </c>
+      <c r="AA105">
+        <v>6</v>
+      </c>
+      <c r="AB105">
+        <v>1.11</v>
+      </c>
+      <c r="AC105">
+        <v>2.25</v>
+      </c>
+      <c r="AD105">
+        <v>3.5</v>
+      </c>
+      <c r="AE105">
+        <v>3.1</v>
+      </c>
+      <c r="AF105">
+        <v>1.05</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.25</v>
+      </c>
+      <c r="AI105">
+        <v>3.75</v>
+      </c>
+      <c r="AJ105">
+        <v>1.65</v>
+      </c>
+      <c r="AK105">
+        <v>2.2</v>
+      </c>
+      <c r="AL105">
+        <v>1.53</v>
+      </c>
+      <c r="AM105">
+        <v>2.38</v>
+      </c>
+      <c r="AN105">
+        <v>1.36</v>
+      </c>
+      <c r="AO105">
+        <v>1.25</v>
+      </c>
+      <c r="AP105">
+        <v>1.62</v>
+      </c>
+      <c r="AQ105">
+        <v>1.9</v>
+      </c>
+      <c r="AR105">
+        <v>1.2</v>
+      </c>
+      <c r="AS105">
+        <v>1.73</v>
+      </c>
+      <c r="AT105">
+        <v>1.36</v>
+      </c>
+      <c r="AU105">
+        <v>1.83</v>
+      </c>
+      <c r="AV105">
+        <v>1.42</v>
+      </c>
+      <c r="AW105">
+        <v>3.25</v>
+      </c>
+      <c r="AX105">
+        <v>1.67</v>
+      </c>
+      <c r="AY105">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ105">
+        <v>2.66</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>1.25</v>
+      </c>
+      <c r="BC105">
+        <v>1.53</v>
+      </c>
+      <c r="BD105">
+        <v>1.86</v>
+      </c>
+      <c r="BE105">
+        <v>2.28</v>
+      </c>
+      <c r="BF105">
+        <v>7</v>
+      </c>
+      <c r="BG105">
+        <v>7</v>
+      </c>
+      <c r="BH105">
+        <v>3</v>
+      </c>
+      <c r="BI105">
+        <v>5</v>
+      </c>
+      <c r="BJ105">
+        <v>10</v>
+      </c>
+      <c r="BK105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2465684</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44969.42708333334</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s">
+        <v>72</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>6</v>
+      </c>
+      <c r="S106">
+        <v>12</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
+        <v>2.25</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.5</v>
+      </c>
+      <c r="Z106">
+        <v>1.48</v>
+      </c>
+      <c r="AA106">
+        <v>5.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.12</v>
+      </c>
+      <c r="AC106">
+        <v>2.6</v>
+      </c>
+      <c r="AD106">
+        <v>3.4</v>
+      </c>
+      <c r="AE106">
+        <v>2.7</v>
+      </c>
+      <c r="AF106">
+        <v>1.04</v>
+      </c>
+      <c r="AG106">
+        <v>10</v>
+      </c>
+      <c r="AH106">
+        <v>1.22</v>
+      </c>
+      <c r="AI106">
+        <v>4</v>
+      </c>
+      <c r="AJ106">
+        <v>1.7</v>
+      </c>
+      <c r="AK106">
+        <v>2.1</v>
+      </c>
+      <c r="AL106">
+        <v>1.57</v>
+      </c>
+      <c r="AM106">
+        <v>2.25</v>
+      </c>
+      <c r="AN106">
+        <v>1.42</v>
+      </c>
+      <c r="AO106">
+        <v>1.25</v>
+      </c>
+      <c r="AP106">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106">
+        <v>1.1</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
+      </c>
+      <c r="AS106">
+        <v>1</v>
+      </c>
+      <c r="AT106">
+        <v>1.18</v>
+      </c>
+      <c r="AU106">
+        <v>1.94</v>
+      </c>
+      <c r="AV106">
+        <v>1.74</v>
+      </c>
+      <c r="AW106">
+        <v>3.68</v>
+      </c>
+      <c r="AX106">
+        <v>2.13</v>
+      </c>
+      <c r="AY106">
+        <v>7.7</v>
+      </c>
+      <c r="AZ106">
+        <v>2</v>
+      </c>
+      <c r="BA106">
+        <v>1.14</v>
+      </c>
+      <c r="BB106">
+        <v>1.29</v>
+      </c>
+      <c r="BC106">
+        <v>1.83</v>
+      </c>
+      <c r="BD106">
+        <v>1.98</v>
+      </c>
+      <c r="BE106">
+        <v>2.47</v>
+      </c>
+      <c r="BF106">
+        <v>9</v>
+      </c>
+      <c r="BG106">
+        <v>6</v>
+      </c>
+      <c r="BH106">
+        <v>6</v>
+      </c>
+      <c r="BI106">
+        <v>10</v>
+      </c>
+      <c r="BJ106">
+        <v>15</v>
+      </c>
+      <c r="BK106">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,15 @@
     <t>['44', '51', '70']</t>
   </si>
   <si>
+    <t>['20', '61', '85']</t>
+  </si>
+  <si>
+    <t>['49', '85']</t>
+  </si>
+  <si>
+    <t>['28', '68']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -686,6 +695,18 @@
   </si>
   <si>
     <t>['8', '67', '89']</t>
+  </si>
+  <si>
+    <t>['1', '53']</t>
+  </si>
+  <si>
+    <t>['51', '90+3']</t>
+  </si>
+  <si>
+    <t>['9', '43']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT2">
         <v>1.18</v>
@@ -1482,7 +1503,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1569,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1763,7 +1784,7 @@
         <v>1.45</v>
       </c>
       <c r="AT4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2142,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT6">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2246,7 +2267,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2336,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2437,7 +2458,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2628,7 +2649,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2715,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT9">
         <v>1.1</v>
@@ -2819,7 +2840,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3010,7 +3031,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3201,7 +3222,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3288,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT12">
         <v>1.18</v>
@@ -3479,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU13">
         <v>1.43</v>
@@ -3583,7 +3604,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3774,7 +3795,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3864,7 +3885,7 @@
         <v>1.09</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU15">
         <v>1.18</v>
@@ -4052,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT16">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU16">
         <v>1.53</v>
@@ -4243,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT17">
         <v>1.36</v>
@@ -4347,7 +4368,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4538,7 +4559,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4625,10 +4646,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4729,7 +4750,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5010,7 +5031,7 @@
         <v>2.4</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5111,7 +5132,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5198,7 +5219,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT22">
         <v>1.36</v>
@@ -5493,7 +5514,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5583,7 +5604,7 @@
         <v>1.09</v>
       </c>
       <c r="AT24">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU24">
         <v>1.19</v>
@@ -5684,7 +5705,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5875,7 +5896,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6153,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT27">
         <v>1.18</v>
@@ -6257,7 +6278,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6344,7 +6365,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
         <v>1.73</v>
@@ -6448,7 +6469,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6538,7 +6559,7 @@
         <v>1.45</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU29">
         <v>1.44</v>
@@ -6729,7 +6750,7 @@
         <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU30">
         <v>1.44</v>
@@ -6920,7 +6941,7 @@
         <v>2.4</v>
       </c>
       <c r="AT31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7108,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT32">
         <v>1.1</v>
@@ -7299,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT33">
         <v>1.18</v>
@@ -7403,7 +7424,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7594,7 +7615,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7684,7 +7705,7 @@
         <v>1.73</v>
       </c>
       <c r="AT35">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7785,7 +7806,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7976,7 +7997,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8063,10 +8084,10 @@
         <v>2.33</v>
       </c>
       <c r="AS37">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU37">
         <v>1.55</v>
@@ -8167,7 +8188,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8358,7 +8379,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8445,7 +8466,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT39">
         <v>1.1</v>
@@ -8639,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU40">
         <v>1.34</v>
@@ -8740,7 +8761,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8931,7 +8952,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9018,10 +9039,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT42">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9122,7 +9143,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9209,10 +9230,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU43">
         <v>1.68</v>
@@ -9504,7 +9525,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9594,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9695,7 +9716,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10077,7 +10098,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10268,7 +10289,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10546,7 +10567,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT50">
         <v>1.73</v>
@@ -10650,7 +10671,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10737,10 +10758,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT51">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU51">
         <v>1.52</v>
@@ -10928,7 +10949,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT52">
         <v>1.09</v>
@@ -11032,7 +11053,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11122,7 +11143,7 @@
         <v>2.4</v>
       </c>
       <c r="AT53">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU53">
         <v>2.13</v>
@@ -11223,7 +11244,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11310,10 +11331,10 @@
         <v>1.6</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU54">
         <v>1.58</v>
@@ -11414,7 +11435,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11695,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -11796,7 +11817,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11883,7 +11904,7 @@
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT57">
         <v>1.73</v>
@@ -12265,7 +12286,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT59">
         <v>1.18</v>
@@ -12560,7 +12581,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12650,7 +12671,7 @@
         <v>1.73</v>
       </c>
       <c r="AT61">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -12751,7 +12772,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12942,7 +12963,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13029,10 +13050,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13133,7 +13154,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13324,7 +13345,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13414,7 +13435,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU65">
         <v>1.67</v>
@@ -13706,7 +13727,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13984,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT68">
         <v>1.18</v>
@@ -14178,7 +14199,7 @@
         <v>1.73</v>
       </c>
       <c r="AT69">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU69">
         <v>1.97</v>
@@ -14279,7 +14300,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14366,7 +14387,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT70">
         <v>1.09</v>
@@ -14560,7 +14581,7 @@
         <v>1.09</v>
       </c>
       <c r="AT71">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -14661,7 +14682,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14939,7 +14960,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT73">
         <v>1.18</v>
@@ -15043,7 +15064,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15130,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT74">
         <v>1.36</v>
@@ -15234,7 +15255,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15425,7 +15446,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15515,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU76">
         <v>1.93</v>
@@ -15616,7 +15637,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15706,7 +15727,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -15807,7 +15828,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15894,10 +15915,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT78">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16085,7 +16106,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
         <v>1.09</v>
@@ -16189,7 +16210,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16276,10 +16297,10 @@
         <v>1.57</v>
       </c>
       <c r="AS80">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT80">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>1.73</v>
@@ -16380,7 +16401,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16571,7 +16592,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16762,7 +16783,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17526,7 +17547,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17613,10 +17634,10 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT87">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17804,7 +17825,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT88">
         <v>1.1</v>
@@ -17908,7 +17929,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17995,10 +18016,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>1.84</v>
@@ -18186,10 +18207,10 @@
         <v>1.75</v>
       </c>
       <c r="AS90">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU90">
         <v>1.75</v>
@@ -18290,7 +18311,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18380,7 +18401,7 @@
         <v>2.4</v>
       </c>
       <c r="AT91">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU91">
         <v>1.98</v>
@@ -18481,7 +18502,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18863,7 +18884,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19054,7 +19075,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19245,7 +19266,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19523,10 +19544,10 @@
         <v>0.78</v>
       </c>
       <c r="AS97">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT97">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -19714,10 +19735,10 @@
         <v>1.67</v>
       </c>
       <c r="AS98">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT98">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU98">
         <v>1.71</v>
@@ -19818,7 +19839,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -19908,7 +19929,7 @@
         <v>2.4</v>
       </c>
       <c r="AT99">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU99">
         <v>1.94</v>
@@ -20096,7 +20117,7 @@
         <v>1.22</v>
       </c>
       <c r="AS100">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT100">
         <v>1.1</v>
@@ -20287,10 +20308,10 @@
         <v>0.22</v>
       </c>
       <c r="AS101">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT101">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU101">
         <v>1.89</v>
@@ -20391,7 +20412,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20582,7 +20603,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20773,7 +20794,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20964,7 +20985,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21155,7 +21176,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21297,6 +21318,770 @@
       </c>
       <c r="BK106">
         <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2465688</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44974.64583333334</v>
+      </c>
+      <c r="F107">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107" t="s">
+        <v>161</v>
+      </c>
+      <c r="P107" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>8</v>
+      </c>
+      <c r="T107">
+        <v>2.1</v>
+      </c>
+      <c r="U107">
+        <v>2.38</v>
+      </c>
+      <c r="V107">
+        <v>4.75</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>3.4</v>
+      </c>
+      <c r="Y107">
+        <v>2.38</v>
+      </c>
+      <c r="Z107">
+        <v>1.53</v>
+      </c>
+      <c r="AA107">
+        <v>5.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.12</v>
+      </c>
+      <c r="AC107">
+        <v>1.73</v>
+      </c>
+      <c r="AD107">
+        <v>3.98</v>
+      </c>
+      <c r="AE107">
+        <v>4.38</v>
+      </c>
+      <c r="AF107">
+        <v>1.04</v>
+      </c>
+      <c r="AG107">
+        <v>10</v>
+      </c>
+      <c r="AH107">
+        <v>1.22</v>
+      </c>
+      <c r="AI107">
+        <v>4</v>
+      </c>
+      <c r="AJ107">
+        <v>1.6</v>
+      </c>
+      <c r="AK107">
+        <v>2.2</v>
+      </c>
+      <c r="AL107">
+        <v>1.73</v>
+      </c>
+      <c r="AM107">
+        <v>2</v>
+      </c>
+      <c r="AN107">
+        <v>1.24</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.99</v>
+      </c>
+      <c r="AQ107">
+        <v>2.6</v>
+      </c>
+      <c r="AR107">
+        <v>0.2</v>
+      </c>
+      <c r="AS107">
+        <v>2.64</v>
+      </c>
+      <c r="AT107">
+        <v>0.18</v>
+      </c>
+      <c r="AU107">
+        <v>1.71</v>
+      </c>
+      <c r="AV107">
+        <v>1.42</v>
+      </c>
+      <c r="AW107">
+        <v>3.13</v>
+      </c>
+      <c r="AX107">
+        <v>1.45</v>
+      </c>
+      <c r="AY107">
+        <v>7.9</v>
+      </c>
+      <c r="AZ107">
+        <v>3.64</v>
+      </c>
+      <c r="BA107">
+        <v>1.2</v>
+      </c>
+      <c r="BB107">
+        <v>1.32</v>
+      </c>
+      <c r="BC107">
+        <v>1.91</v>
+      </c>
+      <c r="BD107">
+        <v>2.05</v>
+      </c>
+      <c r="BE107">
+        <v>2.4</v>
+      </c>
+      <c r="BF107">
+        <v>7</v>
+      </c>
+      <c r="BG107">
+        <v>5</v>
+      </c>
+      <c r="BH107">
+        <v>9</v>
+      </c>
+      <c r="BI107">
+        <v>4</v>
+      </c>
+      <c r="BJ107">
+        <v>16</v>
+      </c>
+      <c r="BK107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2465689</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44974.64583333334</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>162</v>
+      </c>
+      <c r="P108" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q108">
+        <v>6</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>2.3</v>
+      </c>
+      <c r="V108">
+        <v>3.75</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>3.25</v>
+      </c>
+      <c r="Y108">
+        <v>2.3</v>
+      </c>
+      <c r="Z108">
+        <v>1.57</v>
+      </c>
+      <c r="AA108">
+        <v>5.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.12</v>
+      </c>
+      <c r="AC108">
+        <v>1.99</v>
+      </c>
+      <c r="AD108">
+        <v>3.9</v>
+      </c>
+      <c r="AE108">
+        <v>3.36</v>
+      </c>
+      <c r="AF108">
+        <v>1.03</v>
+      </c>
+      <c r="AG108">
+        <v>11</v>
+      </c>
+      <c r="AH108">
+        <v>1.2</v>
+      </c>
+      <c r="AI108">
+        <v>4.33</v>
+      </c>
+      <c r="AJ108">
+        <v>1.6</v>
+      </c>
+      <c r="AK108">
+        <v>2.2</v>
+      </c>
+      <c r="AL108">
+        <v>1.67</v>
+      </c>
+      <c r="AM108">
+        <v>2.1</v>
+      </c>
+      <c r="AN108">
+        <v>1.34</v>
+      </c>
+      <c r="AO108">
+        <v>1.27</v>
+      </c>
+      <c r="AP108">
+        <v>1.74</v>
+      </c>
+      <c r="AQ108">
+        <v>2.2</v>
+      </c>
+      <c r="AR108">
+        <v>0.7</v>
+      </c>
+      <c r="AS108">
+        <v>2.09</v>
+      </c>
+      <c r="AT108">
+        <v>0.73</v>
+      </c>
+      <c r="AU108">
+        <v>1.7</v>
+      </c>
+      <c r="AV108">
+        <v>1.79</v>
+      </c>
+      <c r="AW108">
+        <v>3.49</v>
+      </c>
+      <c r="AX108">
+        <v>1.87</v>
+      </c>
+      <c r="AY108">
+        <v>7.5</v>
+      </c>
+      <c r="AZ108">
+        <v>2.37</v>
+      </c>
+      <c r="BA108">
+        <v>1.17</v>
+      </c>
+      <c r="BB108">
+        <v>1.32</v>
+      </c>
+      <c r="BC108">
+        <v>1.83</v>
+      </c>
+      <c r="BD108">
+        <v>1.99</v>
+      </c>
+      <c r="BE108">
+        <v>2.5</v>
+      </c>
+      <c r="BF108">
+        <v>6</v>
+      </c>
+      <c r="BG108">
+        <v>6</v>
+      </c>
+      <c r="BH108">
+        <v>6</v>
+      </c>
+      <c r="BI108">
+        <v>5</v>
+      </c>
+      <c r="BJ108">
+        <v>12</v>
+      </c>
+      <c r="BK108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2465686</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44974.64583333334</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>163</v>
+      </c>
+      <c r="P109" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>8</v>
+      </c>
+      <c r="S109">
+        <v>10</v>
+      </c>
+      <c r="T109">
+        <v>2.88</v>
+      </c>
+      <c r="U109">
+        <v>2.3</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>1.3</v>
+      </c>
+      <c r="X109">
+        <v>3.4</v>
+      </c>
+      <c r="Y109">
+        <v>2.3</v>
+      </c>
+      <c r="Z109">
+        <v>1.57</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AB109">
+        <v>1.14</v>
+      </c>
+      <c r="AC109">
+        <v>2.89</v>
+      </c>
+      <c r="AD109">
+        <v>3.8</v>
+      </c>
+      <c r="AE109">
+        <v>2.24</v>
+      </c>
+      <c r="AF109">
+        <v>1.03</v>
+      </c>
+      <c r="AG109">
+        <v>11</v>
+      </c>
+      <c r="AH109">
+        <v>1.22</v>
+      </c>
+      <c r="AI109">
+        <v>4</v>
+      </c>
+      <c r="AJ109">
+        <v>1.57</v>
+      </c>
+      <c r="AK109">
+        <v>2.25</v>
+      </c>
+      <c r="AL109">
+        <v>1.53</v>
+      </c>
+      <c r="AM109">
+        <v>2.38</v>
+      </c>
+      <c r="AN109">
+        <v>1.55</v>
+      </c>
+      <c r="AO109">
+        <v>1.27</v>
+      </c>
+      <c r="AP109">
+        <v>1.47</v>
+      </c>
+      <c r="AQ109">
+        <v>1.4</v>
+      </c>
+      <c r="AR109">
+        <v>1.2</v>
+      </c>
+      <c r="AS109">
+        <v>1.36</v>
+      </c>
+      <c r="AT109">
+        <v>1.18</v>
+      </c>
+      <c r="AU109">
+        <v>1.5</v>
+      </c>
+      <c r="AV109">
+        <v>1.57</v>
+      </c>
+      <c r="AW109">
+        <v>3.07</v>
+      </c>
+      <c r="AX109">
+        <v>2.35</v>
+      </c>
+      <c r="AY109">
+        <v>7.7</v>
+      </c>
+      <c r="AZ109">
+        <v>1.87</v>
+      </c>
+      <c r="BA109">
+        <v>1.14</v>
+      </c>
+      <c r="BB109">
+        <v>1.29</v>
+      </c>
+      <c r="BC109">
+        <v>1.57</v>
+      </c>
+      <c r="BD109">
+        <v>1.93</v>
+      </c>
+      <c r="BE109">
+        <v>2.38</v>
+      </c>
+      <c r="BF109">
+        <v>10</v>
+      </c>
+      <c r="BG109">
+        <v>7</v>
+      </c>
+      <c r="BH109">
+        <v>14</v>
+      </c>
+      <c r="BI109">
+        <v>2</v>
+      </c>
+      <c r="BJ109">
+        <v>24</v>
+      </c>
+      <c r="BK109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2465687</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44974.67708333334</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>73</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>78</v>
+      </c>
+      <c r="P110" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q110">
+        <v>13</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>15</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
+        <v>2.38</v>
+      </c>
+      <c r="V110">
+        <v>3.5</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>3</v>
+      </c>
+      <c r="Y110">
+        <v>2.5</v>
+      </c>
+      <c r="Z110">
+        <v>1.5</v>
+      </c>
+      <c r="AA110">
+        <v>5.5</v>
+      </c>
+      <c r="AB110">
+        <v>1.12</v>
+      </c>
+      <c r="AC110">
+        <v>2.27</v>
+      </c>
+      <c r="AD110">
+        <v>3.64</v>
+      </c>
+      <c r="AE110">
+        <v>2.93</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>9</v>
+      </c>
+      <c r="AH110">
+        <v>1.25</v>
+      </c>
+      <c r="AI110">
+        <v>3.75</v>
+      </c>
+      <c r="AJ110">
+        <v>1.7</v>
+      </c>
+      <c r="AK110">
+        <v>2.05</v>
+      </c>
+      <c r="AL110">
+        <v>1.62</v>
+      </c>
+      <c r="AM110">
+        <v>2.2</v>
+      </c>
+      <c r="AN110">
+        <v>1.31</v>
+      </c>
+      <c r="AO110">
+        <v>1.28</v>
+      </c>
+      <c r="AP110">
+        <v>1.78</v>
+      </c>
+      <c r="AQ110">
+        <v>1.5</v>
+      </c>
+      <c r="AR110">
+        <v>1.5</v>
+      </c>
+      <c r="AS110">
+        <v>1.45</v>
+      </c>
+      <c r="AT110">
+        <v>1.45</v>
+      </c>
+      <c r="AU110">
+        <v>1.9</v>
+      </c>
+      <c r="AV110">
+        <v>1.59</v>
+      </c>
+      <c r="AW110">
+        <v>3.49</v>
+      </c>
+      <c r="AX110">
+        <v>1.8</v>
+      </c>
+      <c r="AY110">
+        <v>7.8</v>
+      </c>
+      <c r="AZ110">
+        <v>2.46</v>
+      </c>
+      <c r="BA110">
+        <v>1.19</v>
+      </c>
+      <c r="BB110">
+        <v>1.36</v>
+      </c>
+      <c r="BC110">
+        <v>2</v>
+      </c>
+      <c r="BD110">
+        <v>2.05</v>
+      </c>
+      <c r="BE110">
+        <v>2.5</v>
+      </c>
+      <c r="BF110">
+        <v>7</v>
+      </c>
+      <c r="BG110">
+        <v>3</v>
+      </c>
+      <c r="BH110">
+        <v>11</v>
+      </c>
+      <c r="BI110">
+        <v>8</v>
+      </c>
+      <c r="BJ110">
+        <v>18</v>
+      </c>
+      <c r="BK110">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['28', '68']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
   <si>
     <t>['40']</t>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1503,7 +1506,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2267,7 +2270,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2458,7 +2461,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2545,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT8">
         <v>1.09</v>
@@ -2649,7 +2652,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2739,7 +2742,7 @@
         <v>1.45</v>
       </c>
       <c r="AT9">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2840,7 +2843,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3031,7 +3034,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3222,7 +3225,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3604,7 +3607,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3795,7 +3798,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4368,7 +4371,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4559,7 +4562,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4750,7 +4753,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4840,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU20">
         <v>1.55</v>
@@ -5028,7 +5031,7 @@
         <v>1.5</v>
       </c>
       <c r="AS21">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT21">
         <v>1.45</v>
@@ -5132,7 +5135,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5514,7 +5517,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5705,7 +5708,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5896,7 +5899,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6278,7 +6281,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6469,7 +6472,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6938,7 +6941,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT31">
         <v>0.73</v>
@@ -7132,7 +7135,7 @@
         <v>2.09</v>
       </c>
       <c r="AT32">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7424,7 +7427,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7615,7 +7618,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7806,7 +7809,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7997,7 +8000,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8188,7 +8191,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8379,7 +8382,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8469,7 +8472,7 @@
         <v>2.64</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU39">
         <v>1.7</v>
@@ -8761,7 +8764,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8848,7 +8851,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT41">
         <v>1.73</v>
@@ -8952,7 +8955,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9143,7 +9146,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9421,7 +9424,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT44">
         <v>1.36</v>
@@ -9525,7 +9528,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9716,7 +9719,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9997,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10098,7 +10101,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10289,7 +10292,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10671,7 +10674,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11053,7 +11056,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11140,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT53">
         <v>0.18</v>
@@ -11244,7 +11247,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11435,7 +11438,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11817,7 +11820,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12480,7 +12483,7 @@
         <v>1.45</v>
       </c>
       <c r="AT60">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU60">
         <v>1.66</v>
@@ -12581,7 +12584,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12772,7 +12775,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12859,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT62">
         <v>1.18</v>
@@ -12963,7 +12966,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13154,7 +13157,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13345,7 +13348,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13727,7 +13730,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14300,7 +14303,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14682,7 +14685,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15064,7 +15067,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15255,7 +15258,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15345,7 +15348,7 @@
         <v>1.73</v>
       </c>
       <c r="AT75">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU75">
         <v>1.95</v>
@@ -15446,7 +15449,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15637,7 +15640,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15828,7 +15831,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16210,7 +16213,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16401,7 +16404,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16488,10 +16491,10 @@
         <v>1.43</v>
       </c>
       <c r="AS81">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU81">
         <v>2.04</v>
@@ -16592,7 +16595,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16783,7 +16786,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17547,7 +17550,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17828,7 +17831,7 @@
         <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU88">
         <v>1.45</v>
@@ -17929,7 +17932,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18311,7 +18314,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18398,7 +18401,7 @@
         <v>1.38</v>
       </c>
       <c r="AS91">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT91">
         <v>1.18</v>
@@ -18502,7 +18505,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18884,7 +18887,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19075,7 +19078,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19266,7 +19269,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19839,7 +19842,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -19926,7 +19929,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT99">
         <v>1.18</v>
@@ -20120,7 +20123,7 @@
         <v>2.64</v>
       </c>
       <c r="AT100">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU100">
         <v>1.73</v>
@@ -20412,7 +20415,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20603,7 +20606,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20794,7 +20797,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20985,7 +20988,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21176,7 +21179,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21367,7 +21370,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21558,7 +21561,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21749,7 +21752,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -21940,7 +21943,7 @@
         <v>78</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22082,6 +22085,197 @@
       </c>
       <c r="BK110">
         <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2465685</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44976.52083333334</v>
+      </c>
+      <c r="F111">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>164</v>
+      </c>
+      <c r="P111" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q111">
+        <v>12</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>16</v>
+      </c>
+      <c r="T111">
+        <v>1.91</v>
+      </c>
+      <c r="U111">
+        <v>2.4</v>
+      </c>
+      <c r="V111">
+        <v>6</v>
+      </c>
+      <c r="W111">
+        <v>1.3</v>
+      </c>
+      <c r="X111">
+        <v>3.4</v>
+      </c>
+      <c r="Y111">
+        <v>2.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.5</v>
+      </c>
+      <c r="AA111">
+        <v>6</v>
+      </c>
+      <c r="AB111">
+        <v>1.13</v>
+      </c>
+      <c r="AC111">
+        <v>1.4</v>
+      </c>
+      <c r="AD111">
+        <v>5</v>
+      </c>
+      <c r="AE111">
+        <v>7</v>
+      </c>
+      <c r="AF111">
+        <v>1.03</v>
+      </c>
+      <c r="AG111">
+        <v>11</v>
+      </c>
+      <c r="AH111">
+        <v>1.2</v>
+      </c>
+      <c r="AI111">
+        <v>4</v>
+      </c>
+      <c r="AJ111">
+        <v>1.65</v>
+      </c>
+      <c r="AK111">
+        <v>2.2</v>
+      </c>
+      <c r="AL111">
+        <v>1.91</v>
+      </c>
+      <c r="AM111">
+        <v>1.8</v>
+      </c>
+      <c r="AN111">
+        <v>1.1</v>
+      </c>
+      <c r="AO111">
+        <v>1.16</v>
+      </c>
+      <c r="AP111">
+        <v>2.3</v>
+      </c>
+      <c r="AQ111">
+        <v>2.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.1</v>
+      </c>
+      <c r="AS111">
+        <v>2.27</v>
+      </c>
+      <c r="AT111">
+        <v>1.09</v>
+      </c>
+      <c r="AU111">
+        <v>1.89</v>
+      </c>
+      <c r="AV111">
+        <v>1.42</v>
+      </c>
+      <c r="AW111">
+        <v>3.31</v>
+      </c>
+      <c r="AX111">
+        <v>1.23</v>
+      </c>
+      <c r="AY111">
+        <v>10.5</v>
+      </c>
+      <c r="AZ111">
+        <v>5.45</v>
+      </c>
+      <c r="BA111">
+        <v>1.19</v>
+      </c>
+      <c r="BB111">
+        <v>1.37</v>
+      </c>
+      <c r="BC111">
+        <v>2</v>
+      </c>
+      <c r="BD111">
+        <v>2</v>
+      </c>
+      <c r="BE111">
+        <v>2.55</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>13</v>
+      </c>
+      <c r="BI111">
+        <v>6</v>
+      </c>
+      <c r="BJ111">
+        <v>17</v>
+      </c>
+      <c r="BK111">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['17', '76', '77']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -710,6 +713,9 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['50', '89']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1512,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1978,7 +1984,7 @@
         <v>1.09</v>
       </c>
       <c r="AT5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2166,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT6">
         <v>0.18</v>
@@ -2270,7 +2276,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2461,7 +2467,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2652,7 +2658,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2739,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT9">
         <v>1.09</v>
@@ -2843,7 +2849,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3034,7 +3040,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3124,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3225,7 +3231,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3607,7 +3613,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3697,7 +3703,7 @@
         <v>1.45</v>
       </c>
       <c r="AT14">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>1.2</v>
@@ -3798,7 +3804,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4076,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT16">
         <v>0.73</v>
@@ -4371,7 +4377,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4461,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU18">
         <v>1.25</v>
@@ -4562,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4649,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT19">
         <v>1.18</v>
@@ -4753,7 +4759,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5135,7 +5141,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5416,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.31</v>
@@ -5517,7 +5523,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5708,7 +5714,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5899,7 +5905,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6177,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT27">
         <v>1.18</v>
@@ -6281,7 +6287,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6371,7 +6377,7 @@
         <v>1.36</v>
       </c>
       <c r="AT28">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU28">
         <v>1.47</v>
@@ -6472,7 +6478,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7323,10 +7329,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT33">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.94</v>
@@ -7427,7 +7433,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7618,7 +7624,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7809,7 +7815,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8000,7 +8006,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8191,7 +8197,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8382,7 +8388,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8469,7 +8475,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT39">
         <v>1.09</v>
@@ -8764,7 +8770,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8854,7 +8860,7 @@
         <v>2.27</v>
       </c>
       <c r="AT41">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU41">
         <v>1.97</v>
@@ -8955,7 +8961,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9146,7 +9152,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9233,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT43">
         <v>0.18</v>
@@ -9528,7 +9534,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9719,7 +9725,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10101,7 +10107,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10292,7 +10298,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10382,7 +10388,7 @@
         <v>1.73</v>
       </c>
       <c r="AT49">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.96</v>
@@ -10570,10 +10576,10 @@
         <v>1.75</v>
       </c>
       <c r="AS50">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT50">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10674,7 +10680,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11056,7 +11062,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11247,7 +11253,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11334,7 +11340,7 @@
         <v>1.6</v>
       </c>
       <c r="AS54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT54">
         <v>1.45</v>
@@ -11438,7 +11444,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11820,7 +11826,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11907,10 +11913,10 @@
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT57">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU57">
         <v>1.56</v>
@@ -12289,10 +12295,10 @@
         <v>1.2</v>
       </c>
       <c r="AS59">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT59">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12584,7 +12590,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12775,7 +12781,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12966,7 +12972,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13157,7 +13163,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13247,7 +13253,7 @@
         <v>1.09</v>
       </c>
       <c r="AT64">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU64">
         <v>1.41</v>
@@ -13348,7 +13354,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13730,7 +13736,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14011,7 +14017,7 @@
         <v>2.09</v>
       </c>
       <c r="AT68">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -14303,7 +14309,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14390,7 +14396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT70">
         <v>1.09</v>
@@ -14685,7 +14691,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14775,7 +14781,7 @@
         <v>1.45</v>
       </c>
       <c r="AT72">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -14966,7 +14972,7 @@
         <v>1.36</v>
       </c>
       <c r="AT73">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -15067,7 +15073,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15154,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT74">
         <v>1.36</v>
@@ -15258,7 +15264,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15449,7 +15455,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15640,7 +15646,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15831,7 +15837,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16109,7 +16115,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
         <v>1.09</v>
@@ -16213,7 +16219,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16300,7 +16306,7 @@
         <v>1.57</v>
       </c>
       <c r="AS80">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT80">
         <v>1.18</v>
@@ -16404,7 +16410,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16595,7 +16601,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16786,7 +16792,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17067,7 +17073,7 @@
         <v>1.73</v>
       </c>
       <c r="AT84">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU84">
         <v>1.89</v>
@@ -17449,7 +17455,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU86">
         <v>1.99</v>
@@ -17550,7 +17556,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17932,7 +17938,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18019,7 +18025,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT89">
         <v>0.73</v>
@@ -18210,7 +18216,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT90">
         <v>1.45</v>
@@ -18314,7 +18320,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18505,7 +18511,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18887,7 +18893,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -18977,7 +18983,7 @@
         <v>1.09</v>
       </c>
       <c r="AT94">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU94">
         <v>1.48</v>
@@ -19078,7 +19084,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19269,7 +19275,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19359,7 +19365,7 @@
         <v>1.73</v>
       </c>
       <c r="AT96">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.91</v>
@@ -19842,7 +19848,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20120,7 +20126,7 @@
         <v>1.22</v>
       </c>
       <c r="AS100">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT100">
         <v>1.09</v>
@@ -20311,7 +20317,7 @@
         <v>0.22</v>
       </c>
       <c r="AS101">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT101">
         <v>0.18</v>
@@ -20415,7 +20421,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20505,7 +20511,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20606,7 +20612,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20696,7 +20702,7 @@
         <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU103">
         <v>1.54</v>
@@ -20797,7 +20803,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20988,7 +20994,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21179,7 +21185,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21370,7 +21376,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21457,7 +21463,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT107">
         <v>0.18</v>
@@ -21561,7 +21567,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21752,7 +21758,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -21943,7 +21949,7 @@
         <v>78</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22030,7 +22036,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
         <v>1.45</v>
@@ -22134,7 +22140,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q111">
         <v>12</v>
@@ -22276,6 +22282,388 @@
       </c>
       <c r="BK111">
         <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2465692</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44981.64583333334</v>
+      </c>
+      <c r="F112">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>165</v>
+      </c>
+      <c r="P112" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q112">
+        <v>8</v>
+      </c>
+      <c r="R112">
+        <v>8</v>
+      </c>
+      <c r="S112">
+        <v>16</v>
+      </c>
+      <c r="T112">
+        <v>2.3</v>
+      </c>
+      <c r="U112">
+        <v>2.4</v>
+      </c>
+      <c r="V112">
+        <v>4</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>3.4</v>
+      </c>
+      <c r="Y112">
+        <v>2.3</v>
+      </c>
+      <c r="Z112">
+        <v>1.57</v>
+      </c>
+      <c r="AA112">
+        <v>5</v>
+      </c>
+      <c r="AB112">
+        <v>1.14</v>
+      </c>
+      <c r="AC112">
+        <v>1.94</v>
+      </c>
+      <c r="AD112">
+        <v>3.6</v>
+      </c>
+      <c r="AE112">
+        <v>3.05</v>
+      </c>
+      <c r="AF112">
+        <v>1.03</v>
+      </c>
+      <c r="AG112">
+        <v>11</v>
+      </c>
+      <c r="AH112">
+        <v>1.2</v>
+      </c>
+      <c r="AI112">
+        <v>4.33</v>
+      </c>
+      <c r="AJ112">
+        <v>1.62</v>
+      </c>
+      <c r="AK112">
+        <v>2.25</v>
+      </c>
+      <c r="AL112">
+        <v>1.53</v>
+      </c>
+      <c r="AM112">
+        <v>2.38</v>
+      </c>
+      <c r="AN112">
+        <v>1.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>1.85</v>
+      </c>
+      <c r="AQ112">
+        <v>1.45</v>
+      </c>
+      <c r="AR112">
+        <v>1.73</v>
+      </c>
+      <c r="AS112">
+        <v>1.58</v>
+      </c>
+      <c r="AT112">
+        <v>1.58</v>
+      </c>
+      <c r="AU112">
+        <v>1.94</v>
+      </c>
+      <c r="AV112">
+        <v>1.43</v>
+      </c>
+      <c r="AW112">
+        <v>3.37</v>
+      </c>
+      <c r="AX112">
+        <v>1.57</v>
+      </c>
+      <c r="AY112">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ112">
+        <v>3.01</v>
+      </c>
+      <c r="BA112">
+        <v>1.15</v>
+      </c>
+      <c r="BB112">
+        <v>1.31</v>
+      </c>
+      <c r="BC112">
+        <v>1.57</v>
+      </c>
+      <c r="BD112">
+        <v>1.92</v>
+      </c>
+      <c r="BE112">
+        <v>2.38</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>6</v>
+      </c>
+      <c r="BH112">
+        <v>9</v>
+      </c>
+      <c r="BI112">
+        <v>4</v>
+      </c>
+      <c r="BJ112">
+        <v>15</v>
+      </c>
+      <c r="BK112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2465694</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44981.67708333334</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>153</v>
+      </c>
+      <c r="P113" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>5</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>2.2</v>
+      </c>
+      <c r="V113">
+        <v>3.1</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>3.4</v>
+      </c>
+      <c r="Y113">
+        <v>2.3</v>
+      </c>
+      <c r="Z113">
+        <v>1.57</v>
+      </c>
+      <c r="AA113">
+        <v>5</v>
+      </c>
+      <c r="AB113">
+        <v>1.14</v>
+      </c>
+      <c r="AC113">
+        <v>2.03</v>
+      </c>
+      <c r="AD113">
+        <v>3.55</v>
+      </c>
+      <c r="AE113">
+        <v>2.89</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>10</v>
+      </c>
+      <c r="AH113">
+        <v>1.2</v>
+      </c>
+      <c r="AI113">
+        <v>4.33</v>
+      </c>
+      <c r="AJ113">
+        <v>1.7</v>
+      </c>
+      <c r="AK113">
+        <v>2.1</v>
+      </c>
+      <c r="AL113">
+        <v>1.62</v>
+      </c>
+      <c r="AM113">
+        <v>2.2</v>
+      </c>
+      <c r="AN113">
+        <v>1.44</v>
+      </c>
+      <c r="AO113">
+        <v>1.29</v>
+      </c>
+      <c r="AP113">
+        <v>1.53</v>
+      </c>
+      <c r="AQ113">
+        <v>2.64</v>
+      </c>
+      <c r="AR113">
+        <v>1.18</v>
+      </c>
+      <c r="AS113">
+        <v>2.42</v>
+      </c>
+      <c r="AT113">
+        <v>1.33</v>
+      </c>
+      <c r="AU113">
+        <v>1.73</v>
+      </c>
+      <c r="AV113">
+        <v>1.42</v>
+      </c>
+      <c r="AW113">
+        <v>3.15</v>
+      </c>
+      <c r="AX113">
+        <v>2.13</v>
+      </c>
+      <c r="AY113">
+        <v>7.7</v>
+      </c>
+      <c r="AZ113">
+        <v>2</v>
+      </c>
+      <c r="BA113">
+        <v>1.13</v>
+      </c>
+      <c r="BB113">
+        <v>1.3</v>
+      </c>
+      <c r="BC113">
+        <v>1.83</v>
+      </c>
+      <c r="BD113">
+        <v>1.95</v>
+      </c>
+      <c r="BE113">
+        <v>2.5</v>
+      </c>
+      <c r="BF113">
+        <v>8</v>
+      </c>
+      <c r="BG113">
+        <v>8</v>
+      </c>
+      <c r="BH113">
+        <v>6</v>
+      </c>
+      <c r="BI113">
+        <v>10</v>
+      </c>
+      <c r="BJ113">
+        <v>14</v>
+      </c>
+      <c r="BK113">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,12 @@
     <t>['17', '76', '77']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['63', '90+4']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -716,6 +722,12 @@
   </si>
   <si>
     <t>['50', '89']</t>
+  </si>
+  <si>
+    <t>['38', '75']</t>
+  </si>
+  <si>
+    <t>['5', '38', '39', '44']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1524,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1790,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT4">
         <v>0.73</v>
@@ -2175,7 +2187,7 @@
         <v>2.42</v>
       </c>
       <c r="AT6">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2276,7 +2288,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2467,7 +2479,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2557,7 +2569,7 @@
         <v>2.27</v>
       </c>
       <c r="AT8">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2658,7 +2670,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2748,7 +2760,7 @@
         <v>1.58</v>
       </c>
       <c r="AT9">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2849,7 +2861,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2936,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT10">
         <v>1.36</v>
@@ -3040,7 +3052,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3127,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT11">
         <v>1.58</v>
@@ -3231,7 +3243,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3512,7 +3524,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU13">
         <v>1.43</v>
@@ -3613,7 +3625,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3700,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT14">
         <v>1.33</v>
@@ -3804,7 +3816,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4377,7 +4389,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4568,7 +4580,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4759,7 +4771,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4846,10 +4858,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT20">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>1.55</v>
@@ -5141,7 +5153,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5523,7 +5535,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5714,7 +5726,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5801,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT25">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU25">
         <v>1.84</v>
@@ -5905,7 +5917,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5992,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
         <v>1.18</v>
@@ -6287,7 +6299,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6478,7 +6490,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6565,7 +6577,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
         <v>1.45</v>
@@ -6759,7 +6771,7 @@
         <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU30">
         <v>1.44</v>
@@ -7141,7 +7153,7 @@
         <v>2.09</v>
       </c>
       <c r="AT32">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7433,7 +7445,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7520,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT34">
         <v>1.36</v>
@@ -7624,7 +7636,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7711,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT35">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7815,7 +7827,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7902,10 +7914,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT36">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU36">
         <v>1.67</v>
@@ -8006,7 +8018,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8197,7 +8209,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8284,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT38">
         <v>1.18</v>
@@ -8388,7 +8400,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8478,7 +8490,7 @@
         <v>2.42</v>
       </c>
       <c r="AT39">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.7</v>
@@ -8770,7 +8782,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8961,7 +8973,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9152,7 +9164,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9242,7 +9254,7 @@
         <v>1.58</v>
       </c>
       <c r="AT43">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU43">
         <v>1.68</v>
@@ -9534,7 +9546,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9621,7 +9633,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT45">
         <v>1.45</v>
@@ -9725,7 +9737,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9815,7 +9827,7 @@
         <v>1.09</v>
       </c>
       <c r="AT46">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU46">
         <v>1.46</v>
@@ -10006,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10107,7 +10119,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10194,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT48">
         <v>1.18</v>
@@ -10298,7 +10310,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10385,7 +10397,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10680,7 +10692,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10961,7 +10973,7 @@
         <v>2.09</v>
       </c>
       <c r="AT52">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU52">
         <v>1.86</v>
@@ -11062,7 +11074,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11152,7 +11164,7 @@
         <v>2.27</v>
       </c>
       <c r="AT53">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU53">
         <v>2.13</v>
@@ -11253,7 +11265,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11444,7 +11456,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11722,7 +11734,7 @@
         <v>2.2</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT56">
         <v>1.18</v>
@@ -11826,7 +11838,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12107,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>1.56</v>
@@ -12486,10 +12498,10 @@
         <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT60">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.66</v>
@@ -12590,7 +12602,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12677,7 +12689,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT61">
         <v>0.73</v>
@@ -12781,7 +12793,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12972,7 +12984,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13163,7 +13175,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13354,7 +13366,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13441,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT65">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU65">
         <v>1.67</v>
@@ -13632,7 +13644,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT66">
         <v>1.36</v>
@@ -13736,7 +13748,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14205,7 +14217,7 @@
         <v>1.83</v>
       </c>
       <c r="AS69">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT69">
         <v>1.18</v>
@@ -14309,7 +14321,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14399,7 +14411,7 @@
         <v>2.42</v>
       </c>
       <c r="AT70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14691,7 +14703,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14778,7 +14790,7 @@
         <v>1.86</v>
       </c>
       <c r="AS72">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT72">
         <v>1.58</v>
@@ -15073,7 +15085,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15264,7 +15276,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15351,10 +15363,10 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT75">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.95</v>
@@ -15455,7 +15467,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15542,10 +15554,10 @@
         <v>0.14</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT76">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU76">
         <v>1.93</v>
@@ -15646,7 +15658,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15837,7 +15849,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16118,7 +16130,7 @@
         <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU79">
         <v>1.82</v>
@@ -16219,7 +16231,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16410,7 +16422,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16500,7 +16512,7 @@
         <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>2.04</v>
@@ -16601,7 +16613,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16792,7 +16804,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17070,7 +17082,7 @@
         <v>1.63</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT84">
         <v>1.58</v>
@@ -17261,10 +17273,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT85">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU85">
         <v>1.66</v>
@@ -17452,7 +17464,7 @@
         <v>0.88</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT86">
         <v>1.33</v>
@@ -17556,7 +17568,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17646,7 +17658,7 @@
         <v>2.09</v>
       </c>
       <c r="AT87">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17837,7 +17849,7 @@
         <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.45</v>
@@ -17938,7 +17950,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18320,7 +18332,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18511,7 +18523,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18598,7 +18610,7 @@
         <v>1.22</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT92">
         <v>1.36</v>
@@ -18789,7 +18801,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT93">
         <v>1.18</v>
@@ -18893,7 +18905,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19084,7 +19096,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19174,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU95">
         <v>1.51</v>
@@ -19275,7 +19287,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19362,7 +19374,7 @@
         <v>0.78</v>
       </c>
       <c r="AS96">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19848,7 +19860,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20129,7 +20141,7 @@
         <v>2.42</v>
       </c>
       <c r="AT100">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.73</v>
@@ -20320,7 +20332,7 @@
         <v>1.58</v>
       </c>
       <c r="AT101">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU101">
         <v>1.89</v>
@@ -20421,7 +20433,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20612,7 +20624,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20699,7 +20711,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT103">
         <v>1.58</v>
@@ -20803,7 +20815,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20893,7 +20905,7 @@
         <v>1.09</v>
       </c>
       <c r="AT104">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -20994,7 +21006,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21081,7 +21093,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
         <v>1.36</v>
@@ -21185,7 +21197,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21272,7 +21284,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT106">
         <v>1.18</v>
@@ -21376,7 +21388,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21466,7 +21478,7 @@
         <v>2.42</v>
       </c>
       <c r="AT107">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AU107">
         <v>1.71</v>
@@ -21567,7 +21579,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21758,7 +21770,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -21949,7 +21961,7 @@
         <v>78</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22140,7 +22152,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q111">
         <v>12</v>
@@ -22230,7 +22242,7 @@
         <v>2.27</v>
       </c>
       <c r="AT111">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.89</v>
@@ -22522,7 +22534,7 @@
         <v>153</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22664,6 +22676,579 @@
       </c>
       <c r="BK113">
         <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2465693</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44983.42708333334</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P114" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q114">
+        <v>9</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>14</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>2.25</v>
+      </c>
+      <c r="V114">
+        <v>3.75</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>3.25</v>
+      </c>
+      <c r="Y114">
+        <v>2.5</v>
+      </c>
+      <c r="Z114">
+        <v>1.5</v>
+      </c>
+      <c r="AA114">
+        <v>6</v>
+      </c>
+      <c r="AB114">
+        <v>1.13</v>
+      </c>
+      <c r="AC114">
+        <v>2</v>
+      </c>
+      <c r="AD114">
+        <v>3.5</v>
+      </c>
+      <c r="AE114">
+        <v>3.1</v>
+      </c>
+      <c r="AF114">
+        <v>1.02</v>
+      </c>
+      <c r="AG114">
+        <v>14</v>
+      </c>
+      <c r="AH114">
+        <v>1.2</v>
+      </c>
+      <c r="AI114">
+        <v>4.5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.66</v>
+      </c>
+      <c r="AK114">
+        <v>2.16</v>
+      </c>
+      <c r="AL114">
+        <v>1.67</v>
+      </c>
+      <c r="AM114">
+        <v>2.1</v>
+      </c>
+      <c r="AN114">
+        <v>1.34</v>
+      </c>
+      <c r="AO114">
+        <v>1.24</v>
+      </c>
+      <c r="AP114">
+        <v>1.68</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>0.18</v>
+      </c>
+      <c r="AS114">
+        <v>0.92</v>
+      </c>
+      <c r="AT114">
+        <v>0.42</v>
+      </c>
+      <c r="AU114">
+        <v>1.95</v>
+      </c>
+      <c r="AV114">
+        <v>1.4</v>
+      </c>
+      <c r="AW114">
+        <v>3.35</v>
+      </c>
+      <c r="AX114">
+        <v>1.57</v>
+      </c>
+      <c r="AY114">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ114">
+        <v>3.01</v>
+      </c>
+      <c r="BA114">
+        <v>1.18</v>
+      </c>
+      <c r="BB114">
+        <v>1.39</v>
+      </c>
+      <c r="BC114">
+        <v>2</v>
+      </c>
+      <c r="BD114">
+        <v>2.12</v>
+      </c>
+      <c r="BE114">
+        <v>2.65</v>
+      </c>
+      <c r="BF114">
+        <v>9</v>
+      </c>
+      <c r="BG114">
+        <v>4</v>
+      </c>
+      <c r="BH114">
+        <v>10</v>
+      </c>
+      <c r="BI114">
+        <v>4</v>
+      </c>
+      <c r="BJ114">
+        <v>19</v>
+      </c>
+      <c r="BK114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2465691</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44983.42708333334</v>
+      </c>
+      <c r="F115">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>4</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>14</v>
+      </c>
+      <c r="T115">
+        <v>2.4</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>3.25</v>
+      </c>
+      <c r="Y115">
+        <v>2.5</v>
+      </c>
+      <c r="Z115">
+        <v>1.5</v>
+      </c>
+      <c r="AA115">
+        <v>6</v>
+      </c>
+      <c r="AB115">
+        <v>1.13</v>
+      </c>
+      <c r="AC115">
+        <v>1.75</v>
+      </c>
+      <c r="AD115">
+        <v>3.6</v>
+      </c>
+      <c r="AE115">
+        <v>3.8</v>
+      </c>
+      <c r="AF115">
+        <v>1.03</v>
+      </c>
+      <c r="AG115">
+        <v>14</v>
+      </c>
+      <c r="AH115">
+        <v>1.2</v>
+      </c>
+      <c r="AI115">
+        <v>4.3</v>
+      </c>
+      <c r="AJ115">
+        <v>1.68</v>
+      </c>
+      <c r="AK115">
+        <v>2.1</v>
+      </c>
+      <c r="AL115">
+        <v>1.62</v>
+      </c>
+      <c r="AM115">
+        <v>2.2</v>
+      </c>
+      <c r="AN115">
+        <v>1.19</v>
+      </c>
+      <c r="AO115">
+        <v>1.24</v>
+      </c>
+      <c r="AP115">
+        <v>1.98</v>
+      </c>
+      <c r="AQ115">
+        <v>1.73</v>
+      </c>
+      <c r="AR115">
+        <v>1.09</v>
+      </c>
+      <c r="AS115">
+        <v>1.58</v>
+      </c>
+      <c r="AT115">
+        <v>1.25</v>
+      </c>
+      <c r="AU115">
+        <v>1.81</v>
+      </c>
+      <c r="AV115">
+        <v>1.5</v>
+      </c>
+      <c r="AW115">
+        <v>3.31</v>
+      </c>
+      <c r="AX115">
+        <v>1.47</v>
+      </c>
+      <c r="AY115">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ115">
+        <v>3.44</v>
+      </c>
+      <c r="BA115">
+        <v>1.14</v>
+      </c>
+      <c r="BB115">
+        <v>1.29</v>
+      </c>
+      <c r="BC115">
+        <v>1.83</v>
+      </c>
+      <c r="BD115">
+        <v>1.99</v>
+      </c>
+      <c r="BE115">
+        <v>2.48</v>
+      </c>
+      <c r="BF115">
+        <v>5</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>10</v>
+      </c>
+      <c r="BK115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2465690</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44983.42708333334</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>67</v>
+      </c>
+      <c r="H116" t="s">
+        <v>68</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>167</v>
+      </c>
+      <c r="P116" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q116">
+        <v>11</v>
+      </c>
+      <c r="R116">
+        <v>4</v>
+      </c>
+      <c r="S116">
+        <v>15</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>2.3</v>
+      </c>
+      <c r="V116">
+        <v>4.33</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>3.25</v>
+      </c>
+      <c r="Y116">
+        <v>2.5</v>
+      </c>
+      <c r="Z116">
+        <v>1.5</v>
+      </c>
+      <c r="AA116">
+        <v>6</v>
+      </c>
+      <c r="AB116">
+        <v>1.13</v>
+      </c>
+      <c r="AC116">
+        <v>1.75</v>
+      </c>
+      <c r="AD116">
+        <v>3.6</v>
+      </c>
+      <c r="AE116">
+        <v>3.8</v>
+      </c>
+      <c r="AF116">
+        <v>1.03</v>
+      </c>
+      <c r="AG116">
+        <v>14</v>
+      </c>
+      <c r="AH116">
+        <v>1.2</v>
+      </c>
+      <c r="AI116">
+        <v>4.3</v>
+      </c>
+      <c r="AJ116">
+        <v>1.68</v>
+      </c>
+      <c r="AK116">
+        <v>2.1</v>
+      </c>
+      <c r="AL116">
+        <v>1.62</v>
+      </c>
+      <c r="AM116">
+        <v>2.2</v>
+      </c>
+      <c r="AN116">
+        <v>1.19</v>
+      </c>
+      <c r="AO116">
+        <v>1.24</v>
+      </c>
+      <c r="AP116">
+        <v>1.98</v>
+      </c>
+      <c r="AQ116">
+        <v>1.45</v>
+      </c>
+      <c r="AR116">
+        <v>1.09</v>
+      </c>
+      <c r="AS116">
+        <v>1.58</v>
+      </c>
+      <c r="AT116">
+        <v>1</v>
+      </c>
+      <c r="AU116">
+        <v>1.61</v>
+      </c>
+      <c r="AV116">
+        <v>1.41</v>
+      </c>
+      <c r="AW116">
+        <v>3.02</v>
+      </c>
+      <c r="AX116">
+        <v>1.36</v>
+      </c>
+      <c r="AY116">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ116">
+        <v>4.14</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>1.25</v>
+      </c>
+      <c r="BC116">
+        <v>1.53</v>
+      </c>
+      <c r="BD116">
+        <v>1.85</v>
+      </c>
+      <c r="BE116">
+        <v>2.28</v>
+      </c>
+      <c r="BF116">
+        <v>10</v>
+      </c>
+      <c r="BG116">
+        <v>6</v>
+      </c>
+      <c r="BH116">
+        <v>13</v>
+      </c>
+      <c r="BI116">
+        <v>6</v>
+      </c>
+      <c r="BJ116">
+        <v>23</v>
+      </c>
+      <c r="BK116">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,9 @@
     <t>['63', '90+4']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -728,6 +731,9 @@
   </si>
   <si>
     <t>['5', '38', '39', '44']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,7 +1530,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>1.45</v>
@@ -2288,7 +2294,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2378,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2479,7 +2485,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2670,7 +2676,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2861,7 +2867,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2951,7 +2957,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3052,7 +3058,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3243,7 +3249,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3330,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1.18</v>
@@ -3625,7 +3631,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3816,7 +3822,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4288,7 +4294,7 @@
         <v>1.36</v>
       </c>
       <c r="AT17">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>1.46</v>
@@ -4389,7 +4395,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4580,7 +4586,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4670,7 +4676,7 @@
         <v>1.58</v>
       </c>
       <c r="AT19">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4771,7 +4777,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5153,7 +5159,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5240,10 +5246,10 @@
         <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5535,7 +5541,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5625,7 +5631,7 @@
         <v>1.09</v>
       </c>
       <c r="AT24">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU24">
         <v>1.19</v>
@@ -5726,7 +5732,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5917,7 +5923,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6299,7 +6305,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6490,7 +6496,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7150,7 +7156,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7445,7 +7451,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7535,7 +7541,7 @@
         <v>1.58</v>
       </c>
       <c r="AT34">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7636,7 +7642,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7827,7 +7833,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8018,7 +8024,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8108,7 +8114,7 @@
         <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU37">
         <v>1.55</v>
@@ -8209,7 +8215,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8400,7 +8406,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8782,7 +8788,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8973,7 +8979,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9060,10 +9066,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9164,7 +9170,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9445,7 +9451,7 @@
         <v>2.27</v>
       </c>
       <c r="AT44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>2.27</v>
@@ -9546,7 +9552,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9737,7 +9743,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10119,7 +10125,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10310,7 +10316,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10692,7 +10698,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10970,7 +10976,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>1.25</v>
@@ -11074,7 +11080,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11265,7 +11271,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11456,7 +11462,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11546,7 +11552,7 @@
         <v>1.09</v>
       </c>
       <c r="AT55">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -11737,7 +11743,7 @@
         <v>0.92</v>
       </c>
       <c r="AT56">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -11838,7 +11844,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12602,7 +12608,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12793,7 +12799,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12984,7 +12990,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13175,7 +13181,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13366,7 +13372,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13647,7 +13653,7 @@
         <v>0.92</v>
       </c>
       <c r="AT66">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>2.02</v>
@@ -13748,7 +13754,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14026,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14220,7 +14226,7 @@
         <v>1.58</v>
       </c>
       <c r="AT69">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU69">
         <v>1.97</v>
@@ -14321,7 +14327,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14703,7 +14709,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15085,7 +15091,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15175,7 +15181,7 @@
         <v>1.58</v>
       </c>
       <c r="AT74">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15276,7 +15282,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15467,7 +15473,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15658,7 +15664,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15849,7 +15855,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15936,7 +15942,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT78">
         <v>0.73</v>
@@ -16231,7 +16237,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16321,7 +16327,7 @@
         <v>2.42</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU80">
         <v>1.73</v>
@@ -16422,7 +16428,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16613,7 +16619,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16703,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.56</v>
@@ -16804,7 +16810,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17568,7 +17574,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17655,7 +17661,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>0.42</v>
@@ -17950,7 +17956,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18332,7 +18338,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18422,7 +18428,7 @@
         <v>2.27</v>
       </c>
       <c r="AT91">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU91">
         <v>1.98</v>
@@ -18523,7 +18529,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18613,7 +18619,7 @@
         <v>0.92</v>
       </c>
       <c r="AT92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.89</v>
@@ -18905,7 +18911,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19096,7 +19102,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19287,7 +19293,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19756,7 +19762,7 @@
         <v>1.67</v>
       </c>
       <c r="AS98">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>1.45</v>
@@ -19860,7 +19866,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -19950,7 +19956,7 @@
         <v>2.27</v>
       </c>
       <c r="AT99">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU99">
         <v>1.94</v>
@@ -20433,7 +20439,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20624,7 +20630,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20815,7 +20821,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21006,7 +21012,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21096,7 +21102,7 @@
         <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.83</v>
@@ -21197,7 +21203,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21388,7 +21394,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21579,7 +21585,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21666,7 +21672,7 @@
         <v>0.7</v>
       </c>
       <c r="AS108">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.73</v>
@@ -21770,7 +21776,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -21860,7 +21866,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU109">
         <v>1.5</v>
@@ -21961,7 +21967,7 @@
         <v>78</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22152,7 +22158,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q111">
         <v>12</v>
@@ -22534,7 +22540,7 @@
         <v>153</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22725,7 +22731,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -22916,7 +22922,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23249,6 +23255,388 @@
       </c>
       <c r="BK116">
         <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2465699</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44988.64583333334</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" t="s">
+        <v>69</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>12</v>
+      </c>
+      <c r="T117">
+        <v>2.88</v>
+      </c>
+      <c r="U117">
+        <v>2.3</v>
+      </c>
+      <c r="V117">
+        <v>3</v>
+      </c>
+      <c r="W117">
+        <v>1.28</v>
+      </c>
+      <c r="X117">
+        <v>3.48</v>
+      </c>
+      <c r="Y117">
+        <v>2.39</v>
+      </c>
+      <c r="Z117">
+        <v>1.59</v>
+      </c>
+      <c r="AA117">
+        <v>5.25</v>
+      </c>
+      <c r="AB117">
+        <v>1.14</v>
+      </c>
+      <c r="AC117">
+        <v>2.41</v>
+      </c>
+      <c r="AD117">
+        <v>3.7</v>
+      </c>
+      <c r="AE117">
+        <v>2.41</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>11</v>
+      </c>
+      <c r="AH117">
+        <v>1.2</v>
+      </c>
+      <c r="AI117">
+        <v>4.33</v>
+      </c>
+      <c r="AJ117">
+        <v>1.6</v>
+      </c>
+      <c r="AK117">
+        <v>2.25</v>
+      </c>
+      <c r="AL117">
+        <v>1.53</v>
+      </c>
+      <c r="AM117">
+        <v>2.38</v>
+      </c>
+      <c r="AN117">
+        <v>1.55</v>
+      </c>
+      <c r="AO117">
+        <v>1.25</v>
+      </c>
+      <c r="AP117">
+        <v>1.54</v>
+      </c>
+      <c r="AQ117">
+        <v>2.09</v>
+      </c>
+      <c r="AR117">
+        <v>1.36</v>
+      </c>
+      <c r="AS117">
+        <v>2</v>
+      </c>
+      <c r="AT117">
+        <v>1.33</v>
+      </c>
+      <c r="AU117">
+        <v>1.7</v>
+      </c>
+      <c r="AV117">
+        <v>1.45</v>
+      </c>
+      <c r="AW117">
+        <v>3.15</v>
+      </c>
+      <c r="AX117">
+        <v>1.9</v>
+      </c>
+      <c r="AY117">
+        <v>7.6</v>
+      </c>
+      <c r="AZ117">
+        <v>2.27</v>
+      </c>
+      <c r="BA117">
+        <v>1.17</v>
+      </c>
+      <c r="BB117">
+        <v>1.29</v>
+      </c>
+      <c r="BC117">
+        <v>1.6</v>
+      </c>
+      <c r="BD117">
+        <v>1.96</v>
+      </c>
+      <c r="BE117">
+        <v>2.44</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>4</v>
+      </c>
+      <c r="BI117">
+        <v>7</v>
+      </c>
+      <c r="BJ117">
+        <v>8</v>
+      </c>
+      <c r="BK117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2465697</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44988.67708333334</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>9</v>
+      </c>
+      <c r="S118">
+        <v>12</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>2.38</v>
+      </c>
+      <c r="V118">
+        <v>2.88</v>
+      </c>
+      <c r="W118">
+        <v>1.25</v>
+      </c>
+      <c r="X118">
+        <v>3.75</v>
+      </c>
+      <c r="Y118">
+        <v>2.2</v>
+      </c>
+      <c r="Z118">
+        <v>1.62</v>
+      </c>
+      <c r="AA118">
+        <v>4.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.17</v>
+      </c>
+      <c r="AC118">
+        <v>2.49</v>
+      </c>
+      <c r="AD118">
+        <v>3.75</v>
+      </c>
+      <c r="AE118">
+        <v>2.31</v>
+      </c>
+      <c r="AF118">
+        <v>1.02</v>
+      </c>
+      <c r="AG118">
+        <v>12</v>
+      </c>
+      <c r="AH118">
+        <v>1.17</v>
+      </c>
+      <c r="AI118">
+        <v>4.5</v>
+      </c>
+      <c r="AJ118">
+        <v>1.57</v>
+      </c>
+      <c r="AK118">
+        <v>2.3</v>
+      </c>
+      <c r="AL118">
+        <v>1.5</v>
+      </c>
+      <c r="AM118">
+        <v>2.5</v>
+      </c>
+      <c r="AN118">
+        <v>1.5</v>
+      </c>
+      <c r="AO118">
+        <v>1.25</v>
+      </c>
+      <c r="AP118">
+        <v>1.5</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>1.18</v>
+      </c>
+      <c r="AS118">
+        <v>1</v>
+      </c>
+      <c r="AT118">
+        <v>1.17</v>
+      </c>
+      <c r="AU118">
+        <v>1.51</v>
+      </c>
+      <c r="AV118">
+        <v>1.56</v>
+      </c>
+      <c r="AW118">
+        <v>3.07</v>
+      </c>
+      <c r="AX118">
+        <v>2.32</v>
+      </c>
+      <c r="AY118">
+        <v>7.6</v>
+      </c>
+      <c r="AZ118">
+        <v>1.9</v>
+      </c>
+      <c r="BA118">
+        <v>1.18</v>
+      </c>
+      <c r="BB118">
+        <v>1.34</v>
+      </c>
+      <c r="BC118">
+        <v>1.91</v>
+      </c>
+      <c r="BD118">
+        <v>1.99</v>
+      </c>
+      <c r="BE118">
+        <v>2.48</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>10</v>
+      </c>
+      <c r="BJ118">
+        <v>8</v>
+      </c>
+      <c r="BK118">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -735,6 +735,12 @@
   <si>
     <t>['90+4']</t>
   </si>
+  <si>
+    <t>['5', '6', '15', '71', '85']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1095,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1620,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1811,7 +1817,7 @@
         <v>1.58</v>
       </c>
       <c r="AT4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1999,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>1.33</v>
@@ -2572,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT8">
         <v>1.25</v>
@@ -3339,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>1.83</v>
@@ -3527,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT13">
         <v>0.42</v>
@@ -3909,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU15">
         <v>1.18</v>
@@ -4103,7 +4109,7 @@
         <v>2.42</v>
       </c>
       <c r="AT16">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>1.53</v>
@@ -4291,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -5055,10 +5061,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT21">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5628,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>1.17</v>
@@ -6013,7 +6019,7 @@
         <v>0.92</v>
       </c>
       <c r="AT26">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.79</v>
@@ -6204,7 +6210,7 @@
         <v>2.42</v>
       </c>
       <c r="AT27">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU27">
         <v>1.95</v>
@@ -6392,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT28">
         <v>1.58</v>
@@ -6586,7 +6592,7 @@
         <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU29">
         <v>1.44</v>
@@ -6774,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>0.42</v>
@@ -6965,10 +6971,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT31">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -8111,7 +8117,7 @@
         <v>2.33</v>
       </c>
       <c r="AS37">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
         <v>1.17</v>
@@ -8305,7 +8311,7 @@
         <v>1.58</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8687,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
         <v>1.34</v>
@@ -8875,7 +8881,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT41">
         <v>1.58</v>
@@ -9448,7 +9454,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT44">
         <v>1.33</v>
@@ -9642,7 +9648,7 @@
         <v>0.92</v>
       </c>
       <c r="AT45">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9830,7 +9836,7 @@
         <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>1.25</v>
@@ -10215,7 +10221,7 @@
         <v>1.58</v>
       </c>
       <c r="AT48">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU48">
         <v>1.6</v>
@@ -10785,10 +10791,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>1.52</v>
@@ -11167,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT53">
         <v>0.42</v>
@@ -11361,7 +11367,7 @@
         <v>1.58</v>
       </c>
       <c r="AT54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU54">
         <v>1.58</v>
@@ -11549,7 +11555,7 @@
         <v>1.2</v>
       </c>
       <c r="AS55">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT55">
         <v>1.33</v>
@@ -12698,7 +12704,7 @@
         <v>1.58</v>
       </c>
       <c r="AT61">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -12886,10 +12892,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT62">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>2.07</v>
@@ -13077,10 +13083,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13268,7 +13274,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT64">
         <v>1.58</v>
@@ -13844,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.69</v>
@@ -14605,10 +14611,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -14987,7 +14993,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
         <v>1.33</v>
@@ -15754,7 +15760,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -15945,7 +15951,7 @@
         <v>2</v>
       </c>
       <c r="AT78">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16515,7 +16521,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16897,10 +16903,10 @@
         <v>0.88</v>
       </c>
       <c r="AS83">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.52</v>
@@ -17852,7 +17858,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18046,7 +18052,7 @@
         <v>1.58</v>
       </c>
       <c r="AT89">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU89">
         <v>1.84</v>
@@ -18237,7 +18243,7 @@
         <v>2.42</v>
       </c>
       <c r="AT90">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU90">
         <v>1.75</v>
@@ -18425,7 +18431,7 @@
         <v>1.38</v>
       </c>
       <c r="AS91">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT91">
         <v>1.17</v>
@@ -18810,7 +18816,7 @@
         <v>1.58</v>
       </c>
       <c r="AT93">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>1.59</v>
@@ -18998,7 +19004,7 @@
         <v>1.44</v>
       </c>
       <c r="AS94">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>1.58</v>
@@ -19571,10 +19577,10 @@
         <v>0.78</v>
       </c>
       <c r="AS97">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT97">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -19765,7 +19771,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU98">
         <v>1.71</v>
@@ -19953,7 +19959,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT99">
         <v>1.17</v>
@@ -20908,7 +20914,7 @@
         <v>0.9</v>
       </c>
       <c r="AS104">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT104">
         <v>1.25</v>
@@ -21293,7 +21299,7 @@
         <v>0.92</v>
       </c>
       <c r="AT106">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>1.94</v>
@@ -21675,7 +21681,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU108">
         <v>1.7</v>
@@ -21863,7 +21869,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT109">
         <v>1.17</v>
@@ -22057,7 +22063,7 @@
         <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU110">
         <v>1.9</v>
@@ -22245,7 +22251,7 @@
         <v>1.1</v>
       </c>
       <c r="AS111">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -23637,6 +23643,579 @@
       </c>
       <c r="BK118">
         <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2465698</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44990.42708333334</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>72</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>5</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" t="s">
+        <v>90</v>
+      </c>
+      <c r="P119" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>3.4</v>
+      </c>
+      <c r="U119">
+        <v>2.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+      <c r="X119">
+        <v>3.4</v>
+      </c>
+      <c r="Y119">
+        <v>2.5</v>
+      </c>
+      <c r="Z119">
+        <v>1.5</v>
+      </c>
+      <c r="AA119">
+        <v>6</v>
+      </c>
+      <c r="AB119">
+        <v>1.13</v>
+      </c>
+      <c r="AC119">
+        <v>2.29</v>
+      </c>
+      <c r="AD119">
+        <v>3.38</v>
+      </c>
+      <c r="AE119">
+        <v>2.58</v>
+      </c>
+      <c r="AF119">
+        <v>1</v>
+      </c>
+      <c r="AG119">
+        <v>10.5</v>
+      </c>
+      <c r="AH119">
+        <v>1.2</v>
+      </c>
+      <c r="AI119">
+        <v>4.2</v>
+      </c>
+      <c r="AJ119">
+        <v>1.62</v>
+      </c>
+      <c r="AK119">
+        <v>2.12</v>
+      </c>
+      <c r="AL119">
+        <v>1.57</v>
+      </c>
+      <c r="AM119">
+        <v>2.25</v>
+      </c>
+      <c r="AN119">
+        <v>1.53</v>
+      </c>
+      <c r="AO119">
+        <v>1.22</v>
+      </c>
+      <c r="AP119">
+        <v>1.33</v>
+      </c>
+      <c r="AQ119">
+        <v>1.36</v>
+      </c>
+      <c r="AR119">
+        <v>1.18</v>
+      </c>
+      <c r="AS119">
+        <v>1.25</v>
+      </c>
+      <c r="AT119">
+        <v>1.33</v>
+      </c>
+      <c r="AU119">
+        <v>1.62</v>
+      </c>
+      <c r="AV119">
+        <v>1.76</v>
+      </c>
+      <c r="AW119">
+        <v>3.38</v>
+      </c>
+      <c r="AX119">
+        <v>2.63</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>1.67</v>
+      </c>
+      <c r="BA119">
+        <v>1.15</v>
+      </c>
+      <c r="BB119">
+        <v>1.25</v>
+      </c>
+      <c r="BC119">
+        <v>1.47</v>
+      </c>
+      <c r="BD119">
+        <v>1.82</v>
+      </c>
+      <c r="BE119">
+        <v>2.32</v>
+      </c>
+      <c r="BF119">
+        <v>4</v>
+      </c>
+      <c r="BG119">
+        <v>11</v>
+      </c>
+      <c r="BH119">
+        <v>12</v>
+      </c>
+      <c r="BI119">
+        <v>12</v>
+      </c>
+      <c r="BJ119">
+        <v>16</v>
+      </c>
+      <c r="BK119">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2465695</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44990.42708333334</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>10</v>
+      </c>
+      <c r="S120">
+        <v>10</v>
+      </c>
+      <c r="T120">
+        <v>3.4</v>
+      </c>
+      <c r="U120">
+        <v>2.25</v>
+      </c>
+      <c r="V120">
+        <v>2.63</v>
+      </c>
+      <c r="W120">
+        <v>1.3</v>
+      </c>
+      <c r="X120">
+        <v>3.4</v>
+      </c>
+      <c r="Y120">
+        <v>2.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.5</v>
+      </c>
+      <c r="AA120">
+        <v>6</v>
+      </c>
+      <c r="AB120">
+        <v>1.13</v>
+      </c>
+      <c r="AC120">
+        <v>2.58</v>
+      </c>
+      <c r="AD120">
+        <v>3.38</v>
+      </c>
+      <c r="AE120">
+        <v>2.29</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>10</v>
+      </c>
+      <c r="AH120">
+        <v>1.2</v>
+      </c>
+      <c r="AI120">
+        <v>4.33</v>
+      </c>
+      <c r="AJ120">
+        <v>1.6</v>
+      </c>
+      <c r="AK120">
+        <v>2.16</v>
+      </c>
+      <c r="AL120">
+        <v>1.62</v>
+      </c>
+      <c r="AM120">
+        <v>2.2</v>
+      </c>
+      <c r="AN120">
+        <v>1.76</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>1.34</v>
+      </c>
+      <c r="AQ120">
+        <v>1.09</v>
+      </c>
+      <c r="AR120">
+        <v>1.45</v>
+      </c>
+      <c r="AS120">
+        <v>1</v>
+      </c>
+      <c r="AT120">
+        <v>1.58</v>
+      </c>
+      <c r="AU120">
+        <v>1.48</v>
+      </c>
+      <c r="AV120">
+        <v>1.56</v>
+      </c>
+      <c r="AW120">
+        <v>3.04</v>
+      </c>
+      <c r="AX120">
+        <v>2.71</v>
+      </c>
+      <c r="AY120">
+        <v>7.9</v>
+      </c>
+      <c r="AZ120">
+        <v>1.64</v>
+      </c>
+      <c r="BA120">
+        <v>1.18</v>
+      </c>
+      <c r="BB120">
+        <v>1.3</v>
+      </c>
+      <c r="BC120">
+        <v>1.83</v>
+      </c>
+      <c r="BD120">
+        <v>1.94</v>
+      </c>
+      <c r="BE120">
+        <v>2.51</v>
+      </c>
+      <c r="BF120">
+        <v>5</v>
+      </c>
+      <c r="BG120">
+        <v>6</v>
+      </c>
+      <c r="BH120">
+        <v>5</v>
+      </c>
+      <c r="BI120">
+        <v>10</v>
+      </c>
+      <c r="BJ120">
+        <v>10</v>
+      </c>
+      <c r="BK120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2465696</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>90</v>
+      </c>
+      <c r="P121" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q121">
+        <v>11</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>14</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>2.3</v>
+      </c>
+      <c r="V121">
+        <v>4.33</v>
+      </c>
+      <c r="W121">
+        <v>1.3</v>
+      </c>
+      <c r="X121">
+        <v>3.4</v>
+      </c>
+      <c r="Y121">
+        <v>2.5</v>
+      </c>
+      <c r="Z121">
+        <v>1.5</v>
+      </c>
+      <c r="AA121">
+        <v>6</v>
+      </c>
+      <c r="AB121">
+        <v>1.13</v>
+      </c>
+      <c r="AC121">
+        <v>1.75</v>
+      </c>
+      <c r="AD121">
+        <v>3.75</v>
+      </c>
+      <c r="AE121">
+        <v>4.5</v>
+      </c>
+      <c r="AF121">
+        <v>1.04</v>
+      </c>
+      <c r="AG121">
+        <v>10</v>
+      </c>
+      <c r="AH121">
+        <v>1.2</v>
+      </c>
+      <c r="AI121">
+        <v>4.33</v>
+      </c>
+      <c r="AJ121">
+        <v>1.7</v>
+      </c>
+      <c r="AK121">
+        <v>2.1</v>
+      </c>
+      <c r="AL121">
+        <v>1.67</v>
+      </c>
+      <c r="AM121">
+        <v>2.1</v>
+      </c>
+      <c r="AN121">
+        <v>1.17</v>
+      </c>
+      <c r="AO121">
+        <v>1.22</v>
+      </c>
+      <c r="AP121">
+        <v>2.2</v>
+      </c>
+      <c r="AQ121">
+        <v>2.27</v>
+      </c>
+      <c r="AR121">
+        <v>0.73</v>
+      </c>
+      <c r="AS121">
+        <v>2.17</v>
+      </c>
+      <c r="AT121">
+        <v>0.75</v>
+      </c>
+      <c r="AU121">
+        <v>1.9</v>
+      </c>
+      <c r="AV121">
+        <v>1.76</v>
+      </c>
+      <c r="AW121">
+        <v>3.66</v>
+      </c>
+      <c r="AX121">
+        <v>1.41</v>
+      </c>
+      <c r="AY121">
+        <v>9.5</v>
+      </c>
+      <c r="AZ121">
+        <v>3.5</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>1.29</v>
+      </c>
+      <c r="BC121">
+        <v>1.91</v>
+      </c>
+      <c r="BD121">
+        <v>1.98</v>
+      </c>
+      <c r="BE121">
+        <v>2.48</v>
+      </c>
+      <c r="BF121">
+        <v>7</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>7</v>
+      </c>
+      <c r="BI121">
+        <v>2</v>
+      </c>
+      <c r="BJ121">
+        <v>14</v>
+      </c>
+      <c r="BK121">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -740,6 +743,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['45', '77']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT2">
         <v>1.33</v>
@@ -1536,7 +1542,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2008,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2300,7 +2306,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2491,7 +2497,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2682,7 +2688,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2873,7 +2879,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3064,7 +3070,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3255,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT13">
         <v>0.42</v>
@@ -3637,7 +3643,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3727,7 +3733,7 @@
         <v>1.58</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU14">
         <v>1.2</v>
@@ -3828,7 +3834,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4297,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4401,7 +4407,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4592,7 +4598,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4783,7 +4789,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5165,7 +5171,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5446,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU23">
         <v>1.31</v>
@@ -5547,7 +5553,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5738,7 +5744,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5929,7 +5935,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6311,7 +6317,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6398,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT28">
         <v>1.58</v>
@@ -6502,7 +6508,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7356,7 +7362,7 @@
         <v>1.58</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU33">
         <v>1.94</v>
@@ -7457,7 +7463,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7648,7 +7654,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7839,7 +7845,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8030,7 +8036,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8117,7 +8123,7 @@
         <v>2.33</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT37">
         <v>1.17</v>
@@ -8221,7 +8227,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8412,7 +8418,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8794,7 +8800,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8985,7 +8991,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9176,7 +9182,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9558,7 +9564,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9749,7 +9755,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10131,7 +10137,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10322,7 +10328,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10412,7 +10418,7 @@
         <v>1.58</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU49">
         <v>1.96</v>
@@ -10704,7 +10710,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10791,7 +10797,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT51">
         <v>0.75</v>
@@ -11086,7 +11092,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11277,7 +11283,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11468,7 +11474,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11850,7 +11856,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12322,7 +12328,7 @@
         <v>2.42</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12614,7 +12620,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12805,7 +12811,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12996,7 +13002,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13083,7 +13089,7 @@
         <v>1.83</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT63">
         <v>1.58</v>
@@ -13187,7 +13193,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13378,7 +13384,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13760,7 +13766,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14041,7 +14047,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -14333,7 +14339,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14715,7 +14721,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14993,10 +14999,10 @@
         <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -15097,7 +15103,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15288,7 +15294,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15479,7 +15485,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15670,7 +15676,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15861,7 +15867,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16243,7 +16249,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16434,7 +16440,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16625,7 +16631,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16816,7 +16822,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17479,7 +17485,7 @@
         <v>0.92</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU86">
         <v>1.99</v>
@@ -17580,7 +17586,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17858,7 +17864,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -17962,7 +17968,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18344,7 +18350,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18535,7 +18541,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18917,7 +18923,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19108,7 +19114,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19299,7 +19305,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19389,7 +19395,7 @@
         <v>1.58</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU96">
         <v>1.91</v>
@@ -19577,7 +19583,7 @@
         <v>0.78</v>
       </c>
       <c r="AS97">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT97">
         <v>0.75</v>
@@ -19872,7 +19878,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20445,7 +20451,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20535,7 +20541,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20636,7 +20642,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20827,7 +20833,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21018,7 +21024,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21209,7 +21215,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21400,7 +21406,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21591,7 +21597,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21782,7 +21788,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -21869,7 +21875,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT109">
         <v>1.17</v>
@@ -21973,7 +21979,7 @@
         <v>78</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22164,7 +22170,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q111">
         <v>12</v>
@@ -22546,7 +22552,7 @@
         <v>153</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22636,7 +22642,7 @@
         <v>2.42</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU113">
         <v>1.73</v>
@@ -22737,7 +22743,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -22928,7 +22934,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23310,7 +23316,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23692,7 +23698,7 @@
         <v>90</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23779,7 +23785,7 @@
         <v>1.18</v>
       </c>
       <c r="AS119">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT119">
         <v>1.33</v>
@@ -23883,7 +23889,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24216,6 +24222,197 @@
       </c>
       <c r="BK121">
         <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2465702</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44995.67708333334</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>65</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>169</v>
+      </c>
+      <c r="P122" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>10</v>
+      </c>
+      <c r="S122">
+        <v>10</v>
+      </c>
+      <c r="T122">
+        <v>4.33</v>
+      </c>
+      <c r="U122">
+        <v>2.3</v>
+      </c>
+      <c r="V122">
+        <v>2.3</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>3.25</v>
+      </c>
+      <c r="Y122">
+        <v>2.5</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>5.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.12</v>
+      </c>
+      <c r="AC122">
+        <v>4.1</v>
+      </c>
+      <c r="AD122">
+        <v>3.6</v>
+      </c>
+      <c r="AE122">
+        <v>1.8</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>10</v>
+      </c>
+      <c r="AH122">
+        <v>1.22</v>
+      </c>
+      <c r="AI122">
+        <v>4</v>
+      </c>
+      <c r="AJ122">
+        <v>1.7</v>
+      </c>
+      <c r="AK122">
+        <v>2.1</v>
+      </c>
+      <c r="AL122">
+        <v>1.67</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.85</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>1.25</v>
+      </c>
+      <c r="AQ122">
+        <v>1.25</v>
+      </c>
+      <c r="AR122">
+        <v>1.33</v>
+      </c>
+      <c r="AS122">
+        <v>1.15</v>
+      </c>
+      <c r="AT122">
+        <v>1.46</v>
+      </c>
+      <c r="AU122">
+        <v>1.63</v>
+      </c>
+      <c r="AV122">
+        <v>1.5</v>
+      </c>
+      <c r="AW122">
+        <v>3.13</v>
+      </c>
+      <c r="AX122">
+        <v>2.75</v>
+      </c>
+      <c r="AY122">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ122">
+        <v>1.61</v>
+      </c>
+      <c r="BA122">
+        <v>1.17</v>
+      </c>
+      <c r="BB122">
+        <v>1.3</v>
+      </c>
+      <c r="BC122">
+        <v>1.61</v>
+      </c>
+      <c r="BD122">
+        <v>1.98</v>
+      </c>
+      <c r="BE122">
+        <v>2.47</v>
+      </c>
+      <c r="BF122">
+        <v>2</v>
+      </c>
+      <c r="BG122">
+        <v>8</v>
+      </c>
+      <c r="BH122">
+        <v>2</v>
+      </c>
+      <c r="BI122">
+        <v>6</v>
+      </c>
+      <c r="BJ122">
+        <v>4</v>
+      </c>
+      <c r="BK122">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,18 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['52', '64']</t>
+  </si>
+  <si>
+    <t>['73', '90']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -746,6 +758,15 @@
   </si>
   <si>
     <t>['45', '77']</t>
+  </si>
+  <si>
+    <t>['12', '90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1542,7 +1563,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1632,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1820,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -2306,7 +2327,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2393,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT7">
         <v>1.17</v>
@@ -2497,7 +2518,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2688,7 +2709,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2775,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2879,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2969,7 +2990,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3070,7 +3091,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3157,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT11">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3261,7 +3282,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3643,7 +3664,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3730,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT14">
         <v>1.46</v>
@@ -3834,7 +3855,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3924,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU15">
         <v>1.18</v>
@@ -4306,7 +4327,7 @@
         <v>1.15</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU17">
         <v>1.46</v>
@@ -4407,7 +4428,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4494,10 +4515,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT18">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU18">
         <v>1.25</v>
@@ -4598,7 +4619,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4685,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT19">
         <v>1.17</v>
@@ -4789,7 +4810,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4876,10 +4897,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
+        <v>1.08</v>
+      </c>
+      <c r="AT20">
         <v>0.92</v>
-      </c>
-      <c r="AT20">
-        <v>1</v>
       </c>
       <c r="AU20">
         <v>1.55</v>
@@ -5070,7 +5091,7 @@
         <v>2.17</v>
       </c>
       <c r="AT21">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5171,7 +5192,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5261,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5449,7 +5470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
         <v>1.46</v>
@@ -5553,7 +5574,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5744,7 +5765,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -5935,7 +5956,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6022,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT26">
         <v>1.33</v>
@@ -6317,7 +6338,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6407,7 +6428,7 @@
         <v>1.15</v>
       </c>
       <c r="AT28">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU28">
         <v>1.47</v>
@@ -6508,7 +6529,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6595,10 +6616,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT29">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU29">
         <v>1.44</v>
@@ -7171,7 +7192,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7359,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT33">
         <v>1.46</v>
@@ -7463,7 +7484,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7550,10 +7571,10 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7654,7 +7675,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7845,7 +7866,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -7932,7 +7953,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
         <v>1.25</v>
@@ -8036,7 +8057,7 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8227,7 +8248,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8418,7 +8439,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8508,7 +8529,7 @@
         <v>2.42</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU39">
         <v>1.7</v>
@@ -8696,7 +8717,7 @@
         <v>0.33</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT40">
         <v>0.75</v>
@@ -8800,7 +8821,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -8890,7 +8911,7 @@
         <v>2.17</v>
       </c>
       <c r="AT41">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU41">
         <v>1.97</v>
@@ -8991,7 +9012,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9182,7 +9203,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9269,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT43">
         <v>0.42</v>
@@ -9463,7 +9484,7 @@
         <v>2.17</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU44">
         <v>2.27</v>
@@ -9564,7 +9585,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9651,10 +9672,10 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9755,7 +9776,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10033,10 +10054,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10137,7 +10158,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10224,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -10328,7 +10349,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10609,7 +10630,7 @@
         <v>2.42</v>
       </c>
       <c r="AT50">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10710,7 +10731,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11092,7 +11113,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11283,7 +11304,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11370,10 +11391,10 @@
         <v>1.6</v>
       </c>
       <c r="AS54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT54">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU54">
         <v>1.58</v>
@@ -11474,7 +11495,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11564,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -11752,7 +11773,7 @@
         <v>2.2</v>
       </c>
       <c r="AS56">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT56">
         <v>1.17</v>
@@ -11856,7 +11877,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11943,10 +11964,10 @@
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT57">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU57">
         <v>1.56</v>
@@ -12134,7 +12155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12516,10 +12537,10 @@
         <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU60">
         <v>1.66</v>
@@ -12620,7 +12641,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12811,7 +12832,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13002,7 +13023,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13092,7 +13113,7 @@
         <v>1.15</v>
       </c>
       <c r="AT63">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13193,7 +13214,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13283,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU64">
         <v>1.41</v>
@@ -13384,7 +13405,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13471,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT65">
         <v>0.42</v>
@@ -13662,10 +13683,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU66">
         <v>2.02</v>
@@ -13766,7 +13787,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13853,7 +13874,7 @@
         <v>0.86</v>
       </c>
       <c r="AS67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -14339,7 +14360,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14721,7 +14742,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14808,10 +14829,10 @@
         <v>1.86</v>
       </c>
       <c r="AS72">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT72">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -15103,7 +15124,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15190,10 +15211,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15294,7 +15315,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15384,7 +15405,7 @@
         <v>1.58</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU75">
         <v>1.95</v>
@@ -15485,7 +15506,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15572,7 +15593,7 @@
         <v>0.14</v>
       </c>
       <c r="AS76">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
         <v>0.42</v>
@@ -15676,7 +15697,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15763,10 +15784,10 @@
         <v>2</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT77">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -15867,7 +15888,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16145,7 +16166,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT79">
         <v>1.25</v>
@@ -16249,7 +16270,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16440,7 +16461,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>12</v>
@@ -16530,7 +16551,7 @@
         <v>2.17</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>2.04</v>
@@ -16631,7 +16652,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16718,10 +16739,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU82">
         <v>1.56</v>
@@ -16822,7 +16843,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17103,7 +17124,7 @@
         <v>1.58</v>
       </c>
       <c r="AT84">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU84">
         <v>1.89</v>
@@ -17291,7 +17312,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT85">
         <v>1.25</v>
@@ -17482,7 +17503,7 @@
         <v>0.88</v>
       </c>
       <c r="AS86">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT86">
         <v>1.46</v>
@@ -17586,7 +17607,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17867,7 +17888,7 @@
         <v>1.15</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.45</v>
@@ -17968,7 +17989,7 @@
         <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18055,7 +18076,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT89">
         <v>0.75</v>
@@ -18249,7 +18270,7 @@
         <v>2.42</v>
       </c>
       <c r="AT90">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU90">
         <v>1.75</v>
@@ -18350,7 +18371,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18541,7 +18562,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18628,10 +18649,10 @@
         <v>1.22</v>
       </c>
       <c r="AS92">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU92">
         <v>1.89</v>
@@ -18819,7 +18840,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT93">
         <v>1.33</v>
@@ -18923,7 +18944,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19013,7 +19034,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU94">
         <v>1.48</v>
@@ -19114,7 +19135,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19201,7 +19222,7 @@
         <v>0.89</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19305,7 +19326,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19777,7 +19798,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU98">
         <v>1.71</v>
@@ -19878,7 +19899,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20159,7 +20180,7 @@
         <v>2.42</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU100">
         <v>1.73</v>
@@ -20347,7 +20368,7 @@
         <v>0.22</v>
       </c>
       <c r="AS101">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT101">
         <v>0.42</v>
@@ -20451,7 +20472,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20538,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT102">
         <v>1.46</v>
@@ -20642,7 +20663,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20729,10 +20750,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT103">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU103">
         <v>1.54</v>
@@ -20833,7 +20854,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21024,7 +21045,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21114,7 +21135,7 @@
         <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU105">
         <v>1.83</v>
@@ -21215,7 +21236,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21302,7 +21323,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21406,7 +21427,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21597,7 +21618,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21788,7 +21809,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -21979,7 +22000,7 @@
         <v>78</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22066,10 +22087,10 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT110">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU110">
         <v>1.9</v>
@@ -22170,7 +22191,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q111">
         <v>12</v>
@@ -22260,7 +22281,7 @@
         <v>2.17</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111">
         <v>1.89</v>
@@ -22448,10 +22469,10 @@
         <v>1.73</v>
       </c>
       <c r="AS112">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT112">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU112">
         <v>1.94</v>
@@ -22552,7 +22573,7 @@
         <v>153</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22743,7 +22764,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -22830,7 +22851,7 @@
         <v>0.18</v>
       </c>
       <c r="AS114">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
         <v>0.42</v>
@@ -22934,7 +22955,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23212,10 +23233,10 @@
         <v>1.09</v>
       </c>
       <c r="AS116">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU116">
         <v>1.61</v>
@@ -23316,7 +23337,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23406,7 +23427,7 @@
         <v>2</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU117">
         <v>1.7</v>
@@ -23594,7 +23615,7 @@
         <v>1.18</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT118">
         <v>1.17</v>
@@ -23698,7 +23719,7 @@
         <v>90</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23889,7 +23910,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -23979,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU120">
         <v>1.48</v>
@@ -24271,7 +24292,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -24413,6 +24434,770 @@
       </c>
       <c r="BK122">
         <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2465700</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>7</v>
+      </c>
+      <c r="S123">
+        <v>10</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>2.3</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.25</v>
+      </c>
+      <c r="X123">
+        <v>3.75</v>
+      </c>
+      <c r="Y123">
+        <v>2.2</v>
+      </c>
+      <c r="Z123">
+        <v>1.62</v>
+      </c>
+      <c r="AA123">
+        <v>4.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.17</v>
+      </c>
+      <c r="AC123">
+        <v>2.3</v>
+      </c>
+      <c r="AD123">
+        <v>3.6</v>
+      </c>
+      <c r="AE123">
+        <v>3</v>
+      </c>
+      <c r="AF123">
+        <v>1.02</v>
+      </c>
+      <c r="AG123">
+        <v>13</v>
+      </c>
+      <c r="AH123">
+        <v>1.15</v>
+      </c>
+      <c r="AI123">
+        <v>4.75</v>
+      </c>
+      <c r="AJ123">
+        <v>1.65</v>
+      </c>
+      <c r="AK123">
+        <v>2.2</v>
+      </c>
+      <c r="AL123">
+        <v>1.57</v>
+      </c>
+      <c r="AM123">
+        <v>2.25</v>
+      </c>
+      <c r="AN123">
+        <v>1.44</v>
+      </c>
+      <c r="AO123">
+        <v>1.25</v>
+      </c>
+      <c r="AP123">
+        <v>1.57</v>
+      </c>
+      <c r="AQ123">
+        <v>1.58</v>
+      </c>
+      <c r="AR123">
+        <v>1.58</v>
+      </c>
+      <c r="AS123">
+        <v>1.46</v>
+      </c>
+      <c r="AT123">
+        <v>1.69</v>
+      </c>
+      <c r="AU123">
+        <v>1.71</v>
+      </c>
+      <c r="AV123">
+        <v>1.59</v>
+      </c>
+      <c r="AW123">
+        <v>3.3</v>
+      </c>
+      <c r="AX123">
+        <v>1.93</v>
+      </c>
+      <c r="AY123">
+        <v>7.8</v>
+      </c>
+      <c r="AZ123">
+        <v>2.18</v>
+      </c>
+      <c r="BA123">
+        <v>1.14</v>
+      </c>
+      <c r="BB123">
+        <v>1.26</v>
+      </c>
+      <c r="BC123">
+        <v>1.54</v>
+      </c>
+      <c r="BD123">
+        <v>1.88</v>
+      </c>
+      <c r="BE123">
+        <v>2.32</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>8</v>
+      </c>
+      <c r="BH123">
+        <v>6</v>
+      </c>
+      <c r="BI123">
+        <v>10</v>
+      </c>
+      <c r="BJ123">
+        <v>10</v>
+      </c>
+      <c r="BK123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2465704</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44997.42708333334</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>171</v>
+      </c>
+      <c r="P124" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q124">
+        <v>10</v>
+      </c>
+      <c r="R124">
+        <v>3</v>
+      </c>
+      <c r="S124">
+        <v>13</v>
+      </c>
+      <c r="T124">
+        <v>2.2</v>
+      </c>
+      <c r="U124">
+        <v>2.25</v>
+      </c>
+      <c r="V124">
+        <v>4.5</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.6</v>
+      </c>
+      <c r="Z124">
+        <v>1.45</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.11</v>
+      </c>
+      <c r="AC124">
+        <v>1.7</v>
+      </c>
+      <c r="AD124">
+        <v>3.75</v>
+      </c>
+      <c r="AE124">
+        <v>5</v>
+      </c>
+      <c r="AF124">
+        <v>1.05</v>
+      </c>
+      <c r="AG124">
+        <v>9</v>
+      </c>
+      <c r="AH124">
+        <v>1.25</v>
+      </c>
+      <c r="AI124">
+        <v>3.6</v>
+      </c>
+      <c r="AJ124">
+        <v>1.75</v>
+      </c>
+      <c r="AK124">
+        <v>2.05</v>
+      </c>
+      <c r="AL124">
+        <v>1.73</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.24</v>
+      </c>
+      <c r="AO124">
+        <v>1.25</v>
+      </c>
+      <c r="AP124">
+        <v>1.78</v>
+      </c>
+      <c r="AQ124">
+        <v>0.92</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>1.08</v>
+      </c>
+      <c r="AT124">
+        <v>0.92</v>
+      </c>
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>1.42</v>
+      </c>
+      <c r="AW124">
+        <v>3.42</v>
+      </c>
+      <c r="AX124">
+        <v>1.37</v>
+      </c>
+      <c r="AY124">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ124">
+        <v>3.82</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>1.3</v>
+      </c>
+      <c r="BC124">
+        <v>1.83</v>
+      </c>
+      <c r="BD124">
+        <v>1.99</v>
+      </c>
+      <c r="BE124">
+        <v>2.48</v>
+      </c>
+      <c r="BF124">
+        <v>10</v>
+      </c>
+      <c r="BG124">
+        <v>2</v>
+      </c>
+      <c r="BH124">
+        <v>11</v>
+      </c>
+      <c r="BI124">
+        <v>3</v>
+      </c>
+      <c r="BJ124">
+        <v>21</v>
+      </c>
+      <c r="BK124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2465701</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>66</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>172</v>
+      </c>
+      <c r="P125" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>7</v>
+      </c>
+      <c r="T125">
+        <v>3.1</v>
+      </c>
+      <c r="U125">
+        <v>2.2</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.29</v>
+      </c>
+      <c r="X125">
+        <v>3.5</v>
+      </c>
+      <c r="Y125">
+        <v>2.4</v>
+      </c>
+      <c r="Z125">
+        <v>1.51</v>
+      </c>
+      <c r="AA125">
+        <v>4.75</v>
+      </c>
+      <c r="AB125">
+        <v>1.15</v>
+      </c>
+      <c r="AC125">
+        <v>2.75</v>
+      </c>
+      <c r="AD125">
+        <v>3.4</v>
+      </c>
+      <c r="AE125">
+        <v>2.55</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>11</v>
+      </c>
+      <c r="AH125">
+        <v>1.18</v>
+      </c>
+      <c r="AI125">
+        <v>4.33</v>
+      </c>
+      <c r="AJ125">
+        <v>1.7</v>
+      </c>
+      <c r="AK125">
+        <v>2.1</v>
+      </c>
+      <c r="AL125">
+        <v>1.62</v>
+      </c>
+      <c r="AM125">
+        <v>2.2</v>
+      </c>
+      <c r="AN125">
+        <v>1.5</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.4</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.58</v>
+      </c>
+      <c r="AS125">
+        <v>0.92</v>
+      </c>
+      <c r="AT125">
+        <v>1.69</v>
+      </c>
+      <c r="AU125">
+        <v>1.47</v>
+      </c>
+      <c r="AV125">
+        <v>1.43</v>
+      </c>
+      <c r="AW125">
+        <v>2.9</v>
+      </c>
+      <c r="AX125">
+        <v>2.16</v>
+      </c>
+      <c r="AY125">
+        <v>7.7</v>
+      </c>
+      <c r="AZ125">
+        <v>1.95</v>
+      </c>
+      <c r="BA125">
+        <v>1.16</v>
+      </c>
+      <c r="BB125">
+        <v>1.29</v>
+      </c>
+      <c r="BC125">
+        <v>1.83</v>
+      </c>
+      <c r="BD125">
+        <v>1.96</v>
+      </c>
+      <c r="BE125">
+        <v>2.43</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>6</v>
+      </c>
+      <c r="BH125">
+        <v>6</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+      <c r="BJ125">
+        <v>11</v>
+      </c>
+      <c r="BK125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2465703</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>173</v>
+      </c>
+      <c r="P126" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>3</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>2.38</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.3</v>
+      </c>
+      <c r="X126">
+        <v>3.4</v>
+      </c>
+      <c r="Y126">
+        <v>2.26</v>
+      </c>
+      <c r="Z126">
+        <v>1.58</v>
+      </c>
+      <c r="AA126">
+        <v>4.75</v>
+      </c>
+      <c r="AB126">
+        <v>1.15</v>
+      </c>
+      <c r="AC126">
+        <v>2.1</v>
+      </c>
+      <c r="AD126">
+        <v>3.6</v>
+      </c>
+      <c r="AE126">
+        <v>3.3</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>12</v>
+      </c>
+      <c r="AH126">
+        <v>1.15</v>
+      </c>
+      <c r="AI126">
+        <v>4.75</v>
+      </c>
+      <c r="AJ126">
+        <v>1.57</v>
+      </c>
+      <c r="AK126">
+        <v>2.35</v>
+      </c>
+      <c r="AL126">
+        <v>1.5</v>
+      </c>
+      <c r="AM126">
+        <v>2.5</v>
+      </c>
+      <c r="AN126">
+        <v>1.3</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.68</v>
+      </c>
+      <c r="AQ126">
+        <v>1.58</v>
+      </c>
+      <c r="AR126">
+        <v>1.33</v>
+      </c>
+      <c r="AS126">
+        <v>1.54</v>
+      </c>
+      <c r="AT126">
+        <v>1.31</v>
+      </c>
+      <c r="AU126">
+        <v>1.93</v>
+      </c>
+      <c r="AV126">
+        <v>1.46</v>
+      </c>
+      <c r="AW126">
+        <v>3.39</v>
+      </c>
+      <c r="AX126">
+        <v>1.62</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>2.77</v>
+      </c>
+      <c r="BA126">
+        <v>1.17</v>
+      </c>
+      <c r="BB126">
+        <v>1.28</v>
+      </c>
+      <c r="BC126">
+        <v>1.59</v>
+      </c>
+      <c r="BD126">
+        <v>1.94</v>
+      </c>
+      <c r="BE126">
+        <v>2.42</v>
+      </c>
+      <c r="BF126">
+        <v>4</v>
+      </c>
+      <c r="BG126">
+        <v>6</v>
+      </c>
+      <c r="BH126">
+        <v>7</v>
+      </c>
+      <c r="BI126">
+        <v>5</v>
+      </c>
+      <c r="BJ126">
+        <v>11</v>
+      </c>
+      <c r="BK126">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT3" t="n">
         <v>1.69</v>
@@ -1309,7 +1309,7 @@
         <v>1.46</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT6" t="n">
         <v>0.42</v>
@@ -1918,7 +1918,7 @@
         <v>0.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.17</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT10" t="n">
         <v>1.31</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU16" t="n">
         <v>1.53</v>
@@ -4354,7 +4354,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT22" t="n">
         <v>1.31</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU24" t="n">
         <v>1.19</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>2.17</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT32" t="n">
         <v>0.92</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT35" t="n">
         <v>0.42</v>
@@ -7805,7 +7805,7 @@
         <v>1.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU36" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>1.15</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU37" t="n">
         <v>1.55</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT38" t="n">
         <v>1.33</v>
@@ -8411,7 +8411,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT39" t="n">
         <v>0.92</v>
@@ -8617,7 +8617,7 @@
         <v>0.92</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU40" t="n">
         <v>1.34</v>
@@ -9020,10 +9020,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU42" t="n">
         <v>1.86</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU46" t="n">
         <v>1.46</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT49" t="n">
         <v>1.46</v>
@@ -10644,7 +10644,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT50" t="n">
         <v>1.69</v>
@@ -10850,7 +10850,7 @@
         <v>1.15</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11050,10 +11050,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU52" t="n">
         <v>1.86</v>
@@ -11865,7 +11865,7 @@
         <v>1.08</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
@@ -12271,7 +12271,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU58" t="n">
         <v>1.56</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT59" t="n">
         <v>1.46</v>
@@ -12877,10 +12877,10 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT68" t="n">
         <v>1.46</v>
@@ -14501,10 +14501,10 @@
         <v>1.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU69" t="n">
         <v>1.97</v>
@@ -14704,10 +14704,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU71" t="n">
         <v>1.49</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT75" t="n">
         <v>0.92</v>
@@ -16328,10 +16328,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16534,7 +16534,7 @@
         <v>1.54</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU79" t="n">
         <v>1.82</v>
@@ -16734,10 +16734,10 @@
         <v>1.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU80" t="n">
         <v>1.73</v>
@@ -17546,7 +17546,7 @@
         <v>1.63</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT84" t="n">
         <v>1.69</v>
@@ -17752,7 +17752,7 @@
         <v>1.46</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU85" t="n">
         <v>1.66</v>
@@ -18155,7 +18155,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT87" t="n">
         <v>0.42</v>
@@ -18564,7 +18564,7 @@
         <v>1.54</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU89" t="n">
         <v>1.84</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT90" t="n">
         <v>1.69</v>
@@ -18970,7 +18970,7 @@
         <v>2.17</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU91" t="n">
         <v>1.98</v>
@@ -19782,7 +19782,7 @@
         <v>0.92</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU95" t="n">
         <v>1.51</v>
@@ -19982,7 +19982,7 @@
         <v>0.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT96" t="n">
         <v>1.46</v>
@@ -20188,7 +20188,7 @@
         <v>1.15</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20388,7 +20388,7 @@
         <v>1.67</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT98" t="n">
         <v>1.69</v>
@@ -20594,7 +20594,7 @@
         <v>2.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU99" t="n">
         <v>1.94</v>
@@ -20794,7 +20794,7 @@
         <v>1.22</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT100" t="n">
         <v>0.92</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT105" t="n">
         <v>1.31</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT107" t="n">
         <v>0.42</v>
@@ -22418,10 +22418,10 @@
         <v>0.7</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU108" t="n">
         <v>1.7</v>
@@ -22624,7 +22624,7 @@
         <v>1.15</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>1.18</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT113" t="n">
         <v>1.46</v>
@@ -23839,10 +23839,10 @@
         <v>1.09</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -24245,7 +24245,7 @@
         <v>1.36</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT117" t="n">
         <v>1.31</v>
@@ -24451,7 +24451,7 @@
         <v>0.92</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU118" t="n">
         <v>1.51</v>
@@ -25060,7 +25060,7 @@
         <v>2.17</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -26127,6 +26127,615 @@
       </c>
       <c r="BK126" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2465709</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>26</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['6', '66']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>6</v>
+      </c>
+      <c r="S127" t="n">
+        <v>10</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2465708</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45002.67708333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>26</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['15', '56', '70']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>7</v>
+      </c>
+      <c r="R128" t="n">
+        <v>5</v>
+      </c>
+      <c r="S128" t="n">
+        <v>12</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V128" t="n">
+        <v>4</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2465707</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>26</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>10</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT2" t="n">
         <v>1.46</v>
@@ -1106,7 +1106,7 @@
         <v>2.08</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT7" t="n">
         <v>1.31</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT8" t="n">
         <v>1.15</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.54</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.08</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT13" t="n">
         <v>0.46</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT14" t="n">
         <v>1.46</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU15" t="n">
         <v>1.18</v>
@@ -3745,7 +3745,7 @@
         <v>2.23</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU16" t="n">
         <v>1.53</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU17" t="n">
         <v>1.46</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU18" t="n">
         <v>1.25</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT19" t="n">
         <v>1.31</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.55</v>
@@ -4757,10 +4757,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4963,7 +4963,7 @@
         <v>2.08</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU22" t="n">
         <v>1.86</v>
@@ -5163,7 +5163,7 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT23" t="n">
         <v>1.46</v>
@@ -6178,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU28" t="n">
         <v>1.47</v>
@@ -6381,10 +6381,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>2.08</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT33" t="n">
         <v>1.46</v>
@@ -7396,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -8005,7 +8005,7 @@
         <v>2.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT37" t="n">
         <v>1.31</v>
@@ -8414,7 +8414,7 @@
         <v>2.23</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU39" t="n">
         <v>1.7</v>
@@ -8614,10 +8614,10 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU40" t="n">
         <v>1.34</v>
@@ -8817,10 +8817,10 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU41" t="n">
         <v>1.97</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT43" t="n">
         <v>0.46</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU44" t="n">
         <v>2.27</v>
@@ -9632,7 +9632,7 @@
         <v>1.08</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -10035,10 +10035,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT48" t="n">
         <v>1.46</v>
@@ -10647,7 +10647,7 @@
         <v>2.23</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -10847,10 +10847,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT53" t="n">
         <v>0.46</v>
@@ -11456,10 +11456,10 @@
         <v>1.6</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU54" t="n">
         <v>1.58</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU55" t="n">
         <v>1.44</v>
@@ -12065,10 +12065,10 @@
         <v>1.4</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU57" t="n">
         <v>1.56</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT58" t="n">
         <v>1.15</v>
@@ -12674,10 +12674,10 @@
         <v>1.4</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU60" t="n">
         <v>1.66</v>
@@ -12880,7 +12880,7 @@
         <v>1.54</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT62" t="n">
         <v>1.46</v>
@@ -13283,10 +13283,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU64" t="n">
         <v>1.41</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT65" t="n">
         <v>0.46</v>
@@ -13895,7 +13895,7 @@
         <v>1.08</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU66" t="n">
         <v>2.02</v>
@@ -14095,7 +14095,7 @@
         <v>0.86</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT67" t="n">
         <v>1.46</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU71" t="n">
         <v>1.49</v>
@@ -15110,10 +15110,10 @@
         <v>1.86</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU72" t="n">
         <v>1.68</v>
@@ -15313,7 +15313,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT73" t="n">
         <v>1.46</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU74" t="n">
         <v>1.79</v>
@@ -15722,7 +15722,7 @@
         <v>1.54</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU75" t="n">
         <v>1.95</v>
@@ -16125,10 +16125,10 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -16331,7 +16331,7 @@
         <v>2.08</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT79" t="n">
         <v>1.15</v>
@@ -16937,10 +16937,10 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU81" t="n">
         <v>2.04</v>
@@ -17140,10 +17140,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -17549,7 +17549,7 @@
         <v>1.54</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU84" t="n">
         <v>1.89</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT85" t="n">
         <v>1.15</v>
@@ -18358,10 +18358,10 @@
         <v>1.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU88" t="n">
         <v>1.45</v>
@@ -18561,10 +18561,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU89" t="n">
         <v>1.84</v>
@@ -18767,7 +18767,7 @@
         <v>2.23</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU90" t="n">
         <v>1.75</v>
@@ -18967,7 +18967,7 @@
         <v>1.38</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT91" t="n">
         <v>1.31</v>
@@ -19173,7 +19173,7 @@
         <v>1.08</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU92" t="n">
         <v>1.89</v>
@@ -19373,7 +19373,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT93" t="n">
         <v>1.46</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.48</v>
@@ -19779,7 +19779,7 @@
         <v>0.89</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT95" t="n">
         <v>1.15</v>
@@ -20185,10 +20185,10 @@
         <v>0.78</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20391,7 +20391,7 @@
         <v>2.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU98" t="n">
         <v>1.71</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT99" t="n">
         <v>1.31</v>
@@ -20797,7 +20797,7 @@
         <v>2.23</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU100" t="n">
         <v>1.73</v>
@@ -20997,7 +20997,7 @@
         <v>0.22</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT101" t="n">
         <v>0.46</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT102" t="n">
         <v>1.46</v>
@@ -21403,10 +21403,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU103" t="n">
         <v>1.54</v>
@@ -21812,7 +21812,7 @@
         <v>1.54</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU105" t="n">
         <v>1.83</v>
@@ -22421,7 +22421,7 @@
         <v>2.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU108" t="n">
         <v>1.7</v>
@@ -22621,7 +22621,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT109" t="n">
         <v>1.31</v>
@@ -22824,10 +22824,10 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU110" t="n">
         <v>1.9</v>
@@ -23027,10 +23027,10 @@
         <v>1.1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU111" t="n">
         <v>1.89</v>
@@ -23230,10 +23230,10 @@
         <v>1.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU112" t="n">
         <v>1.94</v>
@@ -24042,10 +24042,10 @@
         <v>1.09</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU116" t="n">
         <v>1.61</v>
@@ -24248,7 +24248,7 @@
         <v>2.08</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU117" t="n">
         <v>1.7</v>
@@ -24448,7 +24448,7 @@
         <v>1.18</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT118" t="n">
         <v>1.31</v>
@@ -24651,7 +24651,7 @@
         <v>1.18</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT119" t="n">
         <v>1.46</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU120" t="n">
         <v>1.48</v>
@@ -25057,10 +25057,10 @@
         <v>0.73</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25260,7 +25260,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>1.46</v>
@@ -25463,10 +25463,10 @@
         <v>1.58</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU123" t="n">
         <v>1.71</v>
@@ -25669,7 +25669,7 @@
         <v>1.08</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU124" t="n">
         <v>2</v>
@@ -25869,10 +25869,10 @@
         <v>1.58</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,10 +26072,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU126" t="n">
         <v>1.93</v>
@@ -26684,7 +26684,7 @@
         <v>1.54</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU129" t="n">
         <v>1.78</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT131" t="n">
         <v>1.46</v>
@@ -27142,6 +27142,1021 @@
       </c>
       <c r="BK131" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2465713</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45016.60416666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>27</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4</v>
+      </c>
+      <c r="L132" t="n">
+        <v>4</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['18', '35', '38', '70']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>4</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" t="n">
+        <v>7</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2465714</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45016.63541666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>27</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['28', '82']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>10</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>11</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2465710</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45018.38541666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['85', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>4</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2465712</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>27</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2465711</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>27</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['3', '90+4']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>4</v>
+      </c>
+      <c r="R136" t="n">
+        <v>6</v>
+      </c>
+      <c r="S136" t="n">
+        <v>10</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT3" t="n">
         <v>1.64</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.93</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT10" t="n">
         <v>1.21</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU12" t="n">
         <v>1.83</v>
@@ -3136,7 +3136,7 @@
         <v>1.29</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU13" t="n">
         <v>1.43</v>
@@ -3339,7 +3339,7 @@
         <v>1.36</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU14" t="n">
         <v>1.2</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT15" t="n">
         <v>1.64</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT16" t="n">
         <v>0.93</v>
@@ -4354,7 +4354,7 @@
         <v>1.64</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT22" t="n">
         <v>1.21</v>
@@ -5166,7 +5166,7 @@
         <v>0.93</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU23" t="n">
         <v>1.31</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU24" t="n">
         <v>1.19</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT25" t="n">
         <v>1.15</v>
@@ -5775,7 +5775,7 @@
         <v>1.08</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU26" t="n">
         <v>1.79</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU27" t="n">
         <v>1.95</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU30" t="n">
         <v>1.44</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT32" t="n">
         <v>0.86</v>
@@ -7196,7 +7196,7 @@
         <v>1.64</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU33" t="n">
         <v>1.94</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -8008,7 +8008,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU37" t="n">
         <v>1.55</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8411,7 +8411,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT39" t="n">
         <v>0.86</v>
@@ -9020,10 +9020,10 @@
         <v>2.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU42" t="n">
         <v>1.86</v>
@@ -9226,7 +9226,7 @@
         <v>1.64</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU43" t="n">
         <v>1.68</v>
@@ -9832,7 +9832,7 @@
         <v>1.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT46" t="n">
         <v>1.15</v>
@@ -10241,7 +10241,7 @@
         <v>1.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU48" t="n">
         <v>1.6</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU49" t="n">
         <v>1.96</v>
@@ -10644,7 +10644,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT50" t="n">
         <v>1.57</v>
@@ -11050,7 +11050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT52" t="n">
         <v>1.15</v>
@@ -11256,7 +11256,7 @@
         <v>2.07</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>2.13</v>
@@ -11659,7 +11659,7 @@
         <v>1.2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT55" t="n">
         <v>1.21</v>
@@ -11865,7 +11865,7 @@
         <v>1.08</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
@@ -12471,10 +12471,10 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU59" t="n">
         <v>1.62</v>
@@ -12877,7 +12877,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT61" t="n">
         <v>0.93</v>
@@ -13083,7 +13083,7 @@
         <v>2.07</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU62" t="n">
         <v>2.07</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT64" t="n">
         <v>1.57</v>
@@ -13692,7 +13692,7 @@
         <v>1.36</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU65" t="n">
         <v>1.67</v>
@@ -14098,7 +14098,7 @@
         <v>0.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU67" t="n">
         <v>1.69</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU68" t="n">
         <v>1.79</v>
@@ -14501,10 +14501,10 @@
         <v>1.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.97</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT70" t="n">
         <v>1.15</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT71" t="n">
         <v>0.93</v>
@@ -15316,7 +15316,7 @@
         <v>1.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU73" t="n">
         <v>1.53</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT75" t="n">
         <v>0.86</v>
@@ -15925,7 +15925,7 @@
         <v>1.08</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU76" t="n">
         <v>1.93</v>
@@ -16328,7 +16328,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT78" t="n">
         <v>0.93</v>
@@ -16734,10 +16734,10 @@
         <v>1.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU80" t="n">
         <v>1.73</v>
@@ -17343,10 +17343,10 @@
         <v>0.88</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU83" t="n">
         <v>1.52</v>
@@ -17546,7 +17546,7 @@
         <v>1.63</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT84" t="n">
         <v>1.57</v>
@@ -17955,7 +17955,7 @@
         <v>1.08</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU86" t="n">
         <v>1.99</v>
@@ -18155,10 +18155,10 @@
         <v>0.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT90" t="n">
         <v>1.64</v>
@@ -18970,7 +18970,7 @@
         <v>2.07</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU91" t="n">
         <v>1.98</v>
@@ -19376,7 +19376,7 @@
         <v>1.36</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU93" t="n">
         <v>1.59</v>
@@ -19576,7 +19576,7 @@
         <v>1.44</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT94" t="n">
         <v>1.57</v>
@@ -19982,10 +19982,10 @@
         <v>0.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.91</v>
@@ -20388,7 +20388,7 @@
         <v>1.67</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT98" t="n">
         <v>1.64</v>
@@ -20594,7 +20594,7 @@
         <v>2.07</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU99" t="n">
         <v>1.94</v>
@@ -20794,7 +20794,7 @@
         <v>1.22</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT100" t="n">
         <v>0.86</v>
@@ -21000,7 +21000,7 @@
         <v>1.64</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU101" t="n">
         <v>1.89</v>
@@ -21203,7 +21203,7 @@
         <v>0.93</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21606,7 +21606,7 @@
         <v>0.9</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT104" t="n">
         <v>1.15</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT105" t="n">
         <v>1.21</v>
@@ -22015,7 +22015,7 @@
         <v>1.08</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU106" t="n">
         <v>1.94</v>
@@ -22215,10 +22215,10 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU107" t="n">
         <v>1.71</v>
@@ -22418,7 +22418,7 @@
         <v>0.7</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT108" t="n">
         <v>0.93</v>
@@ -22624,7 +22624,7 @@
         <v>1.29</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -23433,10 +23433,10 @@
         <v>1.18</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU113" t="n">
         <v>1.73</v>
@@ -23639,7 +23639,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23839,7 +23839,7 @@
         <v>1.09</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT115" t="n">
         <v>1.15</v>
@@ -24245,7 +24245,7 @@
         <v>1.36</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT117" t="n">
         <v>1.21</v>
@@ -24451,7 +24451,7 @@
         <v>0.93</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU118" t="n">
         <v>1.51</v>
@@ -24654,7 +24654,7 @@
         <v>1.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.62</v>
@@ -24854,7 +24854,7 @@
         <v>1.45</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT120" t="n">
         <v>1.64</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.63</v>
@@ -26275,7 +26275,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT127" t="n">
         <v>1.15</v>
@@ -26478,10 +26478,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU128" t="n">
         <v>1.75</v>
@@ -26681,7 +26681,7 @@
         <v>0.75</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT129" t="n">
         <v>0.93</v>
@@ -26884,10 +26884,10 @@
         <v>0.42</v>
       </c>
       <c r="AS130" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU130" t="n">
         <v>1.47</v>
@@ -27090,7 +27090,7 @@
         <v>2.07</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU131" t="n">
         <v>1.92</v>
@@ -28156,6 +28156,818 @@
         <v>10</v>
       </c>
       <c r="BK136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2465715</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>2</v>
+      </c>
+      <c r="R137" t="n">
+        <v>8</v>
+      </c>
+      <c r="S137" t="n">
+        <v>10</v>
+      </c>
+      <c r="T137" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2465719</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45023.63541666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['16', '61']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2</v>
+      </c>
+      <c r="R138" t="n">
+        <v>6</v>
+      </c>
+      <c r="S138" t="n">
+        <v>8</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2465716</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>4</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+      <c r="N139" t="n">
+        <v>7</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['38', '49', '53']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['24', '25', '37', '68']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2</v>
+      </c>
+      <c r="R139" t="n">
+        <v>10</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2465718</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['6', '58']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>7</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK140" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>2.07</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.57</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.86</v>
@@ -5572,7 +5572,7 @@
         <v>1.43</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU25" t="n">
         <v>1.84</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>1.57</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU36" t="n">
         <v>1.67</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>1.64</v>
@@ -9835,7 +9835,7 @@
         <v>1.14</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU46" t="n">
         <v>1.46</v>
@@ -11053,7 +11053,7 @@
         <v>2.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU52" t="n">
         <v>1.86</v>
@@ -11862,7 +11862,7 @@
         <v>2.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.43</v>
@@ -12271,7 +12271,7 @@
         <v>0.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU58" t="n">
         <v>1.56</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>1.21</v>
@@ -14707,7 +14707,7 @@
         <v>2.07</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -15922,7 +15922,7 @@
         <v>0.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.43</v>
@@ -16534,7 +16534,7 @@
         <v>1.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU79" t="n">
         <v>1.82</v>
@@ -17752,7 +17752,7 @@
         <v>1.36</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU85" t="n">
         <v>1.66</v>
@@ -17952,7 +17952,7 @@
         <v>0.88</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.36</v>
@@ -19170,7 +19170,7 @@
         <v>1.22</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>1.21</v>
@@ -19782,7 +19782,7 @@
         <v>0.93</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU95" t="n">
         <v>1.51</v>
@@ -21609,7 +21609,7 @@
         <v>1.14</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>1.57</v>
@@ -23636,7 +23636,7 @@
         <v>0.18</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
         <v>0.43</v>
@@ -23842,7 +23842,7 @@
         <v>1.43</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
         <v>0.86</v>
@@ -26278,7 +26278,7 @@
         <v>2.14</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU127" t="n">
         <v>1.67</v>
@@ -28969,6 +28969,209 @@
       </c>
       <c r="BK140" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2465717</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45026.38541666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>28</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['24', '27', '53', '76']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>5</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4</v>
+      </c>
+      <c r="S141" t="n">
+        <v>9</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.57</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT7" t="n">
         <v>1.43</v>
@@ -2527,7 +2527,7 @@
         <v>1.43</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.43</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>1.46</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>1.25</v>
@@ -4963,7 +4963,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.86</v>
@@ -5163,7 +5163,7 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT23" t="n">
         <v>1.36</v>
@@ -6178,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU28" t="n">
         <v>1.47</v>
@@ -7399,7 +7399,7 @@
         <v>1.36</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -8005,7 +8005,7 @@
         <v>2.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.43</v>
@@ -8614,7 +8614,7 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT40" t="n">
         <v>0.93</v>
@@ -8820,7 +8820,7 @@
         <v>2.07</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.97</v>
@@ -9429,7 +9429,7 @@
         <v>2.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU44" t="n">
         <v>2.27</v>
@@ -10035,7 +10035,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT47" t="n">
         <v>0.86</v>
@@ -10647,7 +10647,7 @@
         <v>2.07</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT51" t="n">
         <v>0.93</v>
@@ -11662,7 +11662,7 @@
         <v>1.14</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>1.44</v>
@@ -12068,7 +12068,7 @@
         <v>1.64</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.56</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT58" t="n">
         <v>1.29</v>
@@ -13283,7 +13283,7 @@
         <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.64</v>
@@ -13489,7 +13489,7 @@
         <v>1.14</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.41</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>2.02</v>
@@ -14095,7 +14095,7 @@
         <v>0.86</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT67" t="n">
         <v>1.57</v>
@@ -15113,7 +15113,7 @@
         <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.68</v>
@@ -15313,7 +15313,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT73" t="n">
         <v>1.36</v>
@@ -15519,7 +15519,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.79</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT77" t="n">
         <v>1.64</v>
@@ -17140,10 +17140,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -17549,7 +17549,7 @@
         <v>1.43</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.89</v>
@@ -18358,7 +18358,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
         <v>0.86</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.89</v>
@@ -19579,7 +19579,7 @@
         <v>1.14</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.48</v>
@@ -19779,7 +19779,7 @@
         <v>0.89</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT95" t="n">
         <v>1.29</v>
@@ -20185,7 +20185,7 @@
         <v>0.78</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.93</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT102" t="n">
         <v>1.36</v>
@@ -21406,7 +21406,7 @@
         <v>1.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.54</v>
@@ -21812,7 +21812,7 @@
         <v>1.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.83</v>
@@ -22621,7 +22621,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
         <v>1.43</v>
@@ -23233,7 +23233,7 @@
         <v>1.64</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU112" t="n">
         <v>1.94</v>
@@ -24248,7 +24248,7 @@
         <v>2.14</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU117" t="n">
         <v>1.7</v>
@@ -24448,7 +24448,7 @@
         <v>1.18</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT118" t="n">
         <v>1.43</v>
@@ -24651,7 +24651,7 @@
         <v>1.18</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT119" t="n">
         <v>1.57</v>
@@ -25260,7 +25260,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25869,10 +25869,10 @@
         <v>1.58</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26075,7 +26075,7 @@
         <v>1.64</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.93</v>
@@ -27290,10 +27290,10 @@
         <v>1.31</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -27899,7 +27899,7 @@
         <v>1.69</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT135" t="n">
         <v>1.64</v>
@@ -28105,7 +28105,7 @@
         <v>2.07</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.84</v>
@@ -29172,6 +29172,412 @@
       </c>
       <c r="BK141" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2465722</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45030.60416666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Neuchâtel Xamax</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>3</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2465723</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45030.60416666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>4</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3</v>
+      </c>
+      <c r="M143" t="n">
+        <v>4</v>
+      </c>
+      <c r="N143" t="n">
+        <v>7</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['14', '32', '38']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['25', '50', '78', '82']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>9</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Challenge League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.36</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT5" t="n">
         <v>1.36</v>
@@ -1918,7 +1918,7 @@
         <v>0.87</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT8" t="n">
         <v>1.29</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT9" t="n">
         <v>0.86</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU15" t="n">
         <v>1.18</v>
@@ -3745,7 +3745,7 @@
         <v>2.07</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU16" t="n">
         <v>1.53</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -4757,10 +4757,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU24" t="n">
         <v>1.19</v>
@@ -6384,7 +6384,7 @@
         <v>1.36</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT30" t="n">
         <v>0.43</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT33" t="n">
         <v>1.36</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU37" t="n">
         <v>1.55</v>
@@ -8617,7 +8617,7 @@
         <v>0.87</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU40" t="n">
         <v>1.34</v>
@@ -8817,7 +8817,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT41" t="n">
         <v>1.67</v>
@@ -9023,7 +9023,7 @@
         <v>2.14</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU42" t="n">
         <v>1.86</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>0.43</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -9832,7 +9832,7 @@
         <v>1.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT46" t="n">
         <v>1.29</v>
@@ -10850,7 +10850,7 @@
         <v>1.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT53" t="n">
         <v>0.43</v>
@@ -11456,10 +11456,10 @@
         <v>1.6</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU54" t="n">
         <v>1.58</v>
@@ -11659,7 +11659,7 @@
         <v>1.2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT55" t="n">
         <v>1.33</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
@@ -12065,7 +12065,7 @@
         <v>1.4</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT57" t="n">
         <v>1.67</v>
@@ -12880,7 +12880,7 @@
         <v>1.43</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT62" t="n">
         <v>1.57</v>
@@ -13286,7 +13286,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT64" t="n">
         <v>1.67</v>
@@ -14504,7 +14504,7 @@
         <v>1.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.97</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU71" t="n">
         <v>1.49</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -16128,7 +16128,7 @@
         <v>0.87</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -16331,7 +16331,7 @@
         <v>2.14</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT79" t="n">
         <v>1.29</v>
@@ -16737,7 +16737,7 @@
         <v>2.07</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU80" t="n">
         <v>1.73</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT81" t="n">
         <v>0.86</v>
@@ -17343,7 +17343,7 @@
         <v>0.88</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT83" t="n">
         <v>1.57</v>
@@ -18561,10 +18561,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU89" t="n">
         <v>1.84</v>
@@ -18767,7 +18767,7 @@
         <v>2.07</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU90" t="n">
         <v>1.75</v>
@@ -18967,10 +18967,10 @@
         <v>1.38</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU91" t="n">
         <v>1.98</v>
@@ -19576,7 +19576,7 @@
         <v>1.44</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT94" t="n">
         <v>1.67</v>
@@ -20188,7 +20188,7 @@
         <v>1.2</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20391,7 +20391,7 @@
         <v>2.14</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU98" t="n">
         <v>1.71</v>
@@ -20591,10 +20591,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.94</v>
@@ -20997,7 +20997,7 @@
         <v>0.22</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT101" t="n">
         <v>0.43</v>
@@ -21606,7 +21606,7 @@
         <v>0.9</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT104" t="n">
         <v>1.29</v>
@@ -22421,7 +22421,7 @@
         <v>2.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU108" t="n">
         <v>1.7</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -22824,10 +22824,10 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU110" t="n">
         <v>1.9</v>
@@ -23027,7 +23027,7 @@
         <v>1.1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT111" t="n">
         <v>0.86</v>
@@ -23230,7 +23230,7 @@
         <v>1.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT112" t="n">
         <v>1.67</v>
@@ -24451,7 +24451,7 @@
         <v>0.87</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU118" t="n">
         <v>1.51</v>
@@ -24854,10 +24854,10 @@
         <v>1.45</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU120" t="n">
         <v>1.48</v>
@@ -25057,10 +25057,10 @@
         <v>0.73</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25466,7 +25466,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU123" t="n">
         <v>1.71</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT126" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>2.07</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU128" t="n">
         <v>1.75</v>
@@ -26684,7 +26684,7 @@
         <v>1.43</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU129" t="n">
         <v>1.78</v>
@@ -26884,7 +26884,7 @@
         <v>0.42</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT130" t="n">
         <v>0.43</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT131" t="n">
         <v>1.57</v>
@@ -27493,7 +27493,7 @@
         <v>0.92</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
         <v>0.86</v>
@@ -27699,7 +27699,7 @@
         <v>1.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU134" t="n">
         <v>1.68</v>
@@ -27902,7 +27902,7 @@
         <v>0.87</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28102,7 +28102,7 @@
         <v>1.69</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT136" t="n">
         <v>1.67</v>
@@ -28305,7 +28305,7 @@
         <v>1.46</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT137" t="n">
         <v>1.36</v>
@@ -28714,7 +28714,7 @@
         <v>1.43</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU139" t="n">
         <v>1.78</v>
@@ -29578,6 +29578,615 @@
       </c>
       <c r="BK143" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2465724</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45030.63541666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>3</v>
+      </c>
+      <c r="N144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['4', '90']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['14', '19', '26']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>6</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>9</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2465720</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45032.38541666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>6</v>
+      </c>
+      <c r="N145" t="n">
+        <v>7</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['7', '11', '16', '20', '61', '65']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4</v>
+      </c>
+      <c r="S145" t="n">
+        <v>8</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2465721</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Switzerland Challenge League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45032.47916666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['33', '51']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>7</v>
+      </c>
+      <c r="S146" t="n">
+        <v>11</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V146" t="n">
+        <v>4</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
